--- a/feature_analysis/Jupiter Notebooks/feature_samples.xlsx
+++ b/feature_analysis/Jupiter Notebooks/feature_samples.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.0001427551748750892</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>en680l</t>
+          <t>bk7om7</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AITA for telling every poster here that they're giant assholes? Just ran into this subreddit. Every single post involves the poster being smarter than their family, their family does something stupid and irritating and then the poster complains about their family being stupid and irritating while they never just planned for the fact that their family is stupid and irritating.
-If your family is stupid plan for it and find ways to work around it. Humans are social animals. There is never a healthy way to distance yourself from your family. There are only times when that's a less unhealthy thing then the alternative because the rest of your family is that fucked up. 
-It's rarely healthy to bitch in any public way about your family. Unless you're intentionally distancing yourself from them as a considered action because they're that bad for you. Even when you publicly bitch them out online you're conditioning yourself that bitching out your family will make you feel better and eventually that will lead to you bitching to someone that lets it back to your family that you publicly bitched them out. This whole sub is full of assholes that are being unhealthy and fucking yourselves over. AITA?</t>
+          <t>AITA for not touching bf when he doesn’t shower? He goes several days, even a week now without showering. He’s otherwise pretty attractive, but when I know he’s this unclean I just preconsciously am not physically attracted to him. He’s had issues with this for a while because the way the water feels bothers his skin, or something like that. When he does shower and practice hygiene he’s almost physically perfect to me. Otherwise, I just don’t feel it. He feels unappreciated because I’ve not been physically affectionate.</t>
         </is>
       </c>
     </row>
@@ -503,29 +503,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.010471204</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.0024570024</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ift8zg</t>
+          <t>en5m5z</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>WIBTA if I get a divorce? Hi, I (24F) got married last year to a man I barely knew and didn’t love. It was an arranged marriage and I was emotionally pressured into it. The reason I couldn’t say no was partially, because I was made to feel that since I didn’t have anyone else in my life, I shouldn’t let this chance slide. The guy is 8 years older and financially much more well-off than me and my family. 
-Now, I’m extremely miserable. The relationship is toxic and borderline abusive. He’s dismissive of everything I think, pursue, want, etc. He wants me to become someone he has made up in his mind. I don’t think I have enough autonomy. That has made me despise him. I don’t even feel like making small talk with him. Even spending a minute with him feels like hard labour. Sometimes I question, am I the evil person? I feel guilty about not loving him. And sometimes I feel like maybe that’s what causing him to treat me the way he does. Like I’m responsible for making him frustrated. 
-To everyone else, he’s an angel. He’s deeply respectful with everyone and very courteous. I find everything he does very performative. His dad and my dad are best friends too (which further complicates everything) 
-The people I’ve spoken to in-person tell me that since I’m already in it, why leave? Especially because divorce is a huge taboo in our society. They say how will I find someone else and how will I know they’ll be better? Why not work on this relationship instead. They think there’s hope. But mostly, they think I shouldn’t give away the financial stability and high status in society that comes with this marriage. 
-Most importantly, the divorce will make me and my family outcasts in a way, because the guy’s family is highly respected and regarded in our circle. The long history of friendship between our families may also be tarnished.
-I want to know your honest opinions on whether I’ll be the asshole for jeopardising so many lives just to feel better and freer? 
-Additional details: I’m a college graduate and I recently found work. It will be enough to keep me afloat in life.</t>
+          <t>WIBTA for snitching on a co-worker? I work for a small marketing office with three full time employees and two students (I'm one of the students). The boss shows up very rarely so we mostly answer to the project manager and ask him for direction. Well this project manager recently hired his boyfriend for the assistant/secretary position. The boss signed off on this even though the guy has no experience with the secretary type of work. He studied psychology and later got into programming.
+But whatever, if the guy did his job well and there wasn't any conflict I wouldn't complain.
+However things have been going downhill ever since the boyfriend came to work for us, which was only like 2 months ago. Oftentimes he shows up for work an hour late and never acknowledges it or apologizes. He and his boyfriend argue *all the freaking time*, whether about work or personal issues. Us other employees can hear them from our room and it's weird to say the least. To top it all off, this guy doesn't do his job well at all. A few weeks in, we found out he wasn't even keeping a proper excel sheet for tasks, clients, deadlines etc. like the previous secretary. He was seriously just plastering post-its all over his desk and thought that would be sufficient because "he has no time to enter all that stuff into excel" after all the other work he does. That's literally his job though? Maybe if he showed up on time every day or didn't talk/argue with his boyfriend so much or didn't take hourlong lunch breaks he'd be able to free up some time.
+Seriously half the time I feel like he doesn't even want to answer the phone, since he's always somehow the last one to get to it.
+I've talked to my co-workers, the ones that aren't part of the couple. They all agree this is a terrible arrangement but nobody wants to confront the project manager since he's effectively our superior and that's his boyfriend. What if he lies about us being the bad workers and the boss fires one of us? I don't actually want to believe he'd do that, but what do I know, this is a first for me.
+So WIBTA (or any one of us) to go behind their backs and tell the boss directly what the current situation is?</t>
         </is>
       </c>
     </row>
@@ -537,23 +538,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.012987013</v>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.005524862</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.7024793388429752</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>azwxi6</t>
+          <t>d1q4xg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">AITA For breaking up with a girl because she said "it doesnt feel like we are in a relationship, it feels like we are friends that kiss" ? So as the title suggests I recently broke up with someone who said the quote above. We had been dating for about a month and I asked her one evening if our relationship was going in a positive direction. She then responded with the above line. I asked her to elaborate and she said that she didn't feel as though we we're even in a relationship. So the next day I told her I didn't want to talk for a couple of days. During that time I asked my friends and even my boss and they all concluded that she didn't want to commit. I asked her if she wanted to remain in a relationship to which she replied "I still care about you and don't want you out of my life but it still feels as though we aren't even dating" so I then broke up with her and didn't talk to her for a while after that. I still feel pretty bad about it, but I'm just curious what your guys opinion is. </t>
+          <t>AITA for yelling at some Kids in McDonald's? Recently, me (m19) and my Girlfriend (19) Bad lunch at McDonalds. We sat down got our food and soon where joined by a group of boys (I guess around 6 ppl 12 to 14 y.o. ). I think it was from a school or something.
+Overall they where pretty loud and annoying and all the people around us gave then some wierd and annoyed looks. After a while more of the group came there. At this point I was already annoyed too. And than they put out there JBL box and plaued some music. But loud enough evedybody could here it in the whole McDonalds. As soon as the music went on I screamed at them to shut down the music. They did so, whispering sonething like: "whats his problem?", but left maybe a minute later. 
+I start too feel like I overreacted but since all people where looking annoyed and I dont think anybody enjoyed them being around it feeled correct in the moment.</t>
         </is>
       </c>
     </row>
@@ -565,26 +570,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.019607844</v>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.007677543</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>bkw9gd</t>
+          <t>hljlhu</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AITA for not wanting to make friends. The title sounds weird, but hear me out. 
-My husband thinks I am "asshole-ish" for having no desire to hangout with my coworkers outside of work, not wanting to go out and make friends with strangers .... Or just generally make an effort to get to know other people. There is one case in particular where he thinks I am a jerk to a co-worker that I really do get along, and she is always inviting me to do things, but I just do want to. 
-I have friends, they just happen to live very far away, and I don't see them often. I am ok with that. 
-My husband though thinks I should get out more, and stop rejecting people when they ask me to go out. I am happy with myself though, and don't see the point.</t>
+          <t>AITA for standing up a friend in her birthday. Some backstory : friend 1 and friend 2 were introduced to each other by me but became very close but they have started to shut me out and are being very rude about it saying I am never trying to be friends with them.  I also moved a few hours away last year due to family but I usually FaceTime with friend 2 regularly. Also this happened recently but when restrictions in my town were lifted enough that 6 people could meet.
+So I was set to meet my niece whom I had not seen in a long time (she is three now ) and I was excited but then I got a message from friend 1 saying she wanted me to come to her birthday party I dropped all my plans and said yes . Then almost a day later I get a message saying I can’t come. I ask why and I assume that friend 2 isn’t coming aswell , but friend 1 says that her mother doesn’t have enough food for both of us . At this point I am mad because I have cancelled all my plans but I understand that it was her mums choice . However I was not going for food I was going to catch up with friends. So understandably mad friend 1 made plans to meet with me at a park I said yes because I wanted to see her. I fully intended in standing her up. 
+I had plans with a another friend who we all know. Friend 3 was friends with friend 2 but friend one had constantly talked sh*t about her to everyone and she knew. Me and friend three had shopping plans for the next day but since I was disinvited we moved them up and went shopping when I was meant to be meeting friend 1 .
+(Up till this point I had been told that friend one and two were going to her house on a picnic and just didn’t have enough food for me)
+So me and friend 3 are shopping and we walk into a store and there they are friend 1 and 2 shopping I was mad and so was friend 3 because I had explained all of this to her. Friend 1 ignored us and put on a pretend look of surprise.
+Later we met up and discussed it friend 2 was completely silent but friend one was shouting about how I was an asshole for leaving her in the park ( I said I waited there ) she had just been caught in a big lie and was trying to turn it around on me I told her if she didn’t want me at her birthday she could have just told me as I had cancelled plans to meet a new relative for the first time 
+She insists that I am the asshole but I think lying about it and just acting surprised when I catch her makes her the Asshole 
+So AITA</t>
         </is>
       </c>
     </row>
@@ -596,28 +607,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.027863776</v>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.008333334</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>e6dhqp</t>
+          <t>jnhv63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aita for not liking this person. I’ll keep this short. I’m 24 and my bf has one really immature friend, he’s lost his job from fucking up he’s hurt his leg from being so drunk he fell and broke it and he’d rather pay for sex than just wait till he’s found his own happiness. 
-I really don’t like him, recently I went to my bf’s and his friend well call him Jamie. Jamie text him and said hey I wanna play fifa, come on now. My bf said no I can’t I’m out and his response was “gf again” and my bf said well yeah I told you I’m with her. We got back and he asked me if he could go play and it was more of a I’m gonna go anyway. Which was fine as I was heading to bed anyway, but his mate kept asking. 
-He told me his mate said to him look at that woman over there would you cheat on your gf for £200 with that woman. Which I was like erm okay that’s not cool really. But I let it slide. 
-Jamie encourages my bf to go with him to strip clubs after a night out mainly so Jamie can go get laid. 
-Our anniversary is this week and Jamie text my bf saying wanna go cinema and go get new clothes with me. And my bf said no I have plans and Jamie’s reply was “gf again” I got kinda mad at this as small as it is  because his friend is clingy and it’s disrespectful toward me to encourage my bf to look at tits and do shit for money. And I never got mad about the previous stuff but today took the absolute p*** mainly outta me 
-My bf tries to re assure me and not stesss but Jamie’s comments are starting to piss me off</t>
+          <t>AITA for not wanting to move out for my roommates? To get context out of the way, early this year me and my buddy, (G) were approached by a friend of his, and two of her friends. They had found a cheap house listed for rent, but it had 5 beds, so they needed two more roommates. We agreed and everything has gone well so far. G and I mostly keep to ourselves, but we are all friendly and get along well (fair share of chores, etc, etc).
+Our lease renewal needs to be signed by tomorrow, so we had a discussion about it yesterday (there's a variety of reasons we didn't talk about it earlier, but that's not really the point.) G and I's expectations were that either everyone would stay, or we would stay and the girls would leave. We had no intentions of moving because we are very happy with the house and living situation.
+We were kind of blindsided when the girls asked *us* to move out because they had two of their friends who they would rather live with next year. From G and I's perspective, if they have a problem with the living arrangement, it's their responsibility to change it for themselves (i.e. finding another 5 bed place for themselves and their two friends) rather than having us find another more expensive place (our rent is lower than pretty much any other rental in town) and put down first month's rent and a security deposit in the few weeks before houses start getting grabbed up and G goes home for Thanksgiving/Christmas.
+The girls were not happy with our response, and even seemed kind of surprised that we didn't want to essentially move out as a favor. From what I can tell, their only argument is majority rules- i.e. because there's three of them and two of us, we should be the be the ones to move out.
+We're all going to discuss it again later today. It seems to me like they don't have a leg to stand on here, but maybe I'm wrong.</t>
         </is>
       </c>
     </row>
@@ -629,27 +641,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.031914894</v>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.009259259</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7878787878787878</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>eps39i</t>
+          <t>by3st2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WIBTA to my wife if I hire my daughter as our housekeeper? My daughter, Kay (30f)’s husband Zach (39m) has been out of town on business for three weeks, due back next week. Kay has been struggling with addiction to alcohol for the past year. She’s doing very well but has a slip-up now and then. She’s staying with my wife and I (a suburb of the city she lives in, about 45 minute drive) while he’s away. Kay still has her independence and goes home after work to feed her cats and take care of things every day, we just all decided it would be better for her to not be by herself at home. 
-In order to “earn her keep” as she says, Kay has been cooking delicious dinners and prepping lunch for us every day, as well as tidying up the house. She loves cooking healthy food and trying exotic recipes, mostly vegetarian and fish. I have eaten more vegetables in the past two weeks than probably all of 2019! She also makes sure our puppies get plenty of exercise, keeps the kitchen spotless after she cooks, and takes out the trash and recycling.
-My wife doesn’t work, though she keeps plenty busy - she looks after our niece and nephew, runs errands for my son (36m) and comes into my office to help with scanning and filing. She’s... not the greatest cook (learned from her austere Depression-era mother) and our meals are usually either takeout or, when she does cook, rather bland, meat-and-potatoes.
-Long story short, Kay is a much better housekeeper than my wife. The house looks great and we’re eating better than ever. My wife can be territorial about our home and likes things her way, but I know she’s enjoying the food and spending time with Kay. Kay has a full-time job, a husband, and hobbies, but I would make it worth her while. I don’t want to put either of them or Zach in an awkward position where they feel pressured to say yes or no.
-WIBTA if I ask (and offer to pay) for my daughter to keep cooking and cleaning for us (1-2 hrs/day)?</t>
+          <t>AITA for wanting to elope and not have a normal wedding. Long story short, my girlfriend and I are planning to elope and get married.
+We both are excited about the idea but are also concerned our family members and friends might get pissed off they weren’t included. For the most part all of our family is completely unaware we’re considering this (she’s told her mother we’ve discussed marriage but that’s it).
+One of the main reasons we want to elope (besides wanting to marry each other) is it saves us an absolute ton of money not having a normal wedding. We both have good jobs and could definitely afford a wedding, it’s just we both would rather save that money or spend it on other things we’d enjoy more. My girlfriend also works in the wedding industry doing makeup and surprisingly for her that’s another reason she has no interest in going the normal marriage route (she says she’s half makeup artist half therapist always having to deal with brides having meltdowns about how stressful it all is).
+Would we be assholes if we eloped? I’ve heard stories about people being offended they weren’t invited to weddings...we’d literally be inviting no one lol.
+Also, my little brother recently got engaged. I’m not sure if there’s some sort of unspoken etiquette or something but I wouldn’t want to upset him or his future wife by possibly “stealing their thunder” by sneaking in our elopement during their engagement period (we’re planning to get married before they are since they’re having a pretty long engagement).
+Our plan is to go on a long vacation, have some sort of symbolic ceremony (neither of us are religious), take a few nice photos together, and go to the courthouse when we’re back to make it official.
+Would we be assholes from excluding our friends and family from this?</t>
         </is>
       </c>
     </row>
@@ -661,38 +677,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04054054</v>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.010683761</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>i3ti0e</t>
+          <t>e82om3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AITA for saying I hope my brother doesn’t get back into the country? A little info: My brother is 20 yrs older than me. He and my parents came to the US long before I (23M) was born when he was 2.
-My brother’s always been trouble ever since he was a teen. Joined a gang, vandalized, became an addict, got himself arrested multiple times, had 3 kids with 2 different women that he couldn’t support. 
-A few times my dad had to call the cops on him because he’d come home high out of his mind.
-Don’t know why it took so long but he was finally deported back to Mexico when he was 26. The only one who was really devastated was my mom. 
-He got arrested again over there a few years after he was deported. Idk for what, my siblings don’t know either but it landed him in prison for 11 years.
-For years my mom constantly sent him money we didn’t have, giving money to his exes to spend on his kids, spending even more on trips to go visit him. This caused a lot of problems between my parents because my dad didn’t agree with this and they divorced. I resented my brother after that since all of this was because of him. 
-He was released 3 years ago and still has my mom sending him money because finding work is hard according him, but we all know what he’s using that money for. 
-Anyways I’ve been back home from college since campus closed and I’m hearing from my mom that she’s hired an immigration lawyer and is hoping to have my brother’s record cleared so he can try to get his citizenship and come back to the US. Apparently he convinced his oldest son to sponsor him. 
-I was annoyed that my mom was doing this when 1. There’s no guarantee he’ll get papers and 2. He’s just gonna get into the same trouble again. 
-Me and my siblings always had to work for everything ourselves because she wasted most of her money on him, even with what we were given by our dad. 
-And he’s a 43 year old man still depending on our mom. 
-Went upstairs after that to talk with one of my brothers over the phone. When we brought this up in our convo, I said “god I hope they don’t give him his papers. Somebody else deserves that more than him.” I didn’t know that my door was open so my mom heard everything I said. 
-She barged in and told me how could I say something like that about my own brother. He’s a “good person” who deserves the same opportunities we have here. She acted like this was a massive betrayal and looked disgusted with me. After she yelled at me for 10 mins, she said she couldn’t look at me anymore and left. 
-My other brother told me mom called him in tears because of what I said and she can’t believe I have no love for my brother. I do feel I should apologize just to get her to calm down, but I’m not sure if I’m a bad person for saying that, even if everyone else in our family agrees with me.
-But since he’s my brother, I don’t know if it’s wrong for me to believe that he shouldn’t be back here since that’ll make his life harder over there. 
-AITA?</t>
+          <t>AITA for not willing to be emotionally invested as a father? I \[23M\] hooked up with a woman \[40F\] two months ago. Our age difference was significant enough for her disinterest in traditionally dating. Instead she elected that we have *fun*. Our conversations were insightful, and adventures thrilling. We consensually agreed to engage in unprotected sex, as STDs/STIs were in the clear. I asked about her concerns on getting pregnant and she expressed zero, as she didn't think it possible - sighting years of failure to conceive, intentionally and/or accidentally. Ultimately, we got along well, texting often and seeing each other some 4 times within the first month of us meeting.
+Sometime in the next month she informed me she was pregnant. This was a surprise to us both. I consoled her as emotions flared, keeping calm myself but automatically assuming she would not keep it given the circumstances (age difference, casual relationship, shaky financial standings for us both etc.)
+It turned out she is in no way emotionally prepared for an abortion, barring complications and viability issues. I understood and accepted her right to choose, despite personally believing it is probably not a good idea at the moment.
+In turn, I told her I was in no way emotionally/psychologically prepared to take on the *daddy* role and would of course pay child support, despite shaky financial groundings myself (recent grad, new city, freelance). While she does not want me to have to sacrifice my career ambitions, social freedom and other elements of my life, she expressed dissatisfaction in **just** paying child support saying it would be insanely difficult for her to do everything else alone. I found this obvious. She'd still be working (she has the only stable job) and then would have to take on other child-care duties.
+I have the choice of taking on a sort of *"babysitting"* role, being around for some things and without the expectation of being around for it all. But I know this wouldn't necessarily make things easier, and that being fully involved would be the best choice. I also understand that it isn't in my best interest to completely neglect my own liberties this early on in life because I know I'd harbor feelings of resentment later. 
+I'm afraid my guilt, and worries of her potential hardships as a single mother would eventually have me surrendering. Im conflicted. But I also understand that we both have the opportunity to make our own decisions and that I/we should not *feel bad* about the others choice. The pregnancy is still in the first trimester. We've maintained a respectful relationship with one another, both listening to each other as we sort this out 
+AITA for not willing to be a *daddy*?</t>
         </is>
       </c>
     </row>
@@ -704,29 +713,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>35%</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04895105</v>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.011904762</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>0.001879699248120301</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>c1cmm9</t>
+          <t>dn19ft</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AITA for telling my parents that I don't give a F about my homeland? I'm (27M) an immigrant from a certain east Asian developing country in the US. I came when I was 21, to do my Masters, and I'm currently working full TIME at a tech company.
-My parents want me to come back home to my home country. Their main reasons for this are 1. It is my home country hence my duty to come 'help the economy' and such. 2. The culture in US is not appropriate for raising kids (I come from a conservative family) 3. The 'white people' will never accept you as you own.
-I find all of the reasons bull crap. I send money to my parents every month (they don't need it, nor request it, but I do anyway) so that should help the economy. Also, I don't feel I own anything to my home country given i have faced so many hardships and what not due to corruption, poverty, etc.
-I find the culture in US just perfect, live and let live.
-The 'white people' (They just meant everyone living there, it wasn't a racial thing) have treated me with respect and kindness more than half the people in my own country.
-I might have other reasons to go back, like take care of my parents, help them etc, but at this stage it's not needed. So I clearly told them two days back, that I don't give a F about my home country as such. This upset them a lot, and they said things to me like being unpatriotic, ungrateful etc.
-AITA?</t>
+          <t>AITA for being "the other guy" and then coming clean, ruining several relationships in the process? Some backstory is needed to fully understand my motivations in all this. I was apart of a threeway relationship. It ended very badly, and it eventually came to light the instigator of this "threeway" was also seeing other people behind our backs. I broke things off fell into a deep depression. I've come out of this a bit stronger and wiser, and I swore to myself that I would never let something like this happen again.
+2 Years Later
+I got a seasonal job at a Halloween specialty franchise, and the district manager who hired me was also gay, and we had an instant attraction. He eventually told me, after we fooled around for a bit, that he was coming out of a five-year relationship, that his bf had gone through some trauma, but didn't want to abandon him. I understood, and after reflecting on things, thought that this situation was very different from the last one, and things would work out better this time.
+After hooking up a few times, it came out that these two were trying to patch things up after all, and that the manager wanted to stay friends. But then he started telling me that he still liked me and wanted to keep fooling around and see where things could go. So I lied to his bf and told him we didn't do anything. And then we hooked up again, this time with me knowing that my manager was actively lying and cheating on his bf. I fucked up this time. I could have said no, but I didn't. But then he asked me to erase all my messages to him. That made me feel cheap and like I was his "dirty little secret".  I lied to him and told him I would. But I couldn't erase those messages, they were my insurance policy.
+Last night, I became overwhelmed by my rage and resentment towards him and this situation. I couldn't believe I had allowed this to happen a second time. But I saw a golden opportunity to do things differently. After sleeping on it and asking several friends what they thought I should do, I finally came clean to the bf. I told him everything, sent screenshots of our messages, everything. The manager immediately started blowing up my phone, calling me all sorts of horrible things and told me I was a fucked-up person and that I was lying. Even when I sent screenshots of us sexting and making plans to hookup. The bf was much more receptive and told me he forgave me and thanked me for being honest. He also told me that the manager was denying everything and telling him that I was crazy and making this all up, even with the proof.
+I have no idea what's going to happen now, but I've ruined what was originally a pretty decent friendship, maybe another one, and may have destroyed a 5-year relationship in the process. I don't feel good about any of this really, besides finally coming clean and confronting the manager about his deception and lies. I told him straight up "I didn't ask people to lie, you did. I didn't ask you to delete evidence, you did. I didn't cheat, you did." But I know this is still partially my fault. AITA for coming clean?</t>
         </is>
       </c>
     </row>
@@ -738,27 +748,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>40%</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.050847456</v>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.012787724</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>d6evz9</t>
+          <t>f1efwi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AITA for lying to my mum about my gf's situation? Let's put things in context first. Me (24F) and my gf (23F) have been together for almost 4 years now. We started dating when I was abroad for my studies and had a long distance relationship for almost three years. Last year, after I completed my master, I went to live with her parents and found a job in her country. 
-Now, my mum has had some trouble in the past with me being homosexual. She's gotten over it, but I know she'd still prefer me to get with a guy. Since I met my partner, she complained about her "not doing anything with her life". In the beginning of our relationship, she was home-ridden and relying on social aid because of mental health issues. 
-The thing is, my mum and mental illness... Well, it does not sit well. I have been overlooked as a depressive and anxious teen/young adult under her care for 10+ years before I got diagnosed here with severe PTSD - which she does not know.
-My partner has now made good plans for the future and was able to start studying, which we all found awesome. However, she's currently having a relapse. When my mum asks me about it, I always tell her she's at school and everything's doing fine. I feel really bad for lying to her, but I do not want her to critise my relationship yet again. 
-I know I shouldn't lie to my mum. She means good and wants what's best for me, but she caused a lot of tension in my relationship in the past. So Reddit, am I the asshole for lying to her?</t>
+          <t>AITA for telling my boyfriend about winning a video game? He just found out today that his roommate is moving out with very little notice and is concerned about losing his apartment. [We do not live together, and due to recent issues in our relationship I am unwilling to live with him right now anyway] Now, this was his month to pay the rent anyway which will give him 3 months to sort out a living situation because rent in our city paid once every 3 months. He and his roommate alternated rent payments so his roommate isnt skimping out on this months rent and it isnt an unexpected expense. Anyway he's understandably worried about it, he called me to let me know what was happening and we talked about it a bit and texted a bit. Well, several hours later I finished playing a video game. I was pretty excited about it because I got it platinumed and texted him to let him know; it's something that I would text him normally anyway. He texts me back asking if I am "seriously texting him about a game right now" and just generally gets a really bad attitude with me. I told him that I was sorry for what was happening to him right now but asked him to not take it out on me because it wasnt my fault his roommate was being a dick, to which he responded "I'm very sorry for talking to you about my problems I'll never disturb you again." Which had me like...wtf, because I never told him I didnt want to listen to his problems. I then told him I was always there for him to talk to and listen to his problems, I just asked him not to be a jerk. He texted me several hours later as if nothing ever happened, which is his go to when there is conflict. Instead of talking about things he wants to act like it never happened. 
+So reddit, AITA? I didnt even think twice about texting him about winning my game, I was just excited and wanted to share it with someone I cared about. But I guess maybe it was insensitive to text him about something trivial when he's going through a hard time?</t>
         </is>
       </c>
     </row>
@@ -770,23 +779,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0625</v>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.012987013</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.9662162162162162</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>di5y3h</t>
+          <t>9v3euz</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WIBTA if i didnt invite my mom to my wedding? Im getting married and i dont have alot of people to invite but i still dont want my to come. The reasons are every time shes around me or my sisters it ALWAYS turns into a fight and can even escalate to a fist fight. And shes an addict, shes been clean for 3 months but it never sticks. I dont trust her and shes unstable. So wibta if i didnt invite her to my wedding?</t>
+          <t>AITA For voting against a proposition out of spite? Obligatory on mobile so formatting might be off.
+As hopefully most of you know in the US we had election day yesterday. Anyway last night I was talking with my girlfriend and she asked what I voted for. I told her of the one or two candidates I supported and a few propositions that had gotten my attention. As an afterthought I mentioned specifically voting against one. She is apparently in support of it and asked me why I was against it. I told her that their ad campaign had been so annoying this year and last year that I wanted to see it fail. She said that was a shitty reason and that I should have jist not voted instead of against a proposition I didn't care about.
+So AITA for voting out of spite?</t>
         </is>
       </c>
     </row>
@@ -798,23 +811,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06962024999999999</v>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.014260249</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ikmbir</t>
+          <t>e5zrzr</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AITA for not inviting my ex to my son's birthday party? I(54M) have a son(16M). I have been divorced from my ex(47F) for about 6 years and my son stays with me. The reason for my son staying with me is because , he came out last year and my ex harassed him for that . Ever since he has been staying with me and doesn't see his mother(his choice) . However his uncle(Ex's brother)  is very close with him and i invited him .Ex found out  through her brother and she got angry and started shouting at me for turning her son against her and not giving her a chance to apologize . My mother told me that i should have invited my ex and give her a chance to mend ties with her son . AITA for not inviting my ex to the birthday party?</t>
+          <t>AITA for wanting to report a head waiter for a 'joke' ? I'll try to keep it short, English is not my first language so forgive me for my mistakes. This happened an hour ago and I am still feeling pretty bad. 
+My office is on the third floor of our six floors building and today, the power in the kitchen ran out so I had to go to the second floor to heat up my lunch. There was a large amount of guests for lunch in one of our dining rooms so they hired a caterer. I had nothing to do with it since it's usually for the committees' heads and I don't work on that floor. 
+I head to the kitchen and right in front of the door, there is the head waiter (I recognized the apron). I can only see his back but I move forward anyway to get to the microwave. At the very last moment he turned around, holding a large kitchen knife towards me. I guess he was cleaning it or wanted to cut some food with it, but I was startled and scared because kitchen knives always scare the fuck out of me due to personal reasons. 
+I immediately froze, I couldn't take my eyes off of the blade. The head waiter didn't make a move or said anything, he just kept pointing the knife at me for what felt like a thousand seconds (actually I don't think it lasted more than 20 but you know what I mean). At this point I'm ready to throw him my frozen meal and run away, I genuinely thought he meant to hurt me. (for the record, the kitchen is at the end of a long corridor not frequently occupied) 
+His coworker shows up and without moving for one bit the head waiter tells him with a grin "another girl I won't let pass". The coworker laughs and tells me "you should be careful, he already cut two people open today". They both smiled at me and finally left. 
+I just stood there in complete shock. I wasn't even hungry anymore and I started to feel sick. I told my coworkers about this and they were all playing it down like "come on, it's just a joke". I get that he didn't mean to hurt me but why would anyone think that this is a good joke to pretend to threaten someone with a knife ? Especially when you don't know this person and what can and cannot be potentially triggering to them ? I know it's not his fault if I'm scared of knives but I didn't know any of them, they didn't know me either, we just happened to head for the same room, and he was here to provide a service, not frighten some random employee. 
+So my question is : am I an asshole if I report his sick "joke" to his company ? I don't want him to be fired, that would be excessive of course, but I don't want this to happen ever again, to me or to any potential customer of theirs. I also think he has to know that he cannot indulge in these questionable 'jokes' while at work, and with strangers. 
+&amp;amp;#x200B;
+Thank you for reading.</t>
         </is>
       </c>
     </row>
@@ -826,25 +849,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07142857499999999</v>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.014705882</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ibjtfk</t>
+          <t>elukz3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AITA for suggesting that my brother take my nephew to a dermatologist? My 16yo son has really bad ance. I'm starting to see scars on his face with are a bitch to get rid of. He looks much older than 16 because of it. He used to be a good looking kid and did a lot of acting until puberty.
-I suggested a dermatologist who can help my nephew (this doctor did my botox). My brother asked me for what. I said for his acne. It is starting to leave scars and he looks way older than 16. He told me to mind my own damn business and to get out of his house.
-Both my brother and his wife are rich so it's not a money issue.</t>
+          <t>AITA when I refuse to taste someone’s drink? If I’m at a bar, and someone orders a drink, and I say something like “that looks good” or “nice choice” and that person offers me a taste, and I refuse, AITA? I didn’t ask to sample their beverage. If I want a taste I’ll ask the bartender or order my own.</t>
         </is>
       </c>
     </row>
@@ -856,26 +879,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>60%</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07692308</v>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.015544041</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>bmytgz</t>
+          <t>fh2dvg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AITA for paying for my fiancée(now wife) to come to my Air Force BMT Graduation and not telling my mom I paid for her? I (20M) paid $430ish for a plane ticket to get my fiancée (22F) to my Air Force BMT Graduation, so that she did not have to ride in a van with about 8+ people (my family). I did not tell my mom because I didn’t feel like it was her business to know I paid for my fiancée. She looked at my bank statement and saw I had spent money on a plane ticket. She then proceeded to attack us about why I hadn’t offered to pay for her or why she wasn’t good enough for my fiancée to ride with her. I’ve explained to her that all she had to do was ask me and I would have gladly helped her. My mother, as well as some of my sisters, have said that I’m being extremely disrespectful and they don’t know what has happened to me. My mom also keeps saying that if my now wife would just apologize, then everything will go back to normal but I know that’s not the case because she would just bring up something different.
-I guess my main point is that my mom and most of my sisters believe that my wife and I are in the wrong.
-I tried to shorten it as best as I could, but here is the full story: https://www.reddit.com/r/raisedbynarcissists/comments/b6mcoj/warning_long_story_but_i_am_in_need_of_advice_or/
-Thank you</t>
+          <t>AITA for telling my fwb he needs to stop acting like my boyfriend? Throwaway and sorry it’s long, there’s quite a bit of backstory. 
+Back in first year, I met this guy (F) who I had a crush on and he did too. We hooked up a couple times but I didn’t want anything serious while he did so we ended it. He got a girlfriend and we remained good friends. 
+Fast forward to final semester of final year. After Christmas break, a bunch of us (including F) got together to have a few drinks. One of our mutual friends had a mate (S) visiting who he brought along. S and I got along pretty well and hooked up. Next day, all of us hung out again and F (who had just broken up with his gf over Christmas) was being super weird about S and I. The three of us ended up getting super drunk and went to my flat where we all hooked up. 
+S went back to Spain and F and I continued having causal sex. Neither of us wanted anything serious so we decided to be friends with benefits (his idea). We had fun,  it was a great way to relieve final year stress and all was going well until yesterday. F and I were in the lab when he saw a message I had from S. He got angry about me talking to S and I told him he needed to chill as we were not together. He said I was being inconsiderate and only using him for his body and I said he was being unfair because both of us had agreed on a no strings attached, only using each other for sex thing and now he was trying to act like my boyfriend. He got annoyed and ignored me for the rest of the lab which was super fun and not awkward at all. We were supposed to meet up last night but that didn’t happen and we haven’t spoken since. 
+I think he’s being dramatic but on the other hand, i feel if it weren’t for me being super against being in a relationship, we would probably be together. So reddit, am I the asshole?</t>
         </is>
       </c>
     </row>
@@ -887,27 +913,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>65%</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08361204</v>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.017142856</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>c1940c</t>
+          <t>dtqv6g</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AITA for not wishing my dad happy Father’s Day? My dad and I have been arguing since January and have only spoken a handful of times since. To briefly summarize, my sister has emotional issues (possible borderline personality) and my brother has a violent past (multiple arrests, tried to hit me with a car, etc). As a result, I have distanced myself from them - for my own mental health. My dad does not like this and has tried to push me closer to them. I have an 18 month old son, and just want to protect him from negativity. 
-I should also add that my mom died when I was 18.
-Anyway, back in January my dad was bringing up my brother again and wanted us to meet to go through the family things (dad is selling our childhood home). I told him, again, I can’t be in the same room as my brother. My husband - to protect me - told my dad if he is ever in the same room as my brother he will have a hard time not putting his hands on him. My dad then became enraged and told my husband to “shut the fuck up” (in front of my toddler son); and more screaming continued from my dad and stepmom.
-Anyway, my dad finally apologized to my husband 4.5 months later (of course after me pushing him to apologize). My dad hasn’t asked to see his grandson, my son; and this is also his only true grandchild. He is raising my 10 year old step nephew with my step brother is an incompetent loser.
-Anyway, am I the asshole for not wanting to call my dad to wish him a “happy Father’s Day”?</t>
+          <t>AITA for not liking my gf's friend. Me and my gf are in a new relationship, we are both highschoolers, and I am new at this. Anyways, one of her friends, who we'll call A, who I have known for a year or two now, changed tones with me a lot. He went from being generslly friendly to cold and pushy. Like, one time I was trying to take her jacket. He was helping, and she blurts there is a tampon in there. I instantly let go, because I'm not a douche. He instantly goes off on me for being a pervert and shit. He was helping me yoink it from her for gods sake! He also tells me I am being clingy for giving her hugs and stuff, I've talked to her. And I have dialed it back, but he still insists on me being clingy. 
+I haven't told her yet, but I have told friends about how he makes me feel like shit. So reddit. Aita?</t>
         </is>
       </c>
     </row>
@@ -919,28 +944,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.08888889</v>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.017699115</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>c6reg5</t>
+          <t>iouw0x</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AITA for shouting at my aunt. My aunt sleeps at my house after her night shift as my house is closer to her work. Every time she comes here she goes through my stuff and and looks around my room. 
-The last time she came to my house I asked my Mum to tell her to not go into my room as it makes me uncomfortable since I'm not there as I'm at work. She went in anyway and basically threatened my mum because my room was a little messy.
-When I got  home I knew straight away she had been in my room as things weren't where I left them and my mum isn't the type to search around my room. I called her as I was super mad and shouted at her for going through my stuff and not respecting my privacy.
-Last night my cousins husband and my uncle told me they were really disappointed in me because without my aunt my mum wouldn't have been able to look after me and that I shouldn't have shouted at her. 
-I get that but I don't think she has a right to go into my room and do whatever. Especially because I'm an a adult and I can do  I want. I've already expressed to my mum that I feel like moving out. Although I'm the only one helping her with bills atm because she's sick and she doesn't want to be left alone.
-So now I confused on whether to just apologise to keep the peace or to stand my ground.</t>
+          <t>WIBTA if I never invited my brother on another vacation because of his past actions? My brother and I don't have the closest relationship (anymore) because of his attitude and his actions over the last few years. Its driven the family apart essentially. He likes to walk around like he can do no wrong, all the while shitting on people for their opinions, beliefs, hobbies, etc.
+Last month I took him and my mom on vacation (dad had to work and look after the pets) I paid for everything except his gas to drive us there (he refused payment) I paid for the hotel rooms, tickets to the museums we went to, most of the meals and a souvenir for him. Our mom paid for the remainder of things like meals I didn't pay for, tips, etc. This only cost my brother $35 for gas. The entire time we were there, every other word out of his mouth was "ugh fuck this" and loud exasperated sighs. He locked himself in his room at night when my mom and I went to do tourist things. He refused to come see a play that he showed the most interest in. He refused to talk to us for most of the trip and  snapped at our mom for asking where we were on the road. 
+Everything was a big to-do with him. I planned the trip rather loosely, like we'd decide where to eat when we felt hungry, we'd go to tourist spots if we thought it sounded cool. There was no strict itinerary or schedule and it annoyed him.
+Well I've been planning a trip to New Orleans in my mind. I'm keeping the plans VERY loose because of covid so absolutely nothing is in place yet. I tried to talk to him about the trip last night and he chewed me out! "What makes you think I want to do anything with you?" and "Like you'd even fucking want me there..." and "Don't get your hopes up, its worthless".  Eventually he got so loud and belligerent our parents came in and started fussing at us both because they figured I was starting a fight (which was weird because 90% of the time he instigates). Well this only made him more angry and he locked himself in his room and hasn't spoken to anyone until a few minutes ago and that was just to yell at our dad about using his bathroom. 
+Note: I plan things like that in advance because it gives me hope, especially when depression is hitting me hard, so for him to say "its worthless" and act like I'm crazy really hurt...
+WIBTA if I never invited him anywhere ever again? I wanted to invite him to Pride (if it happens next year) because neither of us are cishet (I'm trans, he's bi) and I figured we could bond over it and have a weekend of fun but now, hell no. My mom said I would be a major AH because "family" but my dad, who didn't even have to experience his behavior last month said I'd be totally justified. What is your judgment Reddit? 
+TLDR: Younger bro was/is an AH to the family on a free vacation, might not get invited/included in any of my future plans.</t>
         </is>
       </c>
     </row>
@@ -952,24 +980,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>75%</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.10071942</v>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.018292682</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>d1r07p</t>
+          <t>jbxyjp</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AITA for not sharing my shampoo? My sister is staying with me currently due to her going to school near my residence. My residence only has one bathroom, so we have to share. The issue occurs when my sister started using my shampoo. This shampoo was fairly expensive and i don't want people using it. So I told her to please not use my shampoo, and I gave her a different bottle. She kept on using my shampoo, until i took it and hid it in my room which has a lock. She apparently complained to our mom since I've gotten texts to stop being selfish and let her use my shampoo. 
-TL;DR: I don't want my sister using my shampoo but my family says I am the AH for not letting her.</t>
+          <t>AITA for calling myself a computer scientist? My degree has kind of a confusing twist to it, it is information science with a concentration in networks, cybersecurity, programming and data.
+I just call myself a computer scientist because honestly it's easier to just tell people I am a computer scientist so I don't have to waste my time explaining what an information scientist is etc. etc. I am not trying to lie at all about what I do as it is quite similar to computer science--and the job I have is done by computer scientists as well.
+My bf said I was being misleading and lying by calling myself a computer scientist but I am just trying to make things easier on people who ask so they don't need the whole long ass complex answer. I also am 100% willing to tell people more and explain the full situation, if the conversation happens to go there.
+AITA?</t>
         </is>
       </c>
     </row>
@@ -981,26 +1013,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>80%</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.10655738</v>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.019543974</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>eq14ej</t>
+          <t>ghaql3</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AITA that my parrot said my girlfriend is annoying bitch? My gf (17F) came to visit me (17M) the other day to see my new pet parrot. I've had it for 2 weeks. my gf moved state so it been a while since ive seen her.
-well let's just call my gf kate. My parrot said her name "Kate", which excited my gf. It kept saying kate oger and over. 
-But then it said "kate is annoying bitch" over and over. I didnt know how to react. but my gf got pissed at me and called me AH
-I dont kno why my parrot said that. But my gf wouldn't listen. AITA?</t>
+          <t>AITA ? I'm NC w/ my dad. He might die soon. Hello. I posted about this on whisper to vent but I received some backlash so I wondered if I'm the asshole.
+I went no contact with my dad after 10 years of mental abuse and trying to have a good relationship with him. After a big fight I realized it wouldn't change and I had to start protecting myself. He's abusive, mentally ill and a drug addict. (all types of drugs but mostly cocaine and heroin for nearly 30 years) (he's diagnosed with borderline and narcissistic personality disorder with psychopathic tendencies) 
+Today my niece from my dads side sent me a recent picture of him. He is looking worse than ever before and might die soon. It saddens me and really hurts me because I somehow still love him and still care about him, somewhere still wishing we could have a relationship knowing that that isn't possible. Yet I have no intention of contacting him. I do hope I get to say goodbye when he's on his deathbed but since he's probably going to die on the street or in some addicts house I probably won't get that opportunity. Even though I know that I still don't intend on contacting him. I even feel a little bit of relief knowing it might me all over soon and his death might finally give me some closure.
+Some freaked out and called me selfish among other insulting things, others started pushing me to contact him or I would regret it for the rest of my life.
+Even though there's a chance the second might be true and I might feel some regret I don't want to put myself into that abusive situation again.
+Am I the asshole?</t>
         </is>
       </c>
     </row>
@@ -1012,24 +1048,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>85%</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1125</v>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.020179372</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>bvi6a8</t>
+          <t>b6s3pf</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AITA for not wanting my partner to call my father Dad? I just feel uncomfortable with it. My Dad is father to four children and all my sibs OHs call him (first name). My partner is the most recent addition to the family and thinks it odd not to call him Dad. And when I expressed my feelings he just couldn't grasp it.
-But he's MY Dad not yours!</t>
+          <t xml:space="preserve">AITA For being strict with my younger sister? So my sister is 16 years old. About a year ago she started dating a boy at her school who is 2 years older than her. I didn’t think much of it bc she’s 16 and teenagers date. I thought it was fine. But she begged me not to tell our parents bc they’re old fashioned Mexicans and would never let her leave the house. I said sure not a big deal. This went on for a while and she started to get comfortable and felt that she would have no rules and could do what she wanted. Coming home late on Friday nights and whatnot without telling anyone. This was when I started to get annoyed. I told her that I had her back by keeping her boyfriend a secret but I was not going to be okay with her having no supervision at all. My mom works late and my dad works early so he’s asleep by 7 so neither of them would be around when she got home so late. I started asking her more questions and I always made it a habit to know where she was on the weekends. I really didn’t think this was too crazy as I trust her. She started to get comfortable again and stopped telling me where she was and who she was with and I told her that I really didn’t like that and I told her that I would have to tell our parents if she can’t trust in me bc I think she needs at least some guidance from someone and she has to listen to my parents. She’s more rebellious towards me obvs as I’m her brother. She got really upset and said that i have to stop acting like a parent and that I’ve never done anything helpful for her. I struggle with my mental health and she took a lot of jabs at me about it. I was really hurt. I just really don’t want to be responsible for if she ever did anything detrimental to herself. This was a month and a half ago and we still haven’t talked. I’m 22 years old. I get that I’m older and should be the adult and try talking to her but I really don’t want to concede my opinion on her behavior. She’s really entitled and spoiled. My mom and a friend keep telling me “she’s only 16 you should know better”. But then she doesn’t learn anything and continues being the way that she is. AITA for waiting for her to apologize to me? </t>
         </is>
       </c>
     </row>
@@ -1041,23 +1078,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.11764706</v>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.021428572</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>du2txq</t>
+          <t>bsc21n</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AITA for getting angry with my dad? So I came home from a party the other day and I went into my room and my dad had taken all of my stuff away! I couldn't figure out what I did for the life of me, so I yelled at him for it. He took my monitor, my TV, my Xbox, my three pounds of cocaine, and my laptop! Plz help I don't know if I'm in the wrong...</t>
+          <t>AITA for telling my daugther that she isnt pretty enough to be a model. I love my daugther. She is smart and has a really big heart. Now i have to admit that she isnt the most beautiful girl in the world. I still lover her but i know that.
+The other she told us that she wanted to do a casting for beign a model. Now i told her that i didnt think they chose her because when she fails she blames herself and end very sad. Now she is angry at me but she still wants to participate. I also feel a little bit like shit. I troed to explain to jer why i said it but she doesnt want to talk with me.</t>
         </is>
       </c>
     </row>
@@ -1069,23 +1109,693 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.021857923</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>du8z1v</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>WIBTA for abandoning a new business that I've founded with another person to move back to my home state? WIBTA for abandoning a new business that I've founded with another person to move back to my home state?
+&amp;amp;#x200B;
+I've founded a business with someone I used to work with. I intent to start a bachelor at uni in the next 3 months to do a bachelor of Music. I intend to make some sort of career out of music, be in through wedding gigs or small time stuff. 
+&amp;amp;#x200B;
+But the way I intended to get there was through creating a business to pay for the lessons, the university, the marketing, and the producing for everything I intended to do. I have a background in window cleaning. I've been doing it for 4 years+ and I'm really good at it. It seemed like the easy business path to pay for the stuff I wanted it to pay for, and I started a window cleaning business with someone I was working with in September. Since then, the business has been going really well and we've more than doubled the initial marketing and equipment investment made. The problem is that I still owe him the start up cost of the business. I have so far borrowed about $3000 AUD in order to fund the business. I have about $1500 in my bank right now. The problem is that I'm starting to feel like I should move back to my home state because I haven't really made any friends for the 9 months that I've been in this new state for, and I'm finding it really hard to cope without my consistent support networks. I really want to move back to my home state and just start fresh, staying in close contact with my support network and distancing myself with my friends that aren't so great. I understand that I have an obligation to my current business partner and that I owe him money at this point, but half of the money owed is towards the gear we had to buy to start it up (so therefore should he have more obligation to pay for the gear we have used for the past month), and the other half is towards the marketing we have bought for the business. From here I really don't know where to go because I understand I have a lot of responsibility to pay this guy off and make sure I'm not fucking him over in regards to this new business. But I also kind of want to get out of this business in the least dramatic way possible. I know that I owe him at least the marketing portion of our business and I 100% intend to pay that back. But do I have an obligation for the gear purchased when we have only been in business for about a month and a half? What is the best way of going forward with this when I want to move back to my home state with the least drama possible?
+&amp;amp;#x200B;
+Essentially, WIBTAI I moved back to my home state having just started up a business with someone?</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.022653721</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ige79y</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>AITA For removing myself (25F) from my brothers (22) baby mamma (21) drama? Okay so this is a long story. This is my first post so I’m sorry if my formatting sucks. 
+My brothers (D) son is being born today. His first. Babymama (BM) is being induced due to some health concerns. Nothing major but needed. I am also 32 weeks pregnant with my first.
+D and his BM weren’t dating very long when they found out shes pregnant. She claims it was an accident but later events make us suspect differently. They aren’t together anymore because of her attitude towards him. He has done everything he can the entire pregnancy to try and help her through it. He told her to quit her job and he would support them so she didn’t have to stress about it, would offer to rub her feet and draw baths, bought anything she wanted for herself and the baby. The whole time she’s been very hostile and constantly pushing him away and causing fights so she can make him out to be the bad guy. She also dropped the bomb that she won’t be giving the baby D’s last name and he won’t be allowed in the birth room. She also made it very clear she doesn’t want him to be alone with their son nor take him to see any of our family. He finally had enough and decided to break things off with her so he got his legal rights to his son that he deserved. She has been extremely nasty to him and pretty much told him he will have nothing to do with his son and he isn’t allowed to come see him and if he tries she will call the cops. 
+That’s the background. Here’s where I come in. I had my diaper party last weekend at my dads. (My mom and dad have been divorced since I was 2, D and I only share mom) my dad is good friends with BMs uncle. He was invited. Well he brought BM and her mom. I was uncomfortable with her there knowing what she was putting D through. Not to mention she told D how much she hated me for stealing her thunder when I announced my (very unplanned but very wanted) pregnancy a month after hers. So I wasn’t sure why she even wanted to be there. I talked to D and we decided it was fine she was there as long as no drama was started. And she didn’t. Before they left she asked if she could come to the baby shower my mom was throwing for me the next month for that side of the family. Which confused me more since my brother would be there and she said she didn’t want to see him. I told her I had to talk to them and she said that was fine. D told her she could come if he got to hold and see his son. She never responded to him. She told my mom she didn’t want to cause further issues since it was an issue she was at the diaper party. I don’t even know who told her that. It seems like she’s playing games to get at D and she’s using me to do it. 
+To wrap up a long story that I’m sure I’ve left stuff out, AITA for wanting to distance from it all for the sake my of pregnancy and trying to minimize the stress? Or should I be trying to be there for D even more right now? I’m not quite sure what to do.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.023904383</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>m403ob</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>AITA for making a friend homeless over a cat? Throwaway as multiple friends know my reddit account.
+I(24f) co-own a 2 bedroom apartment. My sister usually stays in the other bedroom and still pays her share of the mortgage but last year our mum got the virus and has had some on going side effects for which she needs help to do some things. My sister works in mums business so it made sense for her to go stay with mum and help her for a while and also because I'm a nurse so I didn't want to be exposing my parents to anything I run into at work. 
+A couple of months ago my sister said she wanted to know if she could decrease her rent contribution and suggested sub letting her room. I didn't really want to bring a stranger into the house so I suggested I cover more of the mortgage. We agreed on changing it to me paying 70% of the total(i used to pay 40% because her room was larger and had an ensuite with a hot tub). This has been working great and I'm only including to explain why the room was empty. 
+About 2 weeks ago a friend of mine from HS reached out to me and asked to crash at my place for a couple of weeks, he'd lost his job and his gf dumped him. I felt bad and said he could stay in my sisters room until he found a new job and a place. Initially he was an OK housemate(a bit untidy but certainly not the worst guy I've lived with) but then he started complaining about my cat and insisting she needed to go to my parents while he was staying because he had allergies. I said no, told him to take antihistamines and deal. (My cat is a 16yo rescue who is blind in one eye, has a bad hip and needs regular medication for kidney problems so giving her to someone else isn't an option).
+2 days ago I came home and Ruby wasn't in the house when I went to give her medication. I asked the friend and he said he hadn't seen her. I was frantically running around the block calling her name until my neighbour saw me and told me she had her. Apparently my "friend" had put her outside that morning and repeatedly poured buckets of water on her to make her run away, the neighbour caught her and dried her off. I was furious and confronted him and he got upset that I was prioritizing an old cat over him and I said he had 24 hours to leave or I'd dump his shit outside and hose it. 
+So he left yesterday and is now crashing on another friend's couch. Pretty much our entire friend group thinks I'm the asshole for kicking him out and multiple people have sent me nasty texts. AITA here?</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.024691358</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>etq9p6</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>AITA for not making a meme for the CEO? Ok so I’ve never used reddit before but I always read what’s out on here through twitter. I this situation is stressing me out so much I just needed to see an objective opinion. I work for a relatively big company (200/250 employees) and most people know of the company. My role is in social media and I use a lot of editing softwares. Anyway yesterday (Friday) I was so swamped with work and deadline since that week I had a lot to do. Last min requests, out of office shooting etc. People in the office even tried comforting and asking how they can help as they knew I was stressed. My manager extend my deadline from Monday morning to evening as a lot went wrong with this project of no fault of mine. Ok at this point my manager who is working from home messages me asking me if I would be a darling and make a viral meme for our CEO. She asked me because I part of my job is making memes for the companies instagram. She instructed me to go to the ceo and get on her phone, look for the appropriate pics in her photo album, send them to myself and edit them into this viral meme. The CEO will then post on her private Instagram. At first I said no because it’s not work related and I was beyond busy. But after pressure from the head of my departed and gave in. I messaged the ceo (who has never spoken to me) “I heard you need some help”. She then didn’t reply for about 3 or so hours. Getting to the end of the day I just carried on with my work as I thought it was more important. Granted I should have replied quicker but I replied about 2 hours after the work day is already finished. I thought this is okay because it’s not a work thing so I can just do it whenever. But the head of my department thinks I fucked up and even said “ no one tells the ceo no and you have to drop everything your doing” my manager is also mad at me. But I think that it’s not my job and has nothing to do with work. It’s for her private Instagram.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.02631579</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>b027ad</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>AITA for throwing palm tree leaves from my neighbor's trees back over their fence? My neighbor has three palm trees that keep dropping fronds over to our yard. Whenever there is strong winds we always find a large amount of these large leaves in our back yard and we are tired of dealing with it. The neighbor refuses to do anything about it despite having gardeners to help her with this. The only thing we can do now is throw them back over her fence so she can deal with it. Am I the asshole if I keep this up?</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.027131783</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>bt721x</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>WIBTA if I tell my neighbours to go get their car fixed? My neighbours’ car alarm is broken. It has been for months. It goes off all the time, especially in the middle of the night. Like 2, 3, 4 am. It wakes me up CONSTANTLY. 3 am and 530 am this morning. It’s so loud that the first time it went off I thought it was our car and my partner rushed down to turn it off. Every time it goes off it takes my neighbours between a minute or two  and, at the longest, TWENTY minutes to shut it off. The dad and the eldest son will open up the hood from time to time and fiddle around in there, but they have yet to fix it. Last night they parked it on the street and now not only is it just as loud as it was before (moving it 5 feet away made no difference, obviously) but the headlights now shine directly into my window. I worry it’s a money thing because we don’t live in a super-nice neighbourhood, and they have a fairly large family in a small row home. The car itself is at least 10-15 years old. But honestly, I just can’t live like this anymore. I can’t function on interrupted sleep. Would I be the asshole if I asked them to take it to a mechanic, even though my educated guess tells me they may not have the money?</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.027472528</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>kcxq70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>AITA for telling my mom I’m disappointed in her? She’s gotten a new boyfriend recently. I really like the guy , he’s great. The only thing is my mom the last couple months have been sleeping over at his house every night .  He has two boys in high school and right now we just got moved into the red zone , I told her that maybe for a couple weeks she shouldn’t be sleeping over since their are active cases in the high school and it’s spreading like wildfire .  She also helps out my grandfather every week. Her response was “well I’m pretty much living their anyways “ I told her that since she works in a grocery store that it’s selfish to be putting others at risk of contracting it and possibly spreading it to the town “ she got really mad and refused to acknowledge my point  so I said “im disappointed in you , that your putting your own happiness above others health” am I in the wrong?</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.028880866</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>c8yda9</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>AITA For being happy my biological father is dead of bone cancer. I'm 16 and my mother is wanting me to know my father and as she worked as a private investigator secretary finds out where he is living. We send off letters, my mother tries to make a deal with him. I live with him for a year and she will not go after him for back child support. A few months later we are driving out to Oklahoma.
+&amp;amp;#x200B;
+The whole time was miserable and very short like 2 weeks short. He made a couple of promises like him and I going fishing. My mind at the time is like oh yeah this will be great for getting to know my dad and vice versa. Yeah, we went fishing......with me and his new family (aka this third wife and her kids) or the neighbor. Is it asking too much for him to want to spend some time with just his son for a day? So I am given a surprise bus ticket because I speak up and say I just feel unwanted by everyone here. But before I leave he has me meet my half-siblings. That was the most fun I had the whole time sadly.
+&amp;amp;#x200B;
+Over 10 years pass.
+&amp;amp;#x200B;
+I am not looking for my sperm donor but my half siblings. I call him and he is in the hospital with bone cancer. I kinda feel sorry for the guy as that is a bad way to go. We get to talking and him knowing this can be one of the last times we talk. Secretly I was hoping he would say something like I am sorry for never being there and really messing up when I was 16 but alas. Before he hangs up he just had to add a fucked up remark about how my mom is not as great as I think. We don't talk again and no info on where my siblings live.
+&amp;amp;#x200B;
+A year later I see his obituary. It is about what I expect. It talks about his current wife and her kids that he is not the real father of and a small mention of he was survived by 4 children. Yeah, we were not even named. I also find my siblings at this time and we have a meetup a year after his death. I bring up the question of when did they see him last? My brother (also the youngest of us) says I can't actually remember. My sisters say oh yeah it was a long time ago but after a bit of thought, the oldest sister replied I am fairly sure the last time we saw you those 10 some odd years ago. So it's not that he knew where they lived because he did the exact same thing to them that he did to me.
+&amp;amp;#x200B;
+So every time someone asks about my dad I say fuck that guy. I explain a little and finish with a he got what he deserves. They say that is kinda messed up to say, he is dead. So AITA for being happy he is dead?  
+Note: there is some other info but I am stuck to 3k characters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.030303031</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.953405017921147</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>bu4y2v</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>AITA for laughing when my boyfriend told me about his fetish. So this is pretty straight forward. Me (19m) and my bf (23m) were talking and I said something about fetishes. He said that he had to tell me something and he told me that he had blood fetish. I thought he was joking so I chuckled, he got upset. He was acting weird and wasn’t talking to me for few days, I told him to get over it, he got mad again and now he’s ignoring me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.03181818</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9946524064171123</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>cjw0v5</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>AITA for escalating straight to HR that my coworker is often on his phone sexting with his girlfriend? We work in a small office and sadly there's not a lot of privacy to go around. I've repeatedly noticed my coworker peering over his phone every so often and sometimes I can see explicit images of what I presume is his girlfriend out of the corner of my eye. 
+When I told him I was uncomfortable, he chides me into minding my own business and that I'm violating his privacy by peeking over at his desk. I think it's fairly obvious to anyone who sees our work arrangement that  it doesn't  take much to distract a coworker. This is just in poor taste and I felt so skeeved that I  decided to escalate it to  HR. 
+Now, both my coworker and my manager are annoyed at me (they  both know each other for many many years) and I have been pulled aside by him to tell me to focus on work and not get distracted. This is totally not the response I was expecting and I plan to continue to escalate until he stops looking at his phone sexting with his girlfriend. AITA?</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.033639144</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>cpuh0v</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>AITA for telling my soon to be sister-in-law that if she brings her children to my wedding I'd have her ejected by secruity. I'm going to try cut a long story short here.  
+Basically I'm getting married soon, yay me. My partners family has been heavily involved due to tradition and wanting the wedding to be somewhat traditional, which I have no problem with. The wedding is going to be traditional and her parents have helped with funding some of the wedding.  
+Now we have no children, and don't plan on having any any time soon. However, her sister does, she has three. We've asked all of our friends and my family to not bring children to the wedding at any part during the day as we don't want kids there. Now I work with kids and have no problem with kids but I know that a lot of kids don't have very much spacial awareness for the scenarios there in. Therefore me, and my partner, don't want children at the wedding.
+My family was fine with it, our friends are fine with it. Sister-in-law throws up a fuss.
+We've hired out quite a nice place for the event and it comes with an on site secruity for the event. At my partners birthday party the other week my sister-in-law was adamant that she was bringing her children to the days proceedings. We argued for a bit but in the end I just told her that if she brings her kids to my wedding I'd have her and her kids ejected by secruity.
+While my partners on my side I'm getting a lot of fall-back from her family and it's just causing a whole lot of headache for everyone, I'm unsure how I'm going to solve it.
+So AITA? Did I go too far?</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.03529412</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>enyond</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>AITA for getting mad that my boyfriend talks to girls he met on tinder? AITA for getting mad at my boyfriend for staying friends on Snapchat with girls he has dater or met on tinder? It makes me feel insecure or like it’s some sort of back up plan or something. I don’t understand what they could possibly add to him life that is worth hurting the person who loves him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.035433073</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>cplypj</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>AITA for snapping at my fiancé’s mom and getting us kicked out the house? My fiancé proposed to me last month. We’re on a trip to the Netherlands to meet his family. We live in the U.S., his family knows *of* me, but we’ve never met.
+My fiancé hadn’t seen his mother since he was 18 (he’s 26 now). He said that he and his mother were never really close.
+We were originally planning to stay in a hotel room for the entire trip but his mother insisted that we stay at the house for the night and leave for the hotel in the morning. He hadn’t seen her in 8 years, I suggested that we stay with her.
+We arrived and were greeted by his sisters. They were all very welcoming and also seemed happy about the engagement. 
+His mother was the opposite. The first thing she did was turn to my fiancé and say,”I thought that you would’ve brought a girl.”
+My fiancé completely ignored her statement. She said something about dinner and walked off. I didn’t get to introduce myself.
+Dinner. My fiancé’s mom kept making remarks. “Why my fiancé couldn’t ‘at least find an attractive man?’, amongst other things.
+This women somehow managed to hit every single insecurity of mine, and I was starting to get upset.
+Maybe it showed. My boyfriend excused the both of us from the table and he asked me if I was okay. I told him that I was fine. He said that we can leave if his mother was making me uncomfortable. I inisisted that I was okay. I could last the night.
+Then came time to retire. We were going up my fiancé’s room when his mother *kindly* offered me the couch.
+My fiancé said that he’d be sharing a room with me, she made excuses, my fiancé walked away. Few minutes later, she swung open the door.!She said something about wanting us to keep it open ? She said she didn’t trust me.
+This women was getting on my nerves. I snapped. “We’re not teenagers, but if you want to see us fuck so badly, you’re welcome to stay”, along with a few other choice words. She had a fit. She told me that I wasn’t welcome here anymore.
+She told my fiancé to stay, but my fiancé said he was leaving with me. She started yelling at him, mostly insults about ‘his choice in men’. We left and now we’re spending the night in the rental car.
+My fiancé told me not to feel bad about what I said, and that she had it coming. But I still feel like a jerk because:
+1. I made her cry, like yeah, she was being a bitch but I probably could’ve handled it better.
+2. My fiancé ended up getting chewed out for something *I* said. My fiancé doesn’t deal with getting yelled at too well.
+I feel like I ruined something. AITA?</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.037900876</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>huu5d7</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>AITA for hiding MY PS4 controller that my little brother didn't play on until recently. I'm an 12 year old with a broken foot which makes it hard for me to do my daily routine wake up ,eat ,game ,sleep the usual gamer routine. Anyways I live my 2 siblings my older brother a 14 year old we'll call him B and my little brother a 7 year old we'll call him EB. Me and B are always on the PS4 at different times of the day while EB is on the TV so we don't really care what he does as long as he doesn't annoy us. So one day I wake up and see B is sleep I go to the playstation and see it's on but no ones there as soon as i touch EB walked in and took the controller in my head I'm like ok then go to the TV and see it's on so I just look for the remote no where in sight I thought ok maybe mom took it from EB and went to my room and got on my phone. After that day he kept getting on so i waited for him to get off once he got off I got on then 3 hours later he came back and said I was still on it get off I said no he said I'll break your leg I said try it I have a cast that feels like concrete if you hit it he was smart then and just left i started hiding the controller and whenever B would wake me up for the controller he would leave it out which let EB get it then I just started ignoring EB basically meaning I don't give a duck what happens other then in a game or if my mom comes. EB started to take my phone when I'm sleep and when I wake up I curse him out. AITA?</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.03975535</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>env8tt</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>WIBTA for going to the baristas manager and letting her know the barista makes fun of my name? Okay so I’m in need of a quick judgement here to see if I would be TA for telling the baristas manager she continues to make fun of my name. 
+I go by the name Ruth which I love because it’s strong and uncommon for my generation. I go into this Starbucks before work wearing my name tag and the barista takes my order, asks for my name and squints at my name tag. I tell her Ruth and she says something along the lines of “That’s what I thought I read but I was hoping I was wrong because that’s an ugly old lady name and you’re so cute.” I was speechless.. she said sorry after she realized what she had said and I just collected my change and left her register. I would have let it go but this has happened two more times now with the same barista. The second time I told her my name and she started laughing saying she remembered. The third time she said “you just need to stop coming here so I stop laughing at your ugly name” 
+WIBTA if I told her manager? It’s not hurtful because it’s not my first name, but my middle which I choose to go by. And she always giggling like it’s harmful and she doesn’t mean to be so rude. Maybe she has some social barriers I’m
+not aware of? But it is irritating every time I go in I have to deal with a comment about my ugly old lady name. For reference I work as a guest services manger at a luxury hotel and would never comment negatively on someone’s name. Even though a Starbucks isn’t a luxury brand, I still think it’s inappropriate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.041666668</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>efo09m</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>WIBTA if I named by robot vacuum Maria?  
+Bit of background: I (35F) am first-generation local; my parents were immigrants. I was born here and look white, but my name makes it clear my background is not WASP. DH (31M) is an immigrant, is mixed-race and his first language is Spanish. We do not live in the US.
+So, DH bought me a robot vacuum for Xmas. I absolutely love it. We moved into a new house this year and I was thinking about getting a cleaning lady, because the house is just too big for me to clean alone.
+This afternoon, I was talking to a friend and we were telling each other about our Christmas. I mentioned I got the robot and said that I was planning to name it Maria. My friend was shocked, said that was racist given the Spanish maid stereotype, and that it was especially insensitive to my husband. I asked my husband, and he just kind of shrugged, and said it might be, a little bit. It never crossed my mind. Is my friend right, WIBTA here?</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>87%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.045161292</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9991316931982633</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>l3bj3x</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>AITA for ‘being childish’ to my ex-wife in front of our son? First things first, I don’t like my ex-wife. She’s a cruel woman, evil some might say. Anyway, she’s always putting me down in front of our son, calling me names and making vague references to my small penis (my son doesn’t get them, but he still laughs). It upsets me.
+Anyway, so the other day she’s doing her usual routine, when I have a lightbulb moment. “Talk to the hand cause the face ain’t listening” I say, as I lift up my hand to her face. 
+Anyway, I’ve being doing this whenever I see her recently, and she’s mad at me? Apparently my son has picked up the habit too, doing it to her. Says I’m being an asshole and childish. I disagree, she got what was coming.
+So, Reddit. AMTA?</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.047872342</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.4710703953712633</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>czm9ug</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>AITA For telling my boss I can't Uber to work because a ride straight there costs more than I make in an hour? Pretty straightforward question. I work at a grocery store, I make $11.15/hr, I don't drive/have a car. I rely on family for rides. My grandma was recently diagnosed with stage 4 lung cancer and my family including my mom has to help take care of her in the mornings. I can't change my availability to after 12pm because I feel it's a request that my boss would think I'm stupid for asking and I also changed my availability recently to accommodate for the days that I go to therapy. My boss brought up using Uber whenever I can't find a ride because I live across town. I looked into it and one ride, no stops, costs at least $15 depending on the time of day and how many drivers are available. So am I an asshole for refusing to Uber to work?</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.053892214</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>c9ct5q</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>AITA because I told my parents about my sister. throwaway 
+I'm 18m 
+around a week ago I decided to browse r/ gonewild, I had been scrolling through the photos when the worst thing happened, I saw my 15 year old sister naked. I knew it was her because it was her duvet covers, and the backdrop was identical.
+I was in so much shock and was not really sure what to do, I then decided that the best thing I could do was tell my parents. 
+the next day I went to visit my parents and let them know, they are obviously very mad and my sister has lost her phone privileges for a while. 
+my parents have now forced her to see a counselor and have banned her from seeing most of her friends, she now blames me and I feel like garbage. she will not even look at me anymore. 
+did I do the right thing?</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>95%</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>0.12676056</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>aczbsf</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AITA for being upset at my family for stealing my name? My aunt asked my mother if her newborn son (my cousin) could "borrow" my name... As in be named the same FIRST, MIDDLE, and LAST name as me... She (without asking me) said yes and now there are two people in my family with the same exact fricking name. </t>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.05685619</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>bva7gk</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>AITA for telling my father why I don’t want to see him even though I’m not supposed to know. My mom and dad divorced a year ago and I was spending half the time with each of them. Then one night at my moms house my aunt was over. They thought I was sleeping but I came out of my room for a snack. I was on the second floor landing and they were in the living room below and I overheard them talking. This is how I found out that my parents divorced because my dad had a whole second family, with a girlfriend and two kids, and that she also kicked him out when she and my mom found out about each other.
+I confronted my mom and asked if it was true. She told me it was but asked me not to tell my siblings because she said my dad would make it harder for her if he found out that all of us knew. 
+I called my dad a few days later after stewing on it and told him I’m not coming back to stay with him, ever. I told him I hated him and I was done. This might have been my asshole move, but I told him I’d found out what happened and I wouldn’t forgive him. 
+Apparently he’s mad at my mom now and trying to get custody of me because he thinks she told me what happened, which I think is insane because I won’t live with him or respect him again. My mom is crying all the time because of this. Was I an asshole for telling my dad the truth?</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.11764706</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>du2txq</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>AITA for getting angry with my dad? So I came home from a party the other day and I went into my room and my dad had taken all of my stuff away! I couldn't figure out what I did for the life of me, so I yelled at him for it. He took my monitor, my TV, my Xbox, my three pounds of cocaine, and my laptop! Plz help I don't know if I'm in the wrong...</t>
         </is>
       </c>
     </row>

--- a/feature_analysis/Jupiter Notebooks/feature_samples.xlsx
+++ b/feature_analysis/Jupiter Notebooks/feature_samples.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>percentile</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -482,16 +482,17 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0001427551748750892</v>
+        <v>0.8989547038327527</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bk7om7</t>
+          <t>bli4mz</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AITA for not touching bf when he doesn’t shower? He goes several days, even a week now without showering. He’s otherwise pretty attractive, but when I know he’s this unclean I just preconsciously am not physically attracted to him. He’s had issues with this for a while because the way the water feels bothers his skin, or something like that. When he does shower and practice hygiene he’s almost physically perfect to me. Otherwise, I just don’t feel it. He feels unappreciated because I’ve not been physically affectionate.</t>
+          <t>AITA for recording a girl’s anime bodypillow at prom? I was at prom two days ago and a guy and a girl both brought body pillows with full size pictures of anime girls in lingerie. I thought it was really funny, so I recorded the girl holding it and posted it on tiktok with the caption “#whitepeople #weeb #prom” 
+I got around 200 comments. Some thought it was funny, some called me racist , and some said I was jealous of her. Lol. Aita</t>
         </is>
       </c>
     </row>
@@ -503,12 +504,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0024570024</t>
+          <t>0.0055452865</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -516,17 +517,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>en5m5z</t>
+          <t>ajdybt</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>WIBTA for snitching on a co-worker? I work for a small marketing office with three full time employees and two students (I'm one of the students). The boss shows up very rarely so we mostly answer to the project manager and ask him for direction. Well this project manager recently hired his boyfriend for the assistant/secretary position. The boss signed off on this even though the guy has no experience with the secretary type of work. He studied psychology and later got into programming.
-But whatever, if the guy did his job well and there wasn't any conflict I wouldn't complain.
-However things have been going downhill ever since the boyfriend came to work for us, which was only like 2 months ago. Oftentimes he shows up for work an hour late and never acknowledges it or apologizes. He and his boyfriend argue *all the freaking time*, whether about work or personal issues. Us other employees can hear them from our room and it's weird to say the least. To top it all off, this guy doesn't do his job well at all. A few weeks in, we found out he wasn't even keeping a proper excel sheet for tasks, clients, deadlines etc. like the previous secretary. He was seriously just plastering post-its all over his desk and thought that would be sufficient because "he has no time to enter all that stuff into excel" after all the other work he does. That's literally his job though? Maybe if he showed up on time every day or didn't talk/argue with his boyfriend so much or didn't take hourlong lunch breaks he'd be able to free up some time.
-Seriously half the time I feel like he doesn't even want to answer the phone, since he's always somehow the last one to get to it.
-I've talked to my co-workers, the ones that aren't part of the couple. They all agree this is a terrible arrangement but nobody wants to confront the project manager since he's effectively our superior and that's his boyfriend. What if he lies about us being the bad workers and the boss fires one of us? I don't actually want to believe he'd do that, but what do I know, this is a first for me.
-So WIBTA (or any one of us) to go behind their backs and tell the boss directly what the current situation is?</t>
+          <t>AITA for not being ready to forgive my husband? For context, I was finishing up grad school in a different state and the business my husband is taking over is the the state we live in now. Last April, We decided it would be important for our future if he came bak to the state we currently live in about 6 months before me in order to get his business started and to have a little money saved up for when I moved back as well. He came back out to help me move in early November. 
+There were a few nights I woke up to him having some sort of anxiety attack and he would tell me how sorry he was and that he didn't deserve me. I would always calm him down and convince him to come back to bed. He finally (and randomly) admitted to me in late November that over the summer he had gone out drinking alone with one of his (female) best friends. They had gotten drunk and rather than going out to the house he was staying (about a 45 minute walk) , he went home with his friend and cuddled with her in her bed. 
+The issue is that he lied to me about it for almost 6 months without showing any remorse or conflict until he came back out with me, and I had visited him for almost a month about a week after the incident occurred, and he never felt the need to mention it. When I asked him about it further and if there had been any texts between them the day after, he lied about there being bad service or something and that the texts were all missing (which only an idiot would believe) and when I pressed him further he admitted to deleting all the texts between them during that time period. I asked for his phone and he reluctantly gave it to me, and when I opened the texts between him and the girl he had a message written out to her but not sent that basically said how he was an idiot for lying to me and that I found out and that he was sorry. I decided to hit send on the message, and the next morning she responded that she "felt sick" about the whole thing since it happened. 
+About half of the friend I have talked to believe something more happened with the girl (who happens to have a reputation for sleeping with the boyfriends of other girls) and the other half believe that he loves me too much to ever betray me like that. He has apologized profusely and we had a big blowout where I explained how our trust had been majorly damaged and that it will take a lot of time to rebuild. It has now been almost 3 months since he admitted that to me and I still have trouble with trusting him and I have not gotten over it. He says if I am going to forgive him I need to do it fully and not continue to bring it up, which I have previously when we fight. AITA?</t>
         </is>
       </c>
     </row>
@@ -538,27 +537,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.005524862</t>
+          <t>0.008281574</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7024793388429752</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>d1q4xg</t>
+          <t>ca0xic</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AITA for yelling at some Kids in McDonald's? Recently, me (m19) and my Girlfriend (19) Bad lunch at McDonalds. We sat down got our food and soon where joined by a group of boys (I guess around 6 ppl 12 to 14 y.o. ). I think it was from a school or something.
-Overall they where pretty loud and annoying and all the people around us gave then some wierd and annoyed looks. After a while more of the group came there. At this point I was already annoyed too. And than they put out there JBL box and plaued some music. But loud enough evedybody could here it in the whole McDonalds. As soon as the music went on I screamed at them to shut down the music. They did so, whispering sonething like: "whats his problem?", but left maybe a minute later. 
-I start too feel like I overreacted but since all people where looking annoyed and I dont think anybody enjoyed them being around it feeled correct in the moment.</t>
+          <t>AITA for calling out my bestfriend's cheating boyfriend? My girl bestfriend knew she got cheated on 2 months ago (It happened a few months before) by someone she thought was the love of her life. I was also his friend and when I heard her cry her eyes out asking me what was she doing wrong, why would he cheat on her like that I was wondering if I could still consider him as a friend. I decided to put my friendship on hold with him and took care of her.
+We had all those talks about if she still wanted to go on with this relationship and at the end of it, she said "I involved too much time and thoughts on this relationship  to surrender only for that" and her boyfriend seemed like he wanted to make it work too.
+I was perplexed, but she seemed determined  to make it work. Her 2 conditions that I know of was 
+1. to throw the couch she bought for their future apartment where he did things with the other girl and 
+2. for them to go see a couple therapist because they have problems to communicate with each others in a healthy way. The deal was for him make the calls to find one so she can really see he wanted to make it work.
+Fair right?
+But fast forward today, he didn't make any calls, always postponed it until he said he actually  didn't want to see a therapist. She finally begged him to go see a couple therapist, she decided to make the calls to find one herself and to pay for it. It was the only way he would actually agree and she texted me she was crying of relief because he accepted.
+I called him out on his behaviour, reminding her that it was supposed to be his part of the deal so she could really believe they have a chance to save their relationship. What was the point of fighting for a relationship if she had to do everything again to save something he broke in pieces...
+At this point she told me she felt judged by me and I felt like I was not judging her, but just reminding her the facts. I was not mean to her boyfriend or to her, but I did became disrepectful when she treated me as I was the bad guy for repeating exactly  what she told me a week after she knew she got cheated on.
+So I told her to give him a candy next time he ties his shoes like big boy and she called me an asshole. Not only for that (I know it was uncalled for), but for the whole conversation where I demonstrated real doubts about her boyfriend willing to make any efforts to save their relationship.</t>
         </is>
       </c>
     </row>
@@ -570,32 +576,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.007677543</t>
+          <t>0.011976048</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>hljlhu</t>
+          <t>ay3kdp</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AITA for standing up a friend in her birthday. Some backstory : friend 1 and friend 2 were introduced to each other by me but became very close but they have started to shut me out and are being very rude about it saying I am never trying to be friends with them.  I also moved a few hours away last year due to family but I usually FaceTime with friend 2 regularly. Also this happened recently but when restrictions in my town were lifted enough that 6 people could meet.
-So I was set to meet my niece whom I had not seen in a long time (she is three now ) and I was excited but then I got a message from friend 1 saying she wanted me to come to her birthday party I dropped all my plans and said yes . Then almost a day later I get a message saying I can’t come. I ask why and I assume that friend 2 isn’t coming aswell , but friend 1 says that her mother doesn’t have enough food for both of us . At this point I am mad because I have cancelled all my plans but I understand that it was her mums choice . However I was not going for food I was going to catch up with friends. So understandably mad friend 1 made plans to meet with me at a park I said yes because I wanted to see her. I fully intended in standing her up. 
-I had plans with a another friend who we all know. Friend 3 was friends with friend 2 but friend one had constantly talked sh*t about her to everyone and she knew. Me and friend three had shopping plans for the next day but since I was disinvited we moved them up and went shopping when I was meant to be meeting friend 1 .
-(Up till this point I had been told that friend one and two were going to her house on a picnic and just didn’t have enough food for me)
-So me and friend 3 are shopping and we walk into a store and there they are friend 1 and 2 shopping I was mad and so was friend 3 because I had explained all of this to her. Friend 1 ignored us and put on a pretend look of surprise.
-Later we met up and discussed it friend 2 was completely silent but friend one was shouting about how I was an asshole for leaving her in the park ( I said I waited there ) she had just been caught in a big lie and was trying to turn it around on me I told her if she didn’t want me at her birthday she could have just told me as I had cancelled plans to meet a new relative for the first time 
-She insists that I am the asshole but I think lying about it and just acting surprised when I catch her makes her the Asshole 
-So AITA</t>
+          <t xml:space="preserve">AITA for not letting a child enjoy themselves in my store after closing time? I work at a gift shop where we sell little trinkets made in China, and we have a penny smasher. It's the bane of my existence. People are constantly turning the lever and making the *clink clink clink* noise all day, every day. Well, I was closing up the store last night when a family came in. I said "Hey guys, welcome in. Just so you know, we're going to be closing in about ten minutes, but take your time" (as you're supposed to say when you work in customer service). There were three adults and about five children all under 10 years old. At 8pm I locked the doors, turned off the music, and brought in our sign that we have outside. At this point I hoped they would've gotten the point and left, but they continued to let their children run rampant through my store that I had just cleaned and organized for the next day (which I had to do over again when they left). 
+They pay for their little trinkets and the children all look at the penny smasher and begged to do it. At this point its 10 minutes past closing, so I look at the father and say "I'm sorry but the store is closed now". He says "Can they just smash a few pennies real quick? It's their favorite". I say very nicely "I'm really sorry but it's well past closing and I have somewhere I need to be", which wasn't entirely true, I was just tired from working all day and I wanted to go home. The children all looked very upset, and one started crying, but the father lead them all out and I said "Thank you for stopping in, have a good night". The father ignores me and tries to comfort his crying child. 
+So AITA? </t>
         </is>
       </c>
     </row>
@@ -607,12 +608,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.008333334</t>
+          <t>0.012605042</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -620,16 +621,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>jnhv63</t>
+          <t>eg8xzf</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AITA for not wanting to move out for my roommates? To get context out of the way, early this year me and my buddy, (G) were approached by a friend of his, and two of her friends. They had found a cheap house listed for rent, but it had 5 beds, so they needed two more roommates. We agreed and everything has gone well so far. G and I mostly keep to ourselves, but we are all friendly and get along well (fair share of chores, etc, etc).
-Our lease renewal needs to be signed by tomorrow, so we had a discussion about it yesterday (there's a variety of reasons we didn't talk about it earlier, but that's not really the point.) G and I's expectations were that either everyone would stay, or we would stay and the girls would leave. We had no intentions of moving because we are very happy with the house and living situation.
-We were kind of blindsided when the girls asked *us* to move out because they had two of their friends who they would rather live with next year. From G and I's perspective, if they have a problem with the living arrangement, it's their responsibility to change it for themselves (i.e. finding another 5 bed place for themselves and their two friends) rather than having us find another more expensive place (our rent is lower than pretty much any other rental in town) and put down first month's rent and a security deposit in the few weeks before houses start getting grabbed up and G goes home for Thanksgiving/Christmas.
-The girls were not happy with our response, and even seemed kind of surprised that we didn't want to essentially move out as a favor. From what I can tell, their only argument is majority rules- i.e. because there's three of them and two of us, we should be the be the ones to move out.
-We're all going to discuss it again later today. It seems to me like they don't have a leg to stand on here, but maybe I'm wrong.</t>
+          <t>AITA for not even giving fake smiles when receiving caroling? I was baptized a Christian 8 years ago and I haven't go to church for more than 2 years as I felt disappointed by some people there and I also don't like to be put on the spot too much (small church).
+My mom goes to seminary school and serves for the church. The day that she told me she's going to do the caroling in our neighborhood so I wasn't anticipating that she was home early. When I was having my dinner, I heard the door was opened up and the next second she called me like "hurry up, come up to the living room. Everyone is waiting for giving you the caroling." I was in the middle of dinner and felt not only disturbing but being left with no choice. I couldn't say no because everyone was just out there anticipating me. For my mom, she would say that "there is nothing to lose for receiving people's blessing."
+The whole thing didn't last longer than 10 mins but I just felt extremely awkward. There are 2 of them (10) that I was kind of familiar with and gave me a smile but I was too annoyed to even faked a smile back to them which made me feel bad actually. 
+Am I the Asshole for this?</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.009259259</t>
+          <t>0.015306123</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -654,18 +654,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>by3st2</t>
+          <t>dhrwm8</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AITA for wanting to elope and not have a normal wedding. Long story short, my girlfriend and I are planning to elope and get married.
-We both are excited about the idea but are also concerned our family members and friends might get pissed off they weren’t included. For the most part all of our family is completely unaware we’re considering this (she’s told her mother we’ve discussed marriage but that’s it).
-One of the main reasons we want to elope (besides wanting to marry each other) is it saves us an absolute ton of money not having a normal wedding. We both have good jobs and could definitely afford a wedding, it’s just we both would rather save that money or spend it on other things we’d enjoy more. My girlfriend also works in the wedding industry doing makeup and surprisingly for her that’s another reason she has no interest in going the normal marriage route (she says she’s half makeup artist half therapist always having to deal with brides having meltdowns about how stressful it all is).
-Would we be assholes if we eloped? I’ve heard stories about people being offended they weren’t invited to weddings...we’d literally be inviting no one lol.
-Also, my little brother recently got engaged. I’m not sure if there’s some sort of unspoken etiquette or something but I wouldn’t want to upset him or his future wife by possibly “stealing their thunder” by sneaking in our elopement during their engagement period (we’re planning to get married before they are since they’re having a pretty long engagement).
-Our plan is to go on a long vacation, have some sort of symbolic ceremony (neither of us are religious), take a few nice photos together, and go to the courthouse when we’re back to make it official.
-Would we be assholes from excluding our friends and family from this?</t>
+          <t>WIBTA if I no longer invite my friend over because she doesn't help me tidy up? I have a friend who I met a few years ago. We've grown close but I have a pet peeve which I hoped I can work around but yet to find a way. Whenever she comes over we hang out, drink beers, play video games,  make food and watch movies. She crashes on the couch when we had too much. She doesn't drive so I pick her up and drop her off, she doesn't live very far ($15 cab ride or an hour bus ride). 
+I am getting increasingly annoyed how by the time its time for her to go my house looks like a war zone and needs to be tidied up. I am more then happy to do my share but as I clean she sits around and plays on her phone or asks me to drop her off before tidying up as she has a meeting or an appointment to attend. She won't get out of bed (couch) until its close for her time to leave. When I asked her to help me clean she sometimes does some minimal work before going back to her phone. Sometimes she outlines that my expectation for her to clean is unreasonable as she is a guest and as a host I take care of it. 
+She once in a while throws out that she grew up as a women in a country where women are treated like second class citizens  and me expecting her to cleans brings back those memories. 
+I do value our friendship and I do have fun when she is over but I grew up helping others clean up or my other friends help clean up when they are over. I respect the fact that me asking her to help may trigger some bad memories but am I being unreasonable in thinking that perhaps I'm better off no longer inviting her over if it means I am going to be super annoyed afterwards? 
+WIBTA if I stop inviting her over unless she agrees to help clean up?
+Or do I take this as the cost of admission of having a good time with a good friend over?</t>
         </is>
       </c>
     </row>
@@ -677,31 +676,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.010683761</t>
+          <t>0.015873017</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5378151260504201</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>e82om3</t>
+          <t>e554ox</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AITA for not willing to be emotionally invested as a father? I \[23M\] hooked up with a woman \[40F\] two months ago. Our age difference was significant enough for her disinterest in traditionally dating. Instead she elected that we have *fun*. Our conversations were insightful, and adventures thrilling. We consensually agreed to engage in unprotected sex, as STDs/STIs were in the clear. I asked about her concerns on getting pregnant and she expressed zero, as she didn't think it possible - sighting years of failure to conceive, intentionally and/or accidentally. Ultimately, we got along well, texting often and seeing each other some 4 times within the first month of us meeting.
-Sometime in the next month she informed me she was pregnant. This was a surprise to us both. I consoled her as emotions flared, keeping calm myself but automatically assuming she would not keep it given the circumstances (age difference, casual relationship, shaky financial standings for us both etc.)
-It turned out she is in no way emotionally prepared for an abortion, barring complications and viability issues. I understood and accepted her right to choose, despite personally believing it is probably not a good idea at the moment.
-In turn, I told her I was in no way emotionally/psychologically prepared to take on the *daddy* role and would of course pay child support, despite shaky financial groundings myself (recent grad, new city, freelance). While she does not want me to have to sacrifice my career ambitions, social freedom and other elements of my life, she expressed dissatisfaction in **just** paying child support saying it would be insanely difficult for her to do everything else alone. I found this obvious. She'd still be working (she has the only stable job) and then would have to take on other child-care duties.
-I have the choice of taking on a sort of *"babysitting"* role, being around for some things and without the expectation of being around for it all. But I know this wouldn't necessarily make things easier, and that being fully involved would be the best choice. I also understand that it isn't in my best interest to completely neglect my own liberties this early on in life because I know I'd harbor feelings of resentment later. 
-I'm afraid my guilt, and worries of her potential hardships as a single mother would eventually have me surrendering. Im conflicted. But I also understand that we both have the opportunity to make our own decisions and that I/we should not *feel bad* about the others choice. The pregnancy is still in the first trimester. We've maintained a respectful relationship with one another, both listening to each other as we sort this out 
-AITA for not willing to be a *daddy*?</t>
+          <t>AITA for telling my friend to quiet down? So I have a very nice friend who is very LOUD sometimes. She gets excited and she'll talk loudly or "yeep" etc. I'm always having to tell her to be quiet. Anyways we were out for her birthday and she was talking very loudly with a friend who showed up at her party. I told her she needed to quiet down. Her boyfriend got upset with me and told me that she told him I'm always making her feel like she's loud and obnoxious and that she's not loud I'm just very quiet. I don't think this is okay, but sometimes she gets annoying to be with her loudness. AITA?</t>
         </is>
       </c>
     </row>
@@ -713,30 +706,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.011904762</t>
+          <t>0.01754386</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9629629629629629</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>dn19ft</t>
+          <t>l2zhzl</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AITA for being "the other guy" and then coming clean, ruining several relationships in the process? Some backstory is needed to fully understand my motivations in all this. I was apart of a threeway relationship. It ended very badly, and it eventually came to light the instigator of this "threeway" was also seeing other people behind our backs. I broke things off fell into a deep depression. I've come out of this a bit stronger and wiser, and I swore to myself that I would never let something like this happen again.
-2 Years Later
-I got a seasonal job at a Halloween specialty franchise, and the district manager who hired me was also gay, and we had an instant attraction. He eventually told me, after we fooled around for a bit, that he was coming out of a five-year relationship, that his bf had gone through some trauma, but didn't want to abandon him. I understood, and after reflecting on things, thought that this situation was very different from the last one, and things would work out better this time.
-After hooking up a few times, it came out that these two were trying to patch things up after all, and that the manager wanted to stay friends. But then he started telling me that he still liked me and wanted to keep fooling around and see where things could go. So I lied to his bf and told him we didn't do anything. And then we hooked up again, this time with me knowing that my manager was actively lying and cheating on his bf. I fucked up this time. I could have said no, but I didn't. But then he asked me to erase all my messages to him. That made me feel cheap and like I was his "dirty little secret".  I lied to him and told him I would. But I couldn't erase those messages, they were my insurance policy.
-Last night, I became overwhelmed by my rage and resentment towards him and this situation. I couldn't believe I had allowed this to happen a second time. But I saw a golden opportunity to do things differently. After sleeping on it and asking several friends what they thought I should do, I finally came clean to the bf. I told him everything, sent screenshots of our messages, everything. The manager immediately started blowing up my phone, calling me all sorts of horrible things and told me I was a fucked-up person and that I was lying. Even when I sent screenshots of us sexting and making plans to hookup. The bf was much more receptive and told me he forgave me and thanked me for being honest. He also told me that the manager was denying everything and telling him that I was crazy and making this all up, even with the proof.
-I have no idea what's going to happen now, but I've ruined what was originally a pretty decent friendship, maybe another one, and may have destroyed a 5-year relationship in the process. I don't feel good about any of this really, besides finally coming clean and confronting the manager about his deception and lies. I told him straight up "I didn't ask people to lie, you did. I didn't ask you to delete evidence, you did. I didn't cheat, you did." But I know this is still partially my fault. AITA for coming clean?</t>
+          <t>AITA for going to a friend of mine with my ingredients after telling my roommates I would cook? I (25F) am a medical student and paramedic. October 2019 I moved in with my roommates, Nico (29M), Dave (28M) and Oscar (27M), for medical school. 
+In Germany rules regarding meeting other people are very strict right now due to CoVid. You’re only allowed to meet with one person from another household and no more than 5 people in total. Oftentimes Dave and Oscar have their girlfriends (Verena and Fiona; not living at the same household) over at the same time. That‘s caused some issues already as they know my stance about that.
+The issue at hand:
+My home is ~400km away from where I attend university and work as a paramedic. I have a favourite dish from home (called Kässpatzen) which I really enjoy making. I always bring back some cheese for it when I was home and cook for myself, my roommates and the occassional guests.
+Yesterday I told Nico and Oscar (Dave went home for the weekend) that I would make some for us today and that a friend of mine, Marc (33M), would come over and eat with us. Oscar asked if I could cook for Fiona too and if she could eat with us. I said no, not when Marc is coming over but I could make some for them to eat tomorrow. He said fine.
+When I woke up after nightshift today Fiona was at our house. I waited for her to leave but she never did. So it became clear to me that Oscar just invited her over anyways and thought I would just deal with it and not say anything or kick her out. 
+I texted Marc and told him that I would pack the ingredients I bought and cook at his place. I left a bit of the ingredients with Nico (he is also fed up with the other two not regarding our safety or studies, i.g. Verena being over while sick with the flu; I’m not allowed to take my exams if I only have so much as a runny nose) as he knows how to cook it as he is the only one helping me out in the kitchen with it. Then I left without telling anyone else.
+Skip to two hours later. Oscar texted me and demanded to know when I would finally start cooking. I answered him that I was at Marc‘s and I cooked and ate there. He blew up on me how I couldn‘t even think of telling him and that it‘s now to late to go get anything for himself and Fiona (we‘ve got a curfew right now from 9pm to 5am). I told him that I said yesterday that Fiona can‘t come over as Marc was already and he agreed to this. I also told him that it is not my problem he didn‘t go shopping today and can‘t make anything else now.
+So now he is calling me an asshole for making him think that he‘s settled for the day foodwise and then going out and not cooking or leaving enough ingredients with Nico for them. Marc and Nico told me I was in the right to do as I did.
+Am I the asshole here?</t>
         </is>
       </c>
     </row>
@@ -748,12 +745,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.012787724</t>
+          <t>0.019575857</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -761,13 +758,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>f1efwi</t>
+          <t>aojzfj</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AITA for telling my boyfriend about winning a video game? He just found out today that his roommate is moving out with very little notice and is concerned about losing his apartment. [We do not live together, and due to recent issues in our relationship I am unwilling to live with him right now anyway] Now, this was his month to pay the rent anyway which will give him 3 months to sort out a living situation because rent in our city paid once every 3 months. He and his roommate alternated rent payments so his roommate isnt skimping out on this months rent and it isnt an unexpected expense. Anyway he's understandably worried about it, he called me to let me know what was happening and we talked about it a bit and texted a bit. Well, several hours later I finished playing a video game. I was pretty excited about it because I got it platinumed and texted him to let him know; it's something that I would text him normally anyway. He texts me back asking if I am "seriously texting him about a game right now" and just generally gets a really bad attitude with me. I told him that I was sorry for what was happening to him right now but asked him to not take it out on me because it wasnt my fault his roommate was being a dick, to which he responded "I'm very sorry for talking to you about my problems I'll never disturb you again." Which had me like...wtf, because I never told him I didnt want to listen to his problems. I then told him I was always there for him to talk to and listen to his problems, I just asked him not to be a jerk. He texted me several hours later as if nothing ever happened, which is his go to when there is conflict. Instead of talking about things he wants to act like it never happened. 
-So reddit, AITA? I didnt even think twice about texting him about winning my game, I was just excited and wanted to share it with someone I cared about. But I guess maybe it was insensitive to text him about something trivial when he's going through a hard time?</t>
+          <t>AITA for rejecting my BF‘s ideas on how to fix our sex life? Obviously a throwaway account. Also sorry if I make any mistakes, English isn’t my first language.
+Me [M24] and my boyfriend [M26] got together about 5 months ago (we‘ve known each other for maybe 9 months before that). I‘m very happy with him and he‘s pretty much everything I‘m looking for in a guy. There‘s just one big problem in our relationship...
+Having anal sex with my bf is unbearable for me because he has a really big and thick penis. It’s not exactly the length that’s the problem but rather the girth. I am by no means inexperienced when it comes to anal sex, but trying to receive him just hurts like hell. We‘ve tried everything we could think of (different positions, different types of massages and relaxation techniques before sex, etc.) but I always end up being in an awful lot of pain anyway.
+I tried enduring it two times, thinking I‘d eventually get used to it, but it’s just not working out the way it should. He obviously doesn’t enjoy having sex with someone whose face clearly says „I hate this“ either.
+Needless to say, this is a very frustrating issue. We both like having sex, but if it doesn’t work it just doesn’t work, you know? We still pleasure each other orally and with our hands, but at the end of the day that isn’t really enough for either of us.
+Switching positions entirely is no option either since he doesn’t enjoy bottoming at all.
+I feel a little guilty and embarrassed about being unable to handle his size, especially after he constantly brought up the fact that his exes had no issue bottoming for him before.
+He‘s made two suggestions on how we could fix the problem, but I rejected both of them:
+1. Using poppers (I think using them often is dangerous and I don’t feel comfortable with the idea of drugging myself up just to have sex)
+2. Having an open relationship (I get that I clearly can’t give him what he wants, but ofc I don’t want my bf to have sex with other guys while we’re together)
+Since I rejected both ideas, he‘s become more and more frustrated with me and accuses me of not caring about the whole thing and evading the problem which isn’t true. I just feel like I shouldn’t have to give up my principles for the sake of sex, if that makes sense.
+At this point I just have no idea what to do anymore. I know sex is a really important part of a relationship, but I just hate the idea of breaking up with him over this. Our relationship is pretty much perfect otherwise. He actually feels the same way I do (I‘ve made sure to ask him several times), but since we both can’t agree on / find a solution, I‘m scared of what might happen...
+When I asked one of my friends for advice, he told me I should just get over myself and try out one of the methods he suggested, but like I said, I feel like I shouldn’t have to give up my principles for the sake of sex. When I explained that, he said I‘m being childish and that it‘s essentially my prudishness that keeps us from having a fulfilling sex life. Hearing that hurt and made my guilty feelings even stronger.
+AITA for refusing to try out the things my BF suggested and maybe putting our relationship at an even bigger risk that way?</t>
         </is>
       </c>
     </row>
@@ -779,27 +788,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.012987013</t>
+          <t>0.021951219</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9662162162162162</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9v3euz</t>
+          <t>d21pgp</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AITA For voting against a proposition out of spite? Obligatory on mobile so formatting might be off.
-As hopefully most of you know in the US we had election day yesterday. Anyway last night I was talking with my girlfriend and she asked what I voted for. I told her of the one or two candidates I supported and a few propositions that had gotten my attention. As an afterthought I mentioned specifically voting against one. She is apparently in support of it and asked me why I was against it. I told her that their ad campaign had been so annoying this year and last year that I wanted to see it fail. She said that was a shitty reason and that I should have jist not voted instead of against a proposition I didn't care about.
-So AITA for voting out of spite?</t>
+          <t>AITA for not wanting my step daughters to see their biological mom? I'm 27 and in late 2017 I got married to a man two years older than me. He has two daughters who are now 8 and 6. Once I married their dad, they started calling me mommy, and I've been one to them ever since.
+As for their biological mother, she left them with their dad, when the oldest was 5 and and the youngest 3. The younger doesn't remember her and assumes I birthed her, but the oldest does, and obviously has mommy issues over it. I've always assured her that I am her true mother and that I won't leave her.
+As you can guess, I'm not too fond of their biological mother, and neither is my husband. She lives all the way across the country, and called me last July out of the blue to "thank" me for doing the job she never "could". She asked to speak to her daughters and I said no.
+We've been talking more cordially since then, and last week she spoke to both of her daughters. They were confused but somewhat grasped what was going on. She promised to call them the next day, and she never did, which pissed me off.
+Ever since then I've been ignoring her calls but finally answered today. She announced that she is coming to our state next week for some friends wedding, and is in interested seeing "her" daughters.
+I barely feel comfortable with her speaking to them on the phone, let alone letting her spend time with them. So I said no.
+So their biological mom called my husband and complained about how bitchy I've been to her, and to my absolute shock, my husband sided with her and said I've been unnecessarily rude to her. He also said that he is allowing our daughters to see and get to know her, especially because the older one hasn't seen her in so long. His entire family agreed with him and ganged up on me, calling me uptight and all else.
+I haven't talked to my husband ever since then but I've been doing the same routine with my daughters. But I don't know how to explain any of this to them or how angry it makes me.
+AITA for not wanting my step daughters to see their biological mom?</t>
         </is>
       </c>
     </row>
@@ -811,33 +826,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.014260249</t>
+          <t>0.024096385</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9848484848484849</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>e5zrzr</t>
+          <t>i0lgy2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AITA for wanting to report a head waiter for a 'joke' ? I'll try to keep it short, English is not my first language so forgive me for my mistakes. This happened an hour ago and I am still feeling pretty bad. 
-My office is on the third floor of our six floors building and today, the power in the kitchen ran out so I had to go to the second floor to heat up my lunch. There was a large amount of guests for lunch in one of our dining rooms so they hired a caterer. I had nothing to do with it since it's usually for the committees' heads and I don't work on that floor. 
-I head to the kitchen and right in front of the door, there is the head waiter (I recognized the apron). I can only see his back but I move forward anyway to get to the microwave. At the very last moment he turned around, holding a large kitchen knife towards me. I guess he was cleaning it or wanted to cut some food with it, but I was startled and scared because kitchen knives always scare the fuck out of me due to personal reasons. 
-I immediately froze, I couldn't take my eyes off of the blade. The head waiter didn't make a move or said anything, he just kept pointing the knife at me for what felt like a thousand seconds (actually I don't think it lasted more than 20 but you know what I mean). At this point I'm ready to throw him my frozen meal and run away, I genuinely thought he meant to hurt me. (for the record, the kitchen is at the end of a long corridor not frequently occupied) 
-His coworker shows up and without moving for one bit the head waiter tells him with a grin "another girl I won't let pass". The coworker laughs and tells me "you should be careful, he already cut two people open today". They both smiled at me and finally left. 
-I just stood there in complete shock. I wasn't even hungry anymore and I started to feel sick. I told my coworkers about this and they were all playing it down like "come on, it's just a joke". I get that he didn't mean to hurt me but why would anyone think that this is a good joke to pretend to threaten someone with a knife ? Especially when you don't know this person and what can and cannot be potentially triggering to them ? I know it's not his fault if I'm scared of knives but I didn't know any of them, they didn't know me either, we just happened to head for the same room, and he was here to provide a service, not frighten some random employee. 
-So my question is : am I an asshole if I report his sick "joke" to his company ? I don't want him to be fired, that would be excessive of course, but I don't want this to happen ever again, to me or to any potential customer of theirs. I also think he has to know that he cannot indulge in these questionable 'jokes' while at work, and with strangers. 
-&amp;amp;#x200B;
-Thank you for reading.</t>
+          <t>AITA for shaming my brother for becoming a single father? My brother is 40 and to the best of my knowledge has never had a girlfriend or a boyfriend. I suspect he is gay though. He's never married. He announced last year that he was going to be a father and we were shocked. I thought maybe he got someone pregnant. No. He hired a surrogate and even more weird is that he used a donor sperm and paid for a procedure to select the gender. His son is due in August.
+I told him he was incredibly selfish. He has an okay job, but no support system. If something were to happen to him, that child would end up in foster care. Our mother is in her 70s, our other brother doesn't want kids and I am in no position to raise a child. I told him he's treating this baby like it's a pet.</t>
         </is>
       </c>
     </row>
@@ -849,25 +857,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.014705882</t>
+          <t>0.025316456</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>elukz3</t>
+          <t>kcn3qs</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AITA when I refuse to taste someone’s drink? If I’m at a bar, and someone orders a drink, and I say something like “that looks good” or “nice choice” and that person offers me a taste, and I refuse, AITA? I didn’t ask to sample their beverage. If I want a taste I’ll ask the bartender or order my own.</t>
+          <t>AITA for making sure my husband listened to my request? It was raining where I live.
+I was at the bedroom when I realized that it had stopped. So I proceed to ask my husband to take the trash outside, since the rain had took a break. He didn't respond. I asked again, 'cause he has this amazing headphones that blocks all the noise.
+He didn't respond again. Then I go into the office, which is here he is and say again. He didn't respond. So I put my head in front of his face (he was staring at the monitor). HE DIDN'T RESPOND. So I proceed to take one of his ears off the headphone and he says "whattttt? I did listen you the first time." 
+I ask "why you did not anwser me, then?". The conversation doesn't go any futher and I got really pissed off.
+Later, at dinner time, he just asks "why are you mad?". I start talking about his shitty attitude. He just says he heard but did not feel like answering, and I'm the asshole for going there and making sure he listened.
+He also said that I do this kind of stuff so I get attention. I sincerely was making sure he listened, as his headphones are very noise blocking.
+So reddit, AITA????
+PS.: I'm aware this is very childsh.</t>
         </is>
       </c>
     </row>
@@ -879,29 +894,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.015544041</t>
+          <t>0.027272727</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.2885572139303483</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fh2dvg</t>
+          <t>g18tep</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AITA for telling my fwb he needs to stop acting like my boyfriend? Throwaway and sorry it’s long, there’s quite a bit of backstory. 
-Back in first year, I met this guy (F) who I had a crush on and he did too. We hooked up a couple times but I didn’t want anything serious while he did so we ended it. He got a girlfriend and we remained good friends. 
-Fast forward to final semester of final year. After Christmas break, a bunch of us (including F) got together to have a few drinks. One of our mutual friends had a mate (S) visiting who he brought along. S and I got along pretty well and hooked up. Next day, all of us hung out again and F (who had just broken up with his gf over Christmas) was being super weird about S and I. The three of us ended up getting super drunk and went to my flat where we all hooked up. 
-S went back to Spain and F and I continued having causal sex. Neither of us wanted anything serious so we decided to be friends with benefits (his idea). We had fun,  it was a great way to relieve final year stress and all was going well until yesterday. F and I were in the lab when he saw a message I had from S. He got angry about me talking to S and I told him he needed to chill as we were not together. He said I was being inconsiderate and only using him for his body and I said he was being unfair because both of us had agreed on a no strings attached, only using each other for sex thing and now he was trying to act like my boyfriend. He got annoyed and ignored me for the rest of the lab which was super fun and not awkward at all. We were supposed to meet up last night but that didn’t happen and we haven’t spoken since. 
-I think he’s being dramatic but on the other hand, i feel if it weren’t for me being super against being in a relationship, we would probably be together. So reddit, am I the asshole?</t>
+          <t>AITA for refusing to give money to my future brother- in-law? My fiancé(M) and I (F) live together, we own our home and are joint in every account.
+About a year ago, we found out that his brother and SIL were struggling monthly to pay their bills. We offered them to move in with us and of course they will pay us rent(half what they were currently paying).
+Brother and SIL have full time jobs but they overspend, are constantly buying unnecessary things. I know I’m not anyone to have a say in their finances but they’re in this situation for that reason. 
+We found out they might not get a stimulus check but are still employed and working. My fiancé’s sister suggested to give their brother money because they feel bad. I immediately shut that down but my fiancé called me a b***h.
+His brother told us last night he bought $200+ pair of shoes. 
+AITA?
+Edit: Just want to clarify- They do live with us now. They don’t make over $150k it’s for other reasons they don’t qualify.  Fiancé is really upset because I give my grandmother who is over 75 $50 a month to help her. She doesn’t work and has a lot of medical issues.</t>
         </is>
       </c>
     </row>
@@ -913,12 +930,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.017142856</t>
+          <t>0.02886598</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -926,13 +943,16 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>dtqv6g</t>
+          <t>k5kh4d</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AITA for not liking my gf's friend. Me and my gf are in a new relationship, we are both highschoolers, and I am new at this. Anyways, one of her friends, who we'll call A, who I have known for a year or two now, changed tones with me a lot. He went from being generslly friendly to cold and pushy. Like, one time I was trying to take her jacket. He was helping, and she blurts there is a tampon in there. I instantly let go, because I'm not a douche. He instantly goes off on me for being a pervert and shit. He was helping me yoink it from her for gods sake! He also tells me I am being clingy for giving her hugs and stuff, I've talked to her. And I have dialed it back, but he still insists on me being clingy. 
-I haven't told her yet, but I have told friends about how he makes me feel like shit. So reddit. Aita?</t>
+          <t>AITA for getting a cat without my sisters permission? In the beginning of 2020 there were rumors about the pandemic spreading fast and how my area might shut down soon. I technically  live with just my sister. we own a decently large house, I take over the downstairs and she owns the upstairs. The property is family owned and we both have to pay our mom to continue living there. Now I rarely ever visit upstairs and my sister rarely ever goes downstairs, we both have our own entrances and rarely have a reason to do so, so it feels like we are in our own houses. Because of this  wanted to get a pet to help me throughout the pandemic so I dont feel as lonely. It wasn't that I couldn't visit my sister whenever I wanted to its more just we dont really have the best relationship.
+ I contacted my mother about it to see if I could and after getting permission I started looking at possible kittys to adopt. I originally set out for only one  but instead I got 2 super cute Calico sisters both being around 7 and SUPER cuddly. I instantly fell in love when I first met them and even today I still absolutely adore these two. Well Ive had them for awhile now since I've gotten them in the beginning of covid and its now nearly the end of 2020.  my sister had only recently found out about my cats. Apparently she heard one of them meowing pretty loudly while I was out for my morning jog and went downstairs to see what it was all about. 
+When I got home that day my sister came downstairs to ask me when I got the cats and why I didn't tell her about them. I told her that I got them almost a year ago and that I never had a reason to tell her about them since the topic of pets never got brought up in conversation and that we rarely talk. She was clearly agitated and told me I had to get rid of them because I "didnt ask her permission" and that the house was hers too. This became and argument that resulted in her Stomping off back upstairs. I hate having arguments and felt kinda bad, but I tried brushing it off. 
+Later that day I received a text telling me that I was an asshole and "what would happen if I was allergic!" 
+I really dont want to get rid of my cats, they dont cause any trouble and they stay downstairs no matter what. Not to mention I got permission from my mother who owns the property and she never told me I had to ask permission from my sister before I do. But I thought I needed some more opinions so AITA?</t>
         </is>
       </c>
     </row>
@@ -944,12 +964,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.017699115</t>
+          <t>0.03272727</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -957,18 +977,16 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>iouw0x</t>
+          <t>c9i8f6</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WIBTA if I never invited my brother on another vacation because of his past actions? My brother and I don't have the closest relationship (anymore) because of his attitude and his actions over the last few years. Its driven the family apart essentially. He likes to walk around like he can do no wrong, all the while shitting on people for their opinions, beliefs, hobbies, etc.
-Last month I took him and my mom on vacation (dad had to work and look after the pets) I paid for everything except his gas to drive us there (he refused payment) I paid for the hotel rooms, tickets to the museums we went to, most of the meals and a souvenir for him. Our mom paid for the remainder of things like meals I didn't pay for, tips, etc. This only cost my brother $35 for gas. The entire time we were there, every other word out of his mouth was "ugh fuck this" and loud exasperated sighs. He locked himself in his room at night when my mom and I went to do tourist things. He refused to come see a play that he showed the most interest in. He refused to talk to us for most of the trip and  snapped at our mom for asking where we were on the road. 
-Everything was a big to-do with him. I planned the trip rather loosely, like we'd decide where to eat when we felt hungry, we'd go to tourist spots if we thought it sounded cool. There was no strict itinerary or schedule and it annoyed him.
-Well I've been planning a trip to New Orleans in my mind. I'm keeping the plans VERY loose because of covid so absolutely nothing is in place yet. I tried to talk to him about the trip last night and he chewed me out! "What makes you think I want to do anything with you?" and "Like you'd even fucking want me there..." and "Don't get your hopes up, its worthless".  Eventually he got so loud and belligerent our parents came in and started fussing at us both because they figured I was starting a fight (which was weird because 90% of the time he instigates). Well this only made him more angry and he locked himself in his room and hasn't spoken to anyone until a few minutes ago and that was just to yell at our dad about using his bathroom. 
-Note: I plan things like that in advance because it gives me hope, especially when depression is hitting me hard, so for him to say "its worthless" and act like I'm crazy really hurt...
-WIBTA if I never invited him anywhere ever again? I wanted to invite him to Pride (if it happens next year) because neither of us are cishet (I'm trans, he's bi) and I figured we could bond over it and have a weekend of fun but now, hell no. My mom said I would be a major AH because "family" but my dad, who didn't even have to experience his behavior last month said I'd be totally justified. What is your judgment Reddit? 
-TLDR: Younger bro was/is an AH to the family on a free vacation, might not get invited/included in any of my future plans.</t>
+          <t>WIBTA: I feel like my mom doesn’t respect my boundaries. I’m getting a bit older now, and turning 13 in a few months. More recently, as all of us do eventually, I start to want a lot more independence/space from my family. I’ve learned more about my boundaries and what I do and do not like, and I have noticed that I dislike people touching me. I don’t know what is, it just makes me uncomfortable and a bit annoyed. Anyway, I’m getting off topic. 
+This has happened a quite a few times, and I have repeatedly told her that when a person touches me, I don’t like it. She proceeds to either let go grudgingly, or refuses to stop. I try to wiggle out of her grasp, and when I break free, she gets all offended and annoyed. She also may ask “don’t you love me?” (She does this in other situations as well.) Of COURSE I love her, she’s my mom, and I care about her very much. I have accidentally hurt her before when trying to get away from her, which I feel bad about, but she acts like it’s totally my fault, when I feel like it isn’t.
+I think it’s tough for her to let go, I am her only child, and I don’t think she wants me to grow up just yet. I suppose I understand that, but she needs to realize that I don’t need her for everything these days.
+Please be honest, I really need to know.
+(I am in no way trying to villanize my mom.)</t>
         </is>
       </c>
     </row>
@@ -980,12 +998,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.018292682</t>
+          <t>0.034632035</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -993,15 +1011,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>jbxyjp</t>
+          <t>ikxqk1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AITA for calling myself a computer scientist? My degree has kind of a confusing twist to it, it is information science with a concentration in networks, cybersecurity, programming and data.
-I just call myself a computer scientist because honestly it's easier to just tell people I am a computer scientist so I don't have to waste my time explaining what an information scientist is etc. etc. I am not trying to lie at all about what I do as it is quite similar to computer science--and the job I have is done by computer scientists as well.
-My bf said I was being misleading and lying by calling myself a computer scientist but I am just trying to make things easier on people who ask so they don't need the whole long ass complex answer. I also am 100% willing to tell people more and explain the full situation, if the conversation happens to go there.
-AITA?</t>
+          <t>AITA for hating my mothers friends for treating my pet terribly? Just for clarifications sake; my mother (who is also in her late 30s mind you) decided to bring over 6 - 8 people for one of her girlfriends 'birthdays' at 3am in the morning after her night shift has finished. They decided to get both drunk and high. My cat is a male short haired tabby who has been an indoor cat since I raised it from its birth. So during that evening they all go out to smoke on the porch and that they left the door open. I thought nothing of it at the time and went to sleep. When I wake up my cat is missing from its usual sleeping spot, I look around and ask my mother if she's seen the cat anywhere. All she responds with is a "I have Bill's to pay, so I don't care really " after about 2 hours of scouting around outside, I find it underneath our old stainless steal barbecue on the porch crying. Turns out the cats paw had been hurt. So I ask yet again if i am the asshole for blaming her notoriously short tempered and egotistical friends for leaving the poor cat out in the cold / not making sure the door was closed.</t>
         </is>
       </c>
     </row>
@@ -1013,30 +1028,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.019543974</t>
+          <t>0.0373444</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ghaql3</t>
+          <t>efa2c0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AITA ? I'm NC w/ my dad. He might die soon. Hello. I posted about this on whisper to vent but I received some backlash so I wondered if I'm the asshole.
-I went no contact with my dad after 10 years of mental abuse and trying to have a good relationship with him. After a big fight I realized it wouldn't change and I had to start protecting myself. He's abusive, mentally ill and a drug addict. (all types of drugs but mostly cocaine and heroin for nearly 30 years) (he's diagnosed with borderline and narcissistic personality disorder with psychopathic tendencies) 
-Today my niece from my dads side sent me a recent picture of him. He is looking worse than ever before and might die soon. It saddens me and really hurts me because I somehow still love him and still care about him, somewhere still wishing we could have a relationship knowing that that isn't possible. Yet I have no intention of contacting him. I do hope I get to say goodbye when he's on his deathbed but since he's probably going to die on the street or in some addicts house I probably won't get that opportunity. Even though I know that I still don't intend on contacting him. I even feel a little bit of relief knowing it might me all over soon and his death might finally give me some closure.
-Some freaked out and called me selfish among other insulting things, others started pushing me to contact him or I would regret it for the rest of my life.
-Even though there's a chance the second might be true and I might feel some regret I don't want to put myself into that abusive situation again.
-Am I the asshole?</t>
+          <t>AITA for making a “crude joke” to my masseuse? This actually happened like two months ago and I posted about it at the time but it didn’t get much attention. It just came to mind because my husband brought it up during Xmas eve dinner and my in laws didn’t find it funny.
+Basically I was at a spa and I booked a massage and facial. Now I tend to have a very crude, in your face sense of humor. I laugh at potty jokes, etc. it’s kinda my thing.
+Anyway so I’m at a spa and this woman is doing my facial. She is also trained in massages.
+As her fingers get near my nose, I smell a really disgusting smell. It can only be described as the smell of ass. 
+I felt grossed out and obviously had to say something, but I didn’t want to embarrass her by saying she stinks. So I said “What, did you finger your last client’s asshole and not wash your hands?” Something like that.
+It was clearly meant as a joke and to diffuse the awkwardness of saying she smelled, but she got all huffy and offended and I was asked to leave.
+I found it hilarious, my husband was kinda on the fence but after retelling the story, my in-laws seemed horrified and now I’m wondering if I took it too far.
+AITA?</t>
         </is>
       </c>
     </row>
@@ -1048,25 +1065,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.020179372</t>
+          <t>0.04450262</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>b6s3pf</t>
+          <t>jpilct</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">AITA For being strict with my younger sister? So my sister is 16 years old. About a year ago she started dating a boy at her school who is 2 years older than her. I didn’t think much of it bc she’s 16 and teenagers date. I thought it was fine. But she begged me not to tell our parents bc they’re old fashioned Mexicans and would never let her leave the house. I said sure not a big deal. This went on for a while and she started to get comfortable and felt that she would have no rules and could do what she wanted. Coming home late on Friday nights and whatnot without telling anyone. This was when I started to get annoyed. I told her that I had her back by keeping her boyfriend a secret but I was not going to be okay with her having no supervision at all. My mom works late and my dad works early so he’s asleep by 7 so neither of them would be around when she got home so late. I started asking her more questions and I always made it a habit to know where she was on the weekends. I really didn’t think this was too crazy as I trust her. She started to get comfortable again and stopped telling me where she was and who she was with and I told her that I really didn’t like that and I told her that I would have to tell our parents if she can’t trust in me bc I think she needs at least some guidance from someone and she has to listen to my parents. She’s more rebellious towards me obvs as I’m her brother. She got really upset and said that i have to stop acting like a parent and that I’ve never done anything helpful for her. I struggle with my mental health and she took a lot of jabs at me about it. I was really hurt. I just really don’t want to be responsible for if she ever did anything detrimental to herself. This was a month and a half ago and we still haven’t talked. I’m 22 years old. I get that I’m older and should be the adult and try talking to her but I really don’t want to concede my opinion on her behavior. She’s really entitled and spoiled. My mom and a friend keep telling me “she’s only 16 you should know better”. But then she doesn’t learn anything and continues being the way that she is. AITA for waiting for her to apologize to me? </t>
+          <t>AITA for getting mad at my brother and his wife for bringing home a puppy behind me and my mom's backs? First of all, I'm new to posting on reddit, so please excuse any mistakes!
+So, my brother and his wife and toddler moved in with my mom and I almost two years ago for financial reasons. They moved in with their dog, who somehow managed to get along with my cat but I think that's because he kept his distance from her. Well, their dog passed away in January of this year. They wanted to immediately get another dog, and so we did but returned him after a few days because I felt the weight of the responsibility and the tension with my cat, and I managed to convince them. My mom also firmly stated she doesn't want anymore animals in her house no matter what.  
+Well, today they bring home a small puppy without discussing the matter with my mom and I. We were both livid as we found it incredibly disrespectful to my mom. My brother simply responded with "Mom never said I couldn't adopt one." The thing is they barely help my mom financially - she takes care of all the bills. She's the breadwinner. What they pay for themselves are their cars, phones, and some groceries, but besides that they don't offer anymore money. So, the fact that they had the sheer inconsiderate audacity to bring a new dog into a house they don't pay for is bonkers to me.
+ I'm also mad because I have an adult cat that won't accept a new animal in her territory. It's literally my reasoning every time they say they want a dog. That a new dog will cause issues with my cat and that you never know if she'll react violently. 
+I had to retreat to my room for the rest of the day as I'm too emotional to be around them, but I've heard them talk to each other and I'm sure they think they're in the right and that my mom and I are being overdramatic. I'm incredibly stressed and livid over this.
+So, Reddit, AITA?</t>
         </is>
       </c>
     </row>
@@ -1078,26 +1100,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.021428572</t>
+          <t>0.048899755</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>bsc21n</t>
+          <t>blubn0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AITA for telling my daugther that she isnt pretty enough to be a model. I love my daugther. She is smart and has a really big heart. Now i have to admit that she isnt the most beautiful girl in the world. I still lover her but i know that.
-The other she told us that she wanted to do a casting for beign a model. Now i told her that i didnt think they chose her because when she fails she blames herself and end very sad. Now she is angry at me but she still wants to participate. I also feel a little bit like shit. I troed to explain to jer why i said it but she doesnt want to talk with me.</t>
+          <t>AITA For Feeling Upset at My Folks for Keeping my PC After he Agreed to sell it? I left for college back in January. My father agreed to sell my gaming rig on Craigslist and give me the money for it when I came home to visit next time. The reason I left it with my dad was because I couldn’t fit it in my car when I left for Florida. Now, this computer had a lot of sentimental value to me (it’s dumb I know), and I expressed this to my dad. So we clean it up, reformat it, and list it. 
+A few weeks go by, and my mom gives me a call saying someone was interested in it. So I said alright, go ahead and tell dad as he’s the one selling it on my behalf. She doesn’t tell my dad, and the computer goes unsold apparently. 
+It’s summer break now, and I got home. I asked my dad about the money for the computer. He told me he didn’t sell it and instead gave it to my mom. I wasn’t consulted about this. Nobody told me it was just being kept. That’s $700+ I’m missing now. 
+So I want my money. I can use it to pay my bills and help me through the summer which was the whole purpose of selling it to begin with. But there’s a problem. 
+The family dog just got sick the day before I drove home and now he needs medicine regularly. So now I feel like an ass hole for being upset with my parents for basically scamming me out of $700 because the dog is sick and needs medicine. Don’t get me wrong, I’d much rather them be able to afford medicine for our dog than give me what they owe me. But at the same time, they just spent $600 on a puppy (this was before my dog got sick btw. Puppy WAS NOT a replacement dog) a few weeks ago and a trip to Hawaii prior to that. 
+I’ve been seething about it for days and basically grinding my teeth to nubs trying to figure out what to say or what to do about it. I haven’t brought it up since I asked my dad about it, but I don’t know if I even should at this point.</t>
         </is>
       </c>
     </row>
@@ -1109,693 +1135,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.021857923</t>
+          <t>0.07692308</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>du8z1v</t>
+          <t>m4en9k</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>WIBTA for abandoning a new business that I've founded with another person to move back to my home state? WIBTA for abandoning a new business that I've founded with another person to move back to my home state?
-&amp;amp;#x200B;
-I've founded a business with someone I used to work with. I intent to start a bachelor at uni in the next 3 months to do a bachelor of Music. I intend to make some sort of career out of music, be in through wedding gigs or small time stuff. 
-&amp;amp;#x200B;
-But the way I intended to get there was through creating a business to pay for the lessons, the university, the marketing, and the producing for everything I intended to do. I have a background in window cleaning. I've been doing it for 4 years+ and I'm really good at it. It seemed like the easy business path to pay for the stuff I wanted it to pay for, and I started a window cleaning business with someone I was working with in September. Since then, the business has been going really well and we've more than doubled the initial marketing and equipment investment made. The problem is that I still owe him the start up cost of the business. I have so far borrowed about $3000 AUD in order to fund the business. I have about $1500 in my bank right now. The problem is that I'm starting to feel like I should move back to my home state because I haven't really made any friends for the 9 months that I've been in this new state for, and I'm finding it really hard to cope without my consistent support networks. I really want to move back to my home state and just start fresh, staying in close contact with my support network and distancing myself with my friends that aren't so great. I understand that I have an obligation to my current business partner and that I owe him money at this point, but half of the money owed is towards the gear we had to buy to start it up (so therefore should he have more obligation to pay for the gear we have used for the past month), and the other half is towards the marketing we have bought for the business. From here I really don't know where to go because I understand I have a lot of responsibility to pay this guy off and make sure I'm not fucking him over in regards to this new business. But I also kind of want to get out of this business in the least dramatic way possible. I know that I owe him at least the marketing portion of our business and I 100% intend to pay that back. But do I have an obligation for the gear purchased when we have only been in business for about a month and a half? What is the best way of going forward with this when I want to move back to my home state with the least drama possible?
-&amp;amp;#x200B;
-Essentially, WIBTAI I moved back to my home state having just started up a business with someone?</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.022653721</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ige79y</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>AITA For removing myself (25F) from my brothers (22) baby mamma (21) drama? Okay so this is a long story. This is my first post so I’m sorry if my formatting sucks. 
-My brothers (D) son is being born today. His first. Babymama (BM) is being induced due to some health concerns. Nothing major but needed. I am also 32 weeks pregnant with my first.
-D and his BM weren’t dating very long when they found out shes pregnant. She claims it was an accident but later events make us suspect differently. They aren’t together anymore because of her attitude towards him. He has done everything he can the entire pregnancy to try and help her through it. He told her to quit her job and he would support them so she didn’t have to stress about it, would offer to rub her feet and draw baths, bought anything she wanted for herself and the baby. The whole time she’s been very hostile and constantly pushing him away and causing fights so she can make him out to be the bad guy. She also dropped the bomb that she won’t be giving the baby D’s last name and he won’t be allowed in the birth room. She also made it very clear she doesn’t want him to be alone with their son nor take him to see any of our family. He finally had enough and decided to break things off with her so he got his legal rights to his son that he deserved. She has been extremely nasty to him and pretty much told him he will have nothing to do with his son and he isn’t allowed to come see him and if he tries she will call the cops. 
-That’s the background. Here’s where I come in. I had my diaper party last weekend at my dads. (My mom and dad have been divorced since I was 2, D and I only share mom) my dad is good friends with BMs uncle. He was invited. Well he brought BM and her mom. I was uncomfortable with her there knowing what she was putting D through. Not to mention she told D how much she hated me for stealing her thunder when I announced my (very unplanned but very wanted) pregnancy a month after hers. So I wasn’t sure why she even wanted to be there. I talked to D and we decided it was fine she was there as long as no drama was started. And she didn’t. Before they left she asked if she could come to the baby shower my mom was throwing for me the next month for that side of the family. Which confused me more since my brother would be there and she said she didn’t want to see him. I told her I had to talk to them and she said that was fine. D told her she could come if he got to hold and see his son. She never responded to him. She told my mom she didn’t want to cause further issues since it was an issue she was at the diaper party. I don’t even know who told her that. It seems like she’s playing games to get at D and she’s using me to do it. 
-To wrap up a long story that I’m sure I’ve left stuff out, AITA for wanting to distance from it all for the sake my of pregnancy and trying to minimize the stress? Or should I be trying to be there for D even more right now? I’m not quite sure what to do.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0.023904383</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>m403ob</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>AITA for making a friend homeless over a cat? Throwaway as multiple friends know my reddit account.
-I(24f) co-own a 2 bedroom apartment. My sister usually stays in the other bedroom and still pays her share of the mortgage but last year our mum got the virus and has had some on going side effects for which she needs help to do some things. My sister works in mums business so it made sense for her to go stay with mum and help her for a while and also because I'm a nurse so I didn't want to be exposing my parents to anything I run into at work. 
-A couple of months ago my sister said she wanted to know if she could decrease her rent contribution and suggested sub letting her room. I didn't really want to bring a stranger into the house so I suggested I cover more of the mortgage. We agreed on changing it to me paying 70% of the total(i used to pay 40% because her room was larger and had an ensuite with a hot tub). This has been working great and I'm only including to explain why the room was empty. 
-About 2 weeks ago a friend of mine from HS reached out to me and asked to crash at my place for a couple of weeks, he'd lost his job and his gf dumped him. I felt bad and said he could stay in my sisters room until he found a new job and a place. Initially he was an OK housemate(a bit untidy but certainly not the worst guy I've lived with) but then he started complaining about my cat and insisting she needed to go to my parents while he was staying because he had allergies. I said no, told him to take antihistamines and deal. (My cat is a 16yo rescue who is blind in one eye, has a bad hip and needs regular medication for kidney problems so giving her to someone else isn't an option).
-2 days ago I came home and Ruby wasn't in the house when I went to give her medication. I asked the friend and he said he hadn't seen her. I was frantically running around the block calling her name until my neighbour saw me and told me she had her. Apparently my "friend" had put her outside that morning and repeatedly poured buckets of water on her to make her run away, the neighbour caught her and dried her off. I was furious and confronted him and he got upset that I was prioritizing an old cat over him and I said he had 24 hours to leave or I'd dump his shit outside and hose it. 
-So he left yesterday and is now crashing on another friend's couch. Pretty much our entire friend group thinks I'm the asshole for kicking him out and multiple people have sent me nasty texts. AITA here?</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.024691358</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>etq9p6</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>AITA for not making a meme for the CEO? Ok so I’ve never used reddit before but I always read what’s out on here through twitter. I this situation is stressing me out so much I just needed to see an objective opinion. I work for a relatively big company (200/250 employees) and most people know of the company. My role is in social media and I use a lot of editing softwares. Anyway yesterday (Friday) I was so swamped with work and deadline since that week I had a lot to do. Last min requests, out of office shooting etc. People in the office even tried comforting and asking how they can help as they knew I was stressed. My manager extend my deadline from Monday morning to evening as a lot went wrong with this project of no fault of mine. Ok at this point my manager who is working from home messages me asking me if I would be a darling and make a viral meme for our CEO. She asked me because I part of my job is making memes for the companies instagram. She instructed me to go to the ceo and get on her phone, look for the appropriate pics in her photo album, send them to myself and edit them into this viral meme. The CEO will then post on her private Instagram. At first I said no because it’s not work related and I was beyond busy. But after pressure from the head of my departed and gave in. I messaged the ceo (who has never spoken to me) “I heard you need some help”. She then didn’t reply for about 3 or so hours. Getting to the end of the day I just carried on with my work as I thought it was more important. Granted I should have replied quicker but I replied about 2 hours after the work day is already finished. I thought this is okay because it’s not a work thing so I can just do it whenever. But the head of my department thinks I fucked up and even said “ no one tells the ceo no and you have to drop everything your doing” my manager is also mad at me. But I think that it’s not my job and has nothing to do with work. It’s for her private Instagram.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>57%</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0.02631579</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>b027ad</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>AITA for throwing palm tree leaves from my neighbor's trees back over their fence? My neighbor has three palm trees that keep dropping fronds over to our yard. Whenever there is strong winds we always find a large amount of these large leaves in our back yard and we are tired of dealing with it. The neighbor refuses to do anything about it despite having gardeners to help her with this. The only thing we can do now is throw them back over her fence so she can deal with it. Am I the asshole if I keep this up?</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>60%</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.027131783</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>bt721x</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>WIBTA if I tell my neighbours to go get their car fixed? My neighbours’ car alarm is broken. It has been for months. It goes off all the time, especially in the middle of the night. Like 2, 3, 4 am. It wakes me up CONSTANTLY. 3 am and 530 am this morning. It’s so loud that the first time it went off I thought it was our car and my partner rushed down to turn it off. Every time it goes off it takes my neighbours between a minute or two  and, at the longest, TWENTY minutes to shut it off. The dad and the eldest son will open up the hood from time to time and fiddle around in there, but they have yet to fix it. Last night they parked it on the street and now not only is it just as loud as it was before (moving it 5 feet away made no difference, obviously) but the headlights now shine directly into my window. I worry it’s a money thing because we don’t live in a super-nice neighbourhood, and they have a fairly large family in a small row home. The car itself is at least 10-15 years old. But honestly, I just can’t live like this anymore. I can’t function on interrupted sleep. Would I be the asshole if I asked them to take it to a mechanic, even though my educated guess tells me they may not have the money?</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>62%</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0.027472528</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>kcxq70</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>AITA for telling my mom I’m disappointed in her? She’s gotten a new boyfriend recently. I really like the guy , he’s great. The only thing is my mom the last couple months have been sleeping over at his house every night .  He has two boys in high school and right now we just got moved into the red zone , I told her that maybe for a couple weeks she shouldn’t be sleeping over since their are active cases in the high school and it’s spreading like wildfire .  She also helps out my grandfather every week. Her response was “well I’m pretty much living their anyways “ I told her that since she works in a grocery store that it’s selfish to be putting others at risk of contracting it and possibly spreading it to the town “ she got really mad and refused to acknowledge my point  so I said “im disappointed in you , that your putting your own happiness above others health” am I in the wrong?</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>65%</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0.028880866</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>c8yda9</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>AITA For being happy my biological father is dead of bone cancer. I'm 16 and my mother is wanting me to know my father and as she worked as a private investigator secretary finds out where he is living. We send off letters, my mother tries to make a deal with him. I live with him for a year and she will not go after him for back child support. A few months later we are driving out to Oklahoma.
-&amp;amp;#x200B;
-The whole time was miserable and very short like 2 weeks short. He made a couple of promises like him and I going fishing. My mind at the time is like oh yeah this will be great for getting to know my dad and vice versa. Yeah, we went fishing......with me and his new family (aka this third wife and her kids) or the neighbor. Is it asking too much for him to want to spend some time with just his son for a day? So I am given a surprise bus ticket because I speak up and say I just feel unwanted by everyone here. But before I leave he has me meet my half-siblings. That was the most fun I had the whole time sadly.
-&amp;amp;#x200B;
-Over 10 years pass.
-&amp;amp;#x200B;
-I am not looking for my sperm donor but my half siblings. I call him and he is in the hospital with bone cancer. I kinda feel sorry for the guy as that is a bad way to go. We get to talking and him knowing this can be one of the last times we talk. Secretly I was hoping he would say something like I am sorry for never being there and really messing up when I was 16 but alas. Before he hangs up he just had to add a fucked up remark about how my mom is not as great as I think. We don't talk again and no info on where my siblings live.
-&amp;amp;#x200B;
-A year later I see his obituary. It is about what I expect. It talks about his current wife and her kids that he is not the real father of and a small mention of he was survived by 4 children. Yeah, we were not even named. I also find my siblings at this time and we have a meetup a year after his death. I bring up the question of when did they see him last? My brother (also the youngest of us) says I can't actually remember. My sisters say oh yeah it was a long time ago but after a bit of thought, the oldest sister replied I am fairly sure the last time we saw you those 10 some odd years ago. So it's not that he knew where they lived because he did the exact same thing to them that he did to me.
-&amp;amp;#x200B;
-So every time someone asks about my dad I say fuck that guy. I explain a little and finish with a he got what he deserves. They say that is kinda messed up to say, he is dead. So AITA for being happy he is dead?  
-Note: there is some other info but I am stuck to 3k characters.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.030303031</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0.953405017921147</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>bu4y2v</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>AITA for laughing when my boyfriend told me about his fetish. So this is pretty straight forward. Me (19m) and my bf (23m) were talking and I said something about fetishes. He said that he had to tell me something and he told me that he had blood fetish. I thought he was joking so I chuckled, he got upset. He was acting weird and wasn’t talking to me for few days, I told him to get over it, he got mad again and now he’s ignoring me.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0.03181818</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0.9946524064171123</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>cjw0v5</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>AITA for escalating straight to HR that my coworker is often on his phone sexting with his girlfriend? We work in a small office and sadly there's not a lot of privacy to go around. I've repeatedly noticed my coworker peering over his phone every so often and sometimes I can see explicit images of what I presume is his girlfriend out of the corner of my eye. 
-When I told him I was uncomfortable, he chides me into minding my own business and that I'm violating his privacy by peeking over at his desk. I think it's fairly obvious to anyone who sees our work arrangement that  it doesn't  take much to distract a coworker. This is just in poor taste and I felt so skeeved that I  decided to escalate it to  HR. 
-Now, both my coworker and my manager are annoyed at me (they  both know each other for many many years) and I have been pulled aside by him to tell me to focus on work and not get distracted. This is totally not the response I was expecting and I plan to continue to escalate until he stops looking at his phone sexting with his girlfriend. AITA?</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0.033639144</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>cpuh0v</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>AITA for telling my soon to be sister-in-law that if she brings her children to my wedding I'd have her ejected by secruity. I'm going to try cut a long story short here.  
-Basically I'm getting married soon, yay me. My partners family has been heavily involved due to tradition and wanting the wedding to be somewhat traditional, which I have no problem with. The wedding is going to be traditional and her parents have helped with funding some of the wedding.  
-Now we have no children, and don't plan on having any any time soon. However, her sister does, she has three. We've asked all of our friends and my family to not bring children to the wedding at any part during the day as we don't want kids there. Now I work with kids and have no problem with kids but I know that a lot of kids don't have very much spacial awareness for the scenarios there in. Therefore me, and my partner, don't want children at the wedding.
-My family was fine with it, our friends are fine with it. Sister-in-law throws up a fuss.
-We've hired out quite a nice place for the event and it comes with an on site secruity for the event. At my partners birthday party the other week my sister-in-law was adamant that she was bringing her children to the days proceedings. We argued for a bit but in the end I just told her that if she brings her kids to my wedding I'd have her and her kids ejected by secruity.
-While my partners on my side I'm getting a lot of fall-back from her family and it's just causing a whole lot of headache for everyone, I'm unsure how I'm going to solve it.
-So AITA? Did I go too far?</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0.03529412</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>enyond</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>AITA for getting mad that my boyfriend talks to girls he met on tinder? AITA for getting mad at my boyfriend for staying friends on Snapchat with girls he has dater or met on tinder? It makes me feel insecure or like it’s some sort of back up plan or something. I don’t understand what they could possibly add to him life that is worth hurting the person who loves him.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0.035433073</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>cplypj</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>AITA for snapping at my fiancé’s mom and getting us kicked out the house? My fiancé proposed to me last month. We’re on a trip to the Netherlands to meet his family. We live in the U.S., his family knows *of* me, but we’ve never met.
-My fiancé hadn’t seen his mother since he was 18 (he’s 26 now). He said that he and his mother were never really close.
-We were originally planning to stay in a hotel room for the entire trip but his mother insisted that we stay at the house for the night and leave for the hotel in the morning. He hadn’t seen her in 8 years, I suggested that we stay with her.
-We arrived and were greeted by his sisters. They were all very welcoming and also seemed happy about the engagement. 
-His mother was the opposite. The first thing she did was turn to my fiancé and say,”I thought that you would’ve brought a girl.”
-My fiancé completely ignored her statement. She said something about dinner and walked off. I didn’t get to introduce myself.
-Dinner. My fiancé’s mom kept making remarks. “Why my fiancé couldn’t ‘at least find an attractive man?’, amongst other things.
-This women somehow managed to hit every single insecurity of mine, and I was starting to get upset.
-Maybe it showed. My boyfriend excused the both of us from the table and he asked me if I was okay. I told him that I was fine. He said that we can leave if his mother was making me uncomfortable. I inisisted that I was okay. I could last the night.
-Then came time to retire. We were going up my fiancé’s room when his mother *kindly* offered me the couch.
-My fiancé said that he’d be sharing a room with me, she made excuses, my fiancé walked away. Few minutes later, she swung open the door.!She said something about wanting us to keep it open ? She said she didn’t trust me.
-This women was getting on my nerves. I snapped. “We’re not teenagers, but if you want to see us fuck so badly, you’re welcome to stay”, along with a few other choice words. She had a fit. She told me that I wasn’t welcome here anymore.
-She told my fiancé to stay, but my fiancé said he was leaving with me. She started yelling at him, mostly insults about ‘his choice in men’. We left and now we’re spending the night in the rental car.
-My fiancé told me not to feel bad about what I said, and that she had it coming. But I still feel like a jerk because:
-1. I made her cry, like yeah, she was being a bitch but I probably could’ve handled it better.
-2. My fiancé ended up getting chewed out for something *I* said. My fiancé doesn’t deal with getting yelled at too well.
-I feel like I ruined something. AITA?</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>80%</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0.037900876</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>huu5d7</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>AITA for hiding MY PS4 controller that my little brother didn't play on until recently. I'm an 12 year old with a broken foot which makes it hard for me to do my daily routine wake up ,eat ,game ,sleep the usual gamer routine. Anyways I live my 2 siblings my older brother a 14 year old we'll call him B and my little brother a 7 year old we'll call him EB. Me and B are always on the PS4 at different times of the day while EB is on the TV so we don't really care what he does as long as he doesn't annoy us. So one day I wake up and see B is sleep I go to the playstation and see it's on but no ones there as soon as i touch EB walked in and took the controller in my head I'm like ok then go to the TV and see it's on so I just look for the remote no where in sight I thought ok maybe mom took it from EB and went to my room and got on my phone. After that day he kept getting on so i waited for him to get off once he got off I got on then 3 hours later he came back and said I was still on it get off I said no he said I'll break your leg I said try it I have a cast that feels like concrete if you hit it he was smart then and just left i started hiding the controller and whenever B would wake me up for the controller he would leave it out which let EB get it then I just started ignoring EB basically meaning I don't give a duck what happens other then in a game or if my mom comes. EB started to take my phone when I'm sleep and when I wake up I curse him out. AITA?</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>82%</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0.03975535</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>env8tt</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>WIBTA for going to the baristas manager and letting her know the barista makes fun of my name? Okay so I’m in need of a quick judgement here to see if I would be TA for telling the baristas manager she continues to make fun of my name. 
-I go by the name Ruth which I love because it’s strong and uncommon for my generation. I go into this Starbucks before work wearing my name tag and the barista takes my order, asks for my name and squints at my name tag. I tell her Ruth and she says something along the lines of “That’s what I thought I read but I was hoping I was wrong because that’s an ugly old lady name and you’re so cute.” I was speechless.. she said sorry after she realized what she had said and I just collected my change and left her register. I would have let it go but this has happened two more times now with the same barista. The second time I told her my name and she started laughing saying she remembered. The third time she said “you just need to stop coming here so I stop laughing at your ugly name” 
-WIBTA if I told her manager? It’s not hurtful because it’s not my first name, but my middle which I choose to go by. And she always giggling like it’s harmful and she doesn’t mean to be so rude. Maybe she has some social barriers I’m
-not aware of? But it is irritating every time I go in I have to deal with a comment about my ugly old lady name. For reference I work as a guest services manger at a luxury hotel and would never comment negatively on someone’s name. Even though a Starbucks isn’t a luxury brand, I still think it’s inappropriate.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0.041666668</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>efo09m</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>WIBTA if I named by robot vacuum Maria?  
-Bit of background: I (35F) am first-generation local; my parents were immigrants. I was born here and look white, but my name makes it clear my background is not WASP. DH (31M) is an immigrant, is mixed-race and his first language is Spanish. We do not live in the US.
-So, DH bought me a robot vacuum for Xmas. I absolutely love it. We moved into a new house this year and I was thinking about getting a cleaning lady, because the house is just too big for me to clean alone.
-This afternoon, I was talking to a friend and we were telling each other about our Christmas. I mentioned I got the robot and said that I was planning to name it Maria. My friend was shocked, said that was racist given the Spanish maid stereotype, and that it was especially insensitive to my husband. I asked my husband, and he just kind of shrugged, and said it might be, a little bit. It never crossed my mind. Is my friend right, WIBTA here?</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>87%</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0.045161292</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0.9991316931982633</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>l3bj3x</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>AITA for ‘being childish’ to my ex-wife in front of our son? First things first, I don’t like my ex-wife. She’s a cruel woman, evil some might say. Anyway, she’s always putting me down in front of our son, calling me names and making vague references to my small penis (my son doesn’t get them, but he still laughs). It upsets me.
-Anyway, so the other day she’s doing her usual routine, when I have a lightbulb moment. “Talk to the hand cause the face ain’t listening” I say, as I lift up my hand to her face. 
-Anyway, I’ve being doing this whenever I see her recently, and she’s mad at me? Apparently my son has picked up the habit too, doing it to her. Says I’m being an asshole and childish. I disagree, she got what was coming.
-So, Reddit. AMTA?</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0.047872342</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0.4710703953712633</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>czm9ug</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>AITA For telling my boss I can't Uber to work because a ride straight there costs more than I make in an hour? Pretty straightforward question. I work at a grocery store, I make $11.15/hr, I don't drive/have a car. I rely on family for rides. My grandma was recently diagnosed with stage 4 lung cancer and my family including my mom has to help take care of her in the mornings. I can't change my availability to after 12pm because I feel it's a request that my boss would think I'm stupid for asking and I also changed my availability recently to accommodate for the days that I go to therapy. My boss brought up using Uber whenever I can't find a ride because I live across town. I looked into it and one ride, no stops, costs at least $15 depending on the time of day and how many drivers are available. So am I an asshole for refusing to Uber to work?</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.053892214</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>c9ct5q</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>AITA because I told my parents about my sister. throwaway 
-I'm 18m 
-around a week ago I decided to browse r/ gonewild, I had been scrolling through the photos when the worst thing happened, I saw my 15 year old sister naked. I knew it was her because it was her duvet covers, and the backdrop was identical.
-I was in so much shock and was not really sure what to do, I then decided that the best thing I could do was tell my parents. 
-the next day I went to visit my parents and let them know, they are obviously very mad and my sister has lost her phone privileges for a while. 
-my parents have now forced her to see a counselor and have banned her from seeing most of her friends, she now blames me and I feel like garbage. she will not even look at me anymore. 
-did I do the right thing?</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.05685619</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>bva7gk</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>AITA for telling my father why I don’t want to see him even though I’m not supposed to know. My mom and dad divorced a year ago and I was spending half the time with each of them. Then one night at my moms house my aunt was over. They thought I was sleeping but I came out of my room for a snack. I was on the second floor landing and they were in the living room below and I overheard them talking. This is how I found out that my parents divorced because my dad had a whole second family, with a girlfriend and two kids, and that she also kicked him out when she and my mom found out about each other.
-I confronted my mom and asked if it was true. She told me it was but asked me not to tell my siblings because she said my dad would make it harder for her if he found out that all of us knew. 
-I called my dad a few days later after stewing on it and told him I’m not coming back to stay with him, ever. I told him I hated him and I was done. This might have been my asshole move, but I told him I’d found out what happened and I wouldn’t forgive him. 
-Apparently he’s mad at my mom now and trying to get custody of me because he thinks she told me what happened, which I think is insane because I won’t live with him or respect him again. My mom is crying all the time because of this. Was I an asshole for telling my dad the truth?</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0.11764706</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>du2txq</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>AITA for getting angry with my dad? So I came home from a party the other day and I went into my room and my dad had taken all of my stuff away! I couldn't figure out what I did for the life of me, so I yelled at him for it. He took my monitor, my TV, my Xbox, my three pounds of cocaine, and my laptop! Plz help I don't know if I'm in the wrong...</t>
+          <t>AITA For not Wanting to Give Up my Room. My mom says that my grandpa (85) might be moving in with us soon. I’ve had a chronic illness for 2.5 years and need space. But my mom told me that if my grandpa moves in, I will have to leave my room and let him have it because we live in a small 8 room house. I told her that I didn’t want to give it up because I’m an introvert and don’t like to be bugged, and as it is I constantly have people knocking on my door. If my move rooms it will probably get worse. I also just got a new PC and I’m not looking forward to moving into a much smaller room and having to leave my PC in my old room. AITA for not wanting my grandpa to have my room?</t>
         </is>
       </c>
     </row>

--- a/feature_analysis/Jupiter Notebooks/feature_samples.xlsx
+++ b/feature_analysis/Jupiter Notebooks/feature_samples.xlsx
@@ -478,21 +478,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.002754821</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8989547038327527</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bli4mz</t>
+          <t>bkrq84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AITA for recording a girl’s anime bodypillow at prom? I was at prom two days ago and a guy and a girl both brought body pillows with full size pictures of anime girls in lingerie. I thought it was really funny, so I recorded the girl holding it and posted it on tiktok with the caption “#whitepeople #weeb #prom” 
-I got around 200 comments. Some thought it was funny, some called me racist , and some said I was jealous of her. Lol. Aita</t>
+          <t>AITA for not wanting to support LGBT+ despite being somewhat bi? Throwaway for obvious reasons. 
+I have a lesbian friend, she's very much into politics and takes part in pretty much every gay pride/lgbt movement there is. I am somewhat bi (well, pretty much from the neck on down when it comes to men or otherwise a lot more "picky" with men than with women so to speak), but I only have romantic feelings towards women. Also, nobody except said friend knows (well, fuck getting drunk, i should have known better), and she has only learned about it recently.
+Now that she knows, she is constantly pestering me about lgbt events and joining her party and their internal lgbt group. Honestly, I like her party, but I really don't feel like participating in politics, and especially not in any lgbt group or focused on lgbt topics (basically making it public and I'm more interested in economic policies and in the justice system). 
+At first she was very... patronizing? (not sure what I should call it), like "you have to stand up for yourself", "you're hiding this for a reason, fight that", "freedom" (you get it). Now she is becoming more agressive, accusing me of being biphobic, opportunistic, part of the problem, etc. 
+Thing is, I have never acted on it (and as said only one person knows) and I don't know if I ever will. I have absolutely no intention of telling anyone (except maybe a future gf, just so she knows). She says I could just come as a hetero person, but come on, I have gone through facebook and 99.99% of the people attending are lgbt+, there is no way this will not get me outed. 
+She even said that she should probably just do the outing for me. (Made me fucking furious, so maybe I'm going overboard here, but I made sure she knows better than to do that. she isn't exactly without secrets either, and unlike her, I have visible proof of them).
+AITA for not wanting to change my life? I'm pretty happy as it is now.</t>
         </is>
       </c>
     </row>
@@ -509,23 +514,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0055452865</t>
+          <t>0.0070921984</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ajdybt</t>
+          <t>f9kz48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AITA for not being ready to forgive my husband? For context, I was finishing up grad school in a different state and the business my husband is taking over is the the state we live in now. Last April, We decided it would be important for our future if he came bak to the state we currently live in about 6 months before me in order to get his business started and to have a little money saved up for when I moved back as well. He came back out to help me move in early November. 
-There were a few nights I woke up to him having some sort of anxiety attack and he would tell me how sorry he was and that he didn't deserve me. I would always calm him down and convince him to come back to bed. He finally (and randomly) admitted to me in late November that over the summer he had gone out drinking alone with one of his (female) best friends. They had gotten drunk and rather than going out to the house he was staying (about a 45 minute walk) , he went home with his friend and cuddled with her in her bed. 
-The issue is that he lied to me about it for almost 6 months without showing any remorse or conflict until he came back out with me, and I had visited him for almost a month about a week after the incident occurred, and he never felt the need to mention it. When I asked him about it further and if there had been any texts between them the day after, he lied about there being bad service or something and that the texts were all missing (which only an idiot would believe) and when I pressed him further he admitted to deleting all the texts between them during that time period. I asked for his phone and he reluctantly gave it to me, and when I opened the texts between him and the girl he had a message written out to her but not sent that basically said how he was an idiot for lying to me and that I found out and that he was sorry. I decided to hit send on the message, and the next morning she responded that she "felt sick" about the whole thing since it happened. 
-About half of the friend I have talked to believe something more happened with the girl (who happens to have a reputation for sleeping with the boyfriends of other girls) and the other half believe that he loves me too much to ever betray me like that. He has apologized profusely and we had a big blowout where I explained how our trust had been majorly damaged and that it will take a lot of time to rebuild. It has now been almost 3 months since he admitted that to me and I still have trouble with trusting him and I have not gotten over it. He says if I am going to forgive him I need to do it fully and not continue to bring it up, which I have previously when we fight. AITA?</t>
+          <t>AITA for being overly cynical to the point where I consider a lot of people as assholes. So... here's the thing. A lot of people in this world are assholes, that's as much we know. 
+But more than that, there's always a line to be drawn. So when I see people who are assholes in social media and beyond, it makes me weary. 
+So when I consider that people, if not, lots of them are assholes, It makes me feel very cynical. It makes me consider that all of them are assholes with no exceptions and see things in black and white. Maybe its not the most healthy mindset, but its one that keeps me on my toes. 
+So reddit. AITA for this mindset?</t>
         </is>
       </c>
     </row>
@@ -542,7 +547,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.008281574</t>
+          <t>0.00998004</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -550,21 +555,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ca0xic</t>
+          <t>d91aqo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AITA for calling out my bestfriend's cheating boyfriend? My girl bestfriend knew she got cheated on 2 months ago (It happened a few months before) by someone she thought was the love of her life. I was also his friend and when I heard her cry her eyes out asking me what was she doing wrong, why would he cheat on her like that I was wondering if I could still consider him as a friend. I decided to put my friendship on hold with him and took care of her.
-We had all those talks about if she still wanted to go on with this relationship and at the end of it, she said "I involved too much time and thoughts on this relationship  to surrender only for that" and her boyfriend seemed like he wanted to make it work too.
-I was perplexed, but she seemed determined  to make it work. Her 2 conditions that I know of was 
-1. to throw the couch she bought for their future apartment where he did things with the other girl and 
-2. for them to go see a couple therapist because they have problems to communicate with each others in a healthy way. The deal was for him make the calls to find one so she can really see he wanted to make it work.
-Fair right?
-But fast forward today, he didn't make any calls, always postponed it until he said he actually  didn't want to see a therapist. She finally begged him to go see a couple therapist, she decided to make the calls to find one herself and to pay for it. It was the only way he would actually agree and she texted me she was crying of relief because he accepted.
-I called him out on his behaviour, reminding her that it was supposed to be his part of the deal so she could really believe they have a chance to save their relationship. What was the point of fighting for a relationship if she had to do everything again to save something he broke in pieces...
-At this point she told me she felt judged by me and I felt like I was not judging her, but just reminding her the facts. I was not mean to her boyfriend or to her, but I did became disrepectful when she treated me as I was the bad guy for repeating exactly  what she told me a week after she knew she got cheated on.
-So I told her to give him a candy next time he ties his shoes like big boy and she called me an asshole. Not only for that (I know it was uncalled for), but for the whole conversation where I demonstrated real doubts about her boyfriend willing to make any efforts to save their relationship.</t>
+          <t>AITA for going to church even though I'm not religious? So me and my old secondary school class have always been very close. We all went to boarding school together and spent almost every day of those five years together. Sadly, in our last year of school two of our classmates died within a couple of months. 
+Now here's the problem. I'm not religious. Even though I live in a quite conservative country (central Europe) and was raised in a very Christian family, I never started to believe in God. I stopped going to church at around age 14, but I know all the customs, the prayers and how to behave myself in church in and out. I'm always behaving respectful concerning religion towards others because I'm under the opinion that everyone can believe what they want to, as long as they don't drag others into it.
+So a year after the first death our class organized a church service in memory of our classmate who died. About half of our class was able to attend, including me. Everything went fine. I sat on the edge of a row of seats in church, I raised myself and kneeled down when everybody else did, but I didn't speak, sing, take my communion or make the sign of the cross. I got a few weird glances from people there who didn't know me, but other than that everybody was fine with it.
+That was half a year ago. A couple of days ago we also organized a church service for our second classmate who died and again about half the class was able to attend, this time including a very religious classmate. I acted the same way in church as I did the first time, only this time Eve afterwards came up to me and said I was being disrespectful by not participating in church. I was told that if I didn't believe in God I had no right to visit the church service, because it's only for Christian people. I tried to explain to her that I didn't come to church for God, but in memory of our deceased classmate, but that made her even more angry. I told her that I was gonna come the next time aswell and that it was not her place to decide whether I could or not. 
+A couple of my classmates agreed with her saying that if I'm not religious I shouldn't participate in religious activities and that it was disrespectful to just put off my religious classmate like that. AITA for planning on going to church again and telling my classmate who doesn't want me to?
+TLDR: I went to the church service we organized for a deceased classmate and another classmate told me it was disrespectful to attend but not participate in the prayers. I told her it didn't matter to me and that I was gonna come again the next time. AITA?</t>
         </is>
       </c>
     </row>
@@ -581,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.011976048</t>
+          <t>0.010335918</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -589,14 +590,13 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ay3kdp</t>
+          <t>jho93r</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">AITA for not letting a child enjoy themselves in my store after closing time? I work at a gift shop where we sell little trinkets made in China, and we have a penny smasher. It's the bane of my existence. People are constantly turning the lever and making the *clink clink clink* noise all day, every day. Well, I was closing up the store last night when a family came in. I said "Hey guys, welcome in. Just so you know, we're going to be closing in about ten minutes, but take your time" (as you're supposed to say when you work in customer service). There were three adults and about five children all under 10 years old. At 8pm I locked the doors, turned off the music, and brought in our sign that we have outside. At this point I hoped they would've gotten the point and left, but they continued to let their children run rampant through my store that I had just cleaned and organized for the next day (which I had to do over again when they left). 
-They pay for their little trinkets and the children all look at the penny smasher and begged to do it. At this point its 10 minutes past closing, so I look at the father and say "I'm sorry but the store is closed now". He says "Can they just smash a few pennies real quick? It's their favorite". I say very nicely "I'm really sorry but it's well past closing and I have somewhere I need to be", which wasn't entirely true, I was just tired from working all day and I wanted to go home. The children all looked very upset, and one started crying, but the father lead them all out and I said "Thank you for stopping in, have a good night". The father ignores me and tries to comfort his crying child. 
-So AITA? </t>
+          <t>AITA for telling an owner not to bring their dog to the dog park and threatening to call the park rangers if I see them again? I have 2 dogs, Jax and Bishop. Bishop is a 125 lb Shepherd/Akita/malamute mix and Jax is an 85lb American bulldog.  Both of them love going to the dog park whenever we get the opportunity and we go quite frequently. Lately, however, we have been having some problems with one owner in particular. They bring their dog into the park, a midsize border collie, and then simply stay on their phones the whole time. I ha e nothing against needing to use the phone from time to time in the park, but their dog is a holy terror and causes problems every time he is there . He aggressively herds other dogs and will nip their heels or faces if they don’t obey him. He mounts other dogs frequently including Jax and even on rare occasions Bishop. Bishop HATES being mounted and will react accordingly. But the biggest issue is that he guards the water bowl and gets very aggressive if someone tries to use it, like will pin the other dog and go for the throat aggressive.Fortunately my 2 dogs are much larger than he is (he’s only about 40lbs) and intimidate him, but some of the smaller dogs aren’t so lucky. After having to pull him off my friends dog for the FOURTH time we finally decided to confront the owner  and their excuse was “oh that’s just Duke for you” I said no he’s aggressive and you need to remove him, fortunately he has only been going after the smaller dogs, but eventually he will run into one who is not so forgiving. The owners begrudgingly removed their dog after I threatened to get the park rangers involved, but not without cursing at me under their breath while doing so.
+I’m getting mixed signals, some of my friends and other owners said I may have been too harsh, but my friend who owned the other dog and a majority of the park owners said I was in the right. So reddit AITA?</t>
         </is>
       </c>
     </row>
@@ -613,23 +613,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.012605042</t>
+          <t>0.0127551025</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.8091976516634051</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>eg8xzf</t>
+          <t>brt38e</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AITA for not even giving fake smiles when receiving caroling? I was baptized a Christian 8 years ago and I haven't go to church for more than 2 years as I felt disappointed by some people there and I also don't like to be put on the spot too much (small church).
-My mom goes to seminary school and serves for the church. The day that she told me she's going to do the caroling in our neighborhood so I wasn't anticipating that she was home early. When I was having my dinner, I heard the door was opened up and the next second she called me like "hurry up, come up to the living room. Everyone is waiting for giving you the caroling." I was in the middle of dinner and felt not only disturbing but being left with no choice. I couldn't say no because everyone was just out there anticipating me. For my mom, she would say that "there is nothing to lose for receiving people's blessing."
-The whole thing didn't last longer than 10 mins but I just felt extremely awkward. There are 2 of them (10) that I was kind of familiar with and gave me a smile but I was too annoyed to even faked a smile back to them which made me feel bad actually. 
-Am I the Asshole for this?</t>
+          <t>AITA for NOT calling my wife out for her binge eating? I've been lurking and voting here for a very long time but a post from this morning made me realize that maybe I should actually ask this question. The young lady from this morning was largely voted NTA for telling her parents about her sister's binge eating. I am literally doing the opposite with my wife. 
+My wife is very obese and is starting to suffer the common health ailments that go along with obesity. I am still very attracted to her and I admit, I think she looks great as she always has. But her last physical her doctor showed her a chart of how her obesity is affecting her health and her life span and though I don't know the exact numbers, I think he told her that women with her BMI rarely live past 65 and have a very low quality of life starting at 50 (again I don't remember the exact numbers or prognosis but it was along those lines). She met with a nutritionist (or the good kind, the certified kind...a dietician?) and they set her up on a whole new lifestyle to get her on the right track. 
+However I found a huge stock of candy in her sewing closet. I also know that she's eating it because the candy has been seasonal (as in valentines, then Easter, girl scout cookies). It's a 25 gallon Rubbermaid bin so it means she's going through that much candy between refilling it, at least at the next "season."  It is also taking her much longer to get home from work and I'm seeing ATM withdrawals when I am pretty sure she doesn't need cash so I'm almost positive she is getting fast food on the way home. 
+I have some proof that she's binge eating with the bin, I have some strong anecdotal evidence she's binge eating with the money and time to get home. My reasoning is I don't want to make her feel bad but at least she's trying to follow her new meal plan in front of us. And maybe it will eventually catch on. 
+But based on that other post from this morning, maybe I'm doing it wrong? Am I the asshole here?</t>
         </is>
       </c>
     </row>
@@ -646,25 +647,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.015306123</t>
+          <t>0.014336918</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.9924242424242424</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>dhrwm8</t>
+          <t>hq882g</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WIBTA if I no longer invite my friend over because she doesn't help me tidy up? I have a friend who I met a few years ago. We've grown close but I have a pet peeve which I hoped I can work around but yet to find a way. Whenever she comes over we hang out, drink beers, play video games,  make food and watch movies. She crashes on the couch when we had too much. She doesn't drive so I pick her up and drop her off, she doesn't live very far ($15 cab ride or an hour bus ride). 
-I am getting increasingly annoyed how by the time its time for her to go my house looks like a war zone and needs to be tidied up. I am more then happy to do my share but as I clean she sits around and plays on her phone or asks me to drop her off before tidying up as she has a meeting or an appointment to attend. She won't get out of bed (couch) until its close for her time to leave. When I asked her to help me clean she sometimes does some minimal work before going back to her phone. Sometimes she outlines that my expectation for her to clean is unreasonable as she is a guest and as a host I take care of it. 
-She once in a while throws out that she grew up as a women in a country where women are treated like second class citizens  and me expecting her to cleans brings back those memories. 
-I do value our friendship and I do have fun when she is over but I grew up helping others clean up or my other friends help clean up when they are over. I respect the fact that me asking her to help may trigger some bad memories but am I being unreasonable in thinking that perhaps I'm better off no longer inviting her over if it means I am going to be super annoyed afterwards? 
-WIBTA if I stop inviting her over unless she agrees to help clean up?
-Or do I take this as the cost of admission of having a good time with a good friend over?</t>
+          <t>AITA for basically telling my friend that there was a funny and cute part in a book? This is my first post and I'm on mobile, so please forgive me for any formatting issues.
+So my friend and I have been highly anticipating a new book by one of our favorite authors, and it finally came out last week. I started reading it last night, and I came across a cute little easter egg type thing. I messaged him just pretty much "I'm not gonna spoil it for you, but I just came across a little Easter egg that made me smile." And he pretty much said "shh, don't tell me anymore," which I obviously agreed to. And then I just told him it was on page 15 so he could let me know when he got to it. Then he basically just fucking blew up at me and called me an asshole for "ruining the book for him." His argument was that I set up an expectation for him that will be distracting, and I also "robbed him of the satisfaction of finding it himself." He also reminded me that we've had this discussion before, and I'm pretty sure he was referring to the time I saw a new movie and basically told him that it was funny and good. I did apologize and promise to basically never say anything about any new material ever again, but I honestly don't think I was in the wrong here and I definitely don't think I ruined the entire book for him. So, AITA?</t>
         </is>
       </c>
     </row>
@@ -681,20 +678,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.015873017</t>
+          <t>0.016286645</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>e554ox</t>
+          <t>azr2xk</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AITA for telling my friend to quiet down? So I have a very nice friend who is very LOUD sometimes. She gets excited and she'll talk loudly or "yeep" etc. I'm always having to tell her to be quiet. Anyways we were out for her birthday and she was talking very loudly with a friend who showed up at her party. I told her she needed to quiet down. Her boyfriend got upset with me and told me that she told him I'm always making her feel like she's loud and obnoxious and that she's not loud I'm just very quiet. I don't think this is okay, but sometimes she gets annoying to be with her loudness. AITA?</t>
+          <t>AITA for abruptly ignoring someone ive known for years? So im a senior in highschool and I've known this guy since I was in like 7th grade and for the past few months I've been noticing more and more how much of a bully he is. 
+He calls this freshman (he doesn't know) names, shoves him around, and makes fun of him for dancing or mumbling in class. It's annoying. I've told him to stop a hundred times, I've told him if he doesn't stop I won't talk to him. 
+And just about four weeks ago, I finally I had enough and snapped at him. He said "I don't see why you like him, he's annoying and a racist" which he isn't. The freshman has said his MOM is racist, not him. I told my "friend" that even if I didn't like him, that doesn't give him the right to be a dick about it. 
+He didn't listen and two weeks ago I just stopped talking to him bc it got so annoying. I hang out with the kid and his other freshman friends, so if my old pal starts to bother him I can stop it, but otherwise, am I the asshole for just suddenly cutting contact?
+He's tried to talk it out, but I just don't want to deal with it. He's sent mutual friends my way and once again, don't want to deal. He's even started telling them that IM lying and that he isn't bullying this kid. He's even managed to manipulate my best friend into believing him. The only way she will talk to me is if I make up with him, but i think that's stupid. All my friends are against me and I just don't understand why. Am I the asshole?</t>
         </is>
       </c>
     </row>
@@ -711,7 +712,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.01754386</t>
+          <t>0.017676767</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -719,21 +720,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>l2zhzl</t>
+          <t>lp6y25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AITA for going to a friend of mine with my ingredients after telling my roommates I would cook? I (25F) am a medical student and paramedic. October 2019 I moved in with my roommates, Nico (29M), Dave (28M) and Oscar (27M), for medical school. 
-In Germany rules regarding meeting other people are very strict right now due to CoVid. You’re only allowed to meet with one person from another household and no more than 5 people in total. Oftentimes Dave and Oscar have their girlfriends (Verena and Fiona; not living at the same household) over at the same time. That‘s caused some issues already as they know my stance about that.
-The issue at hand:
-My home is ~400km away from where I attend university and work as a paramedic. I have a favourite dish from home (called Kässpatzen) which I really enjoy making. I always bring back some cheese for it when I was home and cook for myself, my roommates and the occassional guests.
-Yesterday I told Nico and Oscar (Dave went home for the weekend) that I would make some for us today and that a friend of mine, Marc (33M), would come over and eat with us. Oscar asked if I could cook for Fiona too and if she could eat with us. I said no, not when Marc is coming over but I could make some for them to eat tomorrow. He said fine.
-When I woke up after nightshift today Fiona was at our house. I waited for her to leave but she never did. So it became clear to me that Oscar just invited her over anyways and thought I would just deal with it and not say anything or kick her out. 
-I texted Marc and told him that I would pack the ingredients I bought and cook at his place. I left a bit of the ingredients with Nico (he is also fed up with the other two not regarding our safety or studies, i.g. Verena being over while sick with the flu; I’m not allowed to take my exams if I only have so much as a runny nose) as he knows how to cook it as he is the only one helping me out in the kitchen with it. Then I left without telling anyone else.
-Skip to two hours later. Oscar texted me and demanded to know when I would finally start cooking. I answered him that I was at Marc‘s and I cooked and ate there. He blew up on me how I couldn‘t even think of telling him and that it‘s now to late to go get anything for himself and Fiona (we‘ve got a curfew right now from 9pm to 5am). I told him that I said yesterday that Fiona can‘t come over as Marc was already and he agreed to this. I also told him that it is not my problem he didn‘t go shopping today and can‘t make anything else now.
-So now he is calling me an asshole for making him think that he‘s settled for the day foodwise and then going out and not cooking or leaving enough ingredients with Nico for them. Marc and Nico told me I was in the right to do as I did.
-Am I the asshole here?</t>
+          <t>AITA for telling my mom I'm worried she will be racist to my mixed race partner. My parents both do not consider themselves racist, but frequently say offensive things, angrily rant about "foreigners and immigrants" and also make racist jokes regularly. They are not outwardly racist and say they would not discriminate, but frequently mock and stereotype behind closed doors. 
+I am currently dating(but not really - thanks lockdown) a mixed race man who's mother is Indian. He does not look mixed race, but this has led to frequent jokes about it from my mother. She has told me she has no problem with me dating him, and has (at points) encouraged me, but the racist comments have made me nervous that she will say something offensive to him without even realising it, because she doesn't see them as racist. 
+She has said multiple racist things already to me, such as "can't you bring a white boy home?" And asking me if he smells like curry. I said these were racist, and her defense was that she "has Indian friends" and knows not to say those things in person. I said this was not a defense, and that those were still offensive, and she did admit she sometimes has to be careful about what she says in front of them, which I argued meant she knew she was being racist if she knew not to say those things. 
+It led to a long argument between us, with me explaining that things she wouldn't consider offensive, now are considered very offensive. Such as using "chinky" when referring to Chinese food or using "coloured people". She told me this was me being "ridiculous" and "political correctness gone mad" and just me being overly sensitive. I said my partner would be more sensitive to racial comments because of his race, and she just said "well i don't want to meet him then if he's that sensitive and I'm so embarrassing". 
+She is upset that I 'don't know her well enough' to know she wouldn't say those things to him and told me I have been offensive to her, because I 'attacked her'. She says her comments have all been jokes and I'm clearly just too sensitive. 
+Have I actually done something wrong here?</t>
         </is>
       </c>
     </row>
@@ -750,33 +747,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.019575857</t>
+          <t>0.01986755</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>aojzfj</t>
+          <t>e8z5cs</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AITA for rejecting my BF‘s ideas on how to fix our sex life? Obviously a throwaway account. Also sorry if I make any mistakes, English isn’t my first language.
-Me [M24] and my boyfriend [M26] got together about 5 months ago (we‘ve known each other for maybe 9 months before that). I‘m very happy with him and he‘s pretty much everything I‘m looking for in a guy. There‘s just one big problem in our relationship...
-Having anal sex with my bf is unbearable for me because he has a really big and thick penis. It’s not exactly the length that’s the problem but rather the girth. I am by no means inexperienced when it comes to anal sex, but trying to receive him just hurts like hell. We‘ve tried everything we could think of (different positions, different types of massages and relaxation techniques before sex, etc.) but I always end up being in an awful lot of pain anyway.
-I tried enduring it two times, thinking I‘d eventually get used to it, but it’s just not working out the way it should. He obviously doesn’t enjoy having sex with someone whose face clearly says „I hate this“ either.
-Needless to say, this is a very frustrating issue. We both like having sex, but if it doesn’t work it just doesn’t work, you know? We still pleasure each other orally and with our hands, but at the end of the day that isn’t really enough for either of us.
-Switching positions entirely is no option either since he doesn’t enjoy bottoming at all.
-I feel a little guilty and embarrassed about being unable to handle his size, especially after he constantly brought up the fact that his exes had no issue bottoming for him before.
-He‘s made two suggestions on how we could fix the problem, but I rejected both of them:
-1. Using poppers (I think using them often is dangerous and I don’t feel comfortable with the idea of drugging myself up just to have sex)
-2. Having an open relationship (I get that I clearly can’t give him what he wants, but ofc I don’t want my bf to have sex with other guys while we’re together)
-Since I rejected both ideas, he‘s become more and more frustrated with me and accuses me of not caring about the whole thing and evading the problem which isn’t true. I just feel like I shouldn’t have to give up my principles for the sake of sex, if that makes sense.
-At this point I just have no idea what to do anymore. I know sex is a really important part of a relationship, but I just hate the idea of breaking up with him over this. Our relationship is pretty much perfect otherwise. He actually feels the same way I do (I‘ve made sure to ask him several times), but since we both can’t agree on / find a solution, I‘m scared of what might happen...
-When I asked one of my friends for advice, he told me I should just get over myself and try out one of the methods he suggested, but like I said, I feel like I shouldn’t have to give up my principles for the sake of sex. When I explained that, he said I‘m being childish and that it‘s essentially my prudishness that keeps us from having a fulfilling sex life. Hearing that hurt and made my guilty feelings even stronger.
-AITA for refusing to try out the things my BF suggested and maybe putting our relationship at an even bigger risk that way?</t>
+          <t>AITA for telling my anorexic sister not to come to Christmas dinner? The title sounds bad but give me a moment to explain.
+I’m always the one who hosts Christmas dinner. The family all comes over and bring some wine or a dessert, but for the most part I’m the one cooking everything. We’ve done this every year on Christmas Eve, not Christmas Day. Recently my sister was diagnosed with anorexia and I don’t see the point in her coming to Christmas dinner just to pick at her food and make everyone feel bad for her. It wouldn’t be fair for everyone else to have to worry about her rather that having fun and spending time with family. I wouldn’t be uninviting her from Christmas as a whole, she just wouldn’t come to the dinner on Christmas Eve.
+Aita?</t>
         </is>
       </c>
     </row>
@@ -793,7 +779,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.021951219</t>
+          <t>0.021666666</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -801,20 +787,16 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>d21pgp</t>
+          <t>e1n1v3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AITA for not wanting my step daughters to see their biological mom? I'm 27 and in late 2017 I got married to a man two years older than me. He has two daughters who are now 8 and 6. Once I married their dad, they started calling me mommy, and I've been one to them ever since.
-As for their biological mother, she left them with their dad, when the oldest was 5 and and the youngest 3. The younger doesn't remember her and assumes I birthed her, but the oldest does, and obviously has mommy issues over it. I've always assured her that I am her true mother and that I won't leave her.
-As you can guess, I'm not too fond of their biological mother, and neither is my husband. She lives all the way across the country, and called me last July out of the blue to "thank" me for doing the job she never "could". She asked to speak to her daughters and I said no.
-We've been talking more cordially since then, and last week she spoke to both of her daughters. They were confused but somewhat grasped what was going on. She promised to call them the next day, and she never did, which pissed me off.
-Ever since then I've been ignoring her calls but finally answered today. She announced that she is coming to our state next week for some friends wedding, and is in interested seeing "her" daughters.
-I barely feel comfortable with her speaking to them on the phone, let alone letting her spend time with them. So I said no.
-So their biological mom called my husband and complained about how bitchy I've been to her, and to my absolute shock, my husband sided with her and said I've been unnecessarily rude to her. He also said that he is allowing our daughters to see and get to know her, especially because the older one hasn't seen her in so long. His entire family agreed with him and ganged up on me, calling me uptight and all else.
-I haven't talked to my husband ever since then but I've been doing the same routine with my daughters. But I don't know how to explain any of this to them or how angry it makes me.
-AITA for not wanting my step daughters to see their biological mom?</t>
+          <t>AITA For Causing an Argument With My Mom About Christmas? I don't love Christmas, for many reasons. My mom ADORES Christmas. Several years ago, our house was chosen to be in a town Tour of Homes (like an open house type deal) and my mother went ALL OUT for it. The house looked great. But every year since then, she feels the need to put up EVERYTHING. My stepdad works off a lot, and I'm finishing up at college, so there's no one really ever home to help her, and it really stresses her out.
+This year, I came home early for Thanksgiving. My mom asked me to help her put up decorations and I said sure. We're working with the artificial tree in my room, and she keeps complaining that it's leaning. Every ten seconds. I'm trying to help her, but after about fifteen minutes of her complaining, I told her that it might be best to just get a new tree. Well that pissed her off.
+She ignores me the first time, but after another few minutes of wrangling, I say to her again that if the tree is bothering her this much, the best idea would be to just get a new one. It's obvious she's unhappy with this one. She gets really huffy and says that we don't have to money to get a new fake tree. This is where I point out that my stepdad tells her every single year to buy a fake tree for the living room because of the stress and work needed to get rid of it. He says every year that he "doesn't care how much it costs, just do it". If my mom really wanted anything, my stepdad would give her the money, no questions. My stepdad and I have talked about this. She has the money to get a new tree.
+She got mad and told me to go find something else to do, that she didn't need my help. So I sat down on the bed and watched her do the same thing over and over with no change, waiting for her to realize she needed the help. After about five minutes of that, she threw the stand down and stormed out, muttering that if I wasn't going to help her, it wasn't worth it. So, I got up and decided to figure out what I could do with the tree. I looked at it for less than 30 seconds before I realized that one of the hooks was broken: it will always lean.
+I took the stand and found her crying, and told her that it was broken. She didn't want to talk. She kept shooing me out of the room. I tried to get her to talk to me, but she just kept saying that nothing is worth it, that I complain about Christmas so there, she just won't decorate. I told her that this was not the way to act, that she could look me in the eyes and have an adult conversation, but she just walked past me and refused to listen. I followed her and she just kept crying about how my stepdad doesn't like it either so she just won't do anything at all. I tried to tell her that both of us get upset that she stresses herself out trying to make the house "magazine-perfect" and to stop having a pity party for herself. The tree is broken, here's the options. She then kicked me out of her room. AITA?</t>
         </is>
       </c>
     </row>
@@ -831,21 +813,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.024096385</t>
+          <t>0.023952097</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>i0lgy2</t>
+          <t>dhvvv5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AITA for shaming my brother for becoming a single father? My brother is 40 and to the best of my knowledge has never had a girlfriend or a boyfriend. I suspect he is gay though. He's never married. He announced last year that he was going to be a father and we were shocked. I thought maybe he got someone pregnant. No. He hired a surrogate and even more weird is that he used a donor sperm and paid for a procedure to select the gender. His son is due in August.
-I told him he was incredibly selfish. He has an okay job, but no support system. If something were to happen to him, that child would end up in foster care. Our mother is in her 70s, our other brother doesn't want kids and I am in no position to raise a child. I told him he's treating this baby like it's a pet.</t>
+          <t>AITA for leaving the banana bread out for two days? So, on Friday my parents and our housemates left to go camping for the weekend. I (17yrs) stayed home alone.
+My mom had left some banana bread in an opaque container on the table, and she meant for it to be for me to eat for breakfast. We always have random containers lying on the table, so I just assumed it was empty or belonged to our housemates, and didn't open it. 
+When they came back home yesterday evening, my mom got upset at me because I had left the banana bread out all weekend.
+I personally don't think this was my fault. I don't just check random containers lying on the table to see if they have food; I think she should have told me upfront that she left banana bread for me in a container. 
+I know this is a pretty petty situation, but AITA?</t>
         </is>
       </c>
     </row>
@@ -862,27 +847,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.025316456</t>
+          <t>0.024390243</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>kcn3qs</t>
+          <t>ec5vht</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AITA for making sure my husband listened to my request? It was raining where I live.
-I was at the bedroom when I realized that it had stopped. So I proceed to ask my husband to take the trash outside, since the rain had took a break. He didn't respond. I asked again, 'cause he has this amazing headphones that blocks all the noise.
-He didn't respond again. Then I go into the office, which is here he is and say again. He didn't respond. So I put my head in front of his face (he was staring at the monitor). HE DIDN'T RESPOND. So I proceed to take one of his ears off the headphone and he says "whattttt? I did listen you the first time." 
-I ask "why you did not anwser me, then?". The conversation doesn't go any futher and I got really pissed off.
-Later, at dinner time, he just asks "why are you mad?". I start talking about his shitty attitude. He just says he heard but did not feel like answering, and I'm the asshole for going there and making sure he listened.
-He also said that I do this kind of stuff so I get attention. I sincerely was making sure he listened, as his headphones are very noise blocking.
-So reddit, AITA????
-PS.: I'm aware this is very childsh.</t>
+          <t>AITA for asking my girlfriend to not use her vibrator for one night? Every time we have sex my GF takes out her vibrator and goes to town. I really want the opportunity to satisfy her without her having to use a toy—I offer to go down on her, things like that, she’s always like “no it’s okay I’m good.” I always feel cheated because I think I could satisfy her without her needing to use a toy. I asked her to put it away for one night so I could try to get her off without her having to use it, she freaked out and called me insecure. AITA?</t>
         </is>
       </c>
     </row>
@@ -899,26 +877,21 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.027272727</t>
+          <t>0.028436018</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2885572139303483</v>
+        <v>0.2748091603053435</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>g18tep</t>
+          <t>bncwlu</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AITA for refusing to give money to my future brother- in-law? My fiancé(M) and I (F) live together, we own our home and are joint in every account.
-About a year ago, we found out that his brother and SIL were struggling monthly to pay their bills. We offered them to move in with us and of course they will pay us rent(half what they were currently paying).
-Brother and SIL have full time jobs but they overspend, are constantly buying unnecessary things. I know I’m not anyone to have a say in their finances but they’re in this situation for that reason. 
-We found out they might not get a stimulus check but are still employed and working. My fiancé’s sister suggested to give their brother money because they feel bad. I immediately shut that down but my fiancé called me a b***h.
-His brother told us last night he bought $200+ pair of shoes. 
-AITA?
-Edit: Just want to clarify- They do live with us now. They don’t make over $150k it’s for other reasons they don’t qualify.  Fiancé is really upset because I give my grandmother who is over 75 $50 a month to help her. She doesn’t work and has a lot of medical issues.</t>
+          <t>AITA for “leaving“ my husband on his birthday. For context: our (I’m 23m he’s 26m) relationship is..interesting. We’ve been together for 7 years. After I graduated high school, he took me to vegas, we got shitfaced and got married. Ans d we’ve been married for 6 years. Our families don’t like each other. We fight all the time,but not like big fights. 
+He always had problem with my childhood best friend(26 m). He never wants me to hang out with him and spend time with him. So yesterday I was with my best friend and my husband called me. He asked me where I was and I said the truth because I had nothing to hide. He just hung up. When I got home he didn’t talk to me. I tried to say sorry. Then he went off. He said that he’s bad for me, he’s horrible person etc etc. I was shocked. He went upstairs and I stayed down. I got few of my clothes and It was late, so I left next morning. On his birthday. I didn’t actually leave him. I just need to calm down. He called and texted me, trying to apologize, but I didn’t listen to him.</t>
         </is>
       </c>
     </row>
@@ -935,7 +908,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.02886598</t>
+          <t>0.031007752</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -943,16 +916,20 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>k5kh4d</t>
+          <t>ec4rug</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AITA for getting a cat without my sisters permission? In the beginning of 2020 there were rumors about the pandemic spreading fast and how my area might shut down soon. I technically  live with just my sister. we own a decently large house, I take over the downstairs and she owns the upstairs. The property is family owned and we both have to pay our mom to continue living there. Now I rarely ever visit upstairs and my sister rarely ever goes downstairs, we both have our own entrances and rarely have a reason to do so, so it feels like we are in our own houses. Because of this  wanted to get a pet to help me throughout the pandemic so I dont feel as lonely. It wasn't that I couldn't visit my sister whenever I wanted to its more just we dont really have the best relationship.
- I contacted my mother about it to see if I could and after getting permission I started looking at possible kittys to adopt. I originally set out for only one  but instead I got 2 super cute Calico sisters both being around 7 and SUPER cuddly. I instantly fell in love when I first met them and even today I still absolutely adore these two. Well Ive had them for awhile now since I've gotten them in the beginning of covid and its now nearly the end of 2020.  my sister had only recently found out about my cats. Apparently she heard one of them meowing pretty loudly while I was out for my morning jog and went downstairs to see what it was all about. 
-When I got home that day my sister came downstairs to ask me when I got the cats and why I didn't tell her about them. I told her that I got them almost a year ago and that I never had a reason to tell her about them since the topic of pets never got brought up in conversation and that we rarely talk. She was clearly agitated and told me I had to get rid of them because I "didnt ask her permission" and that the house was hers too. This became and argument that resulted in her Stomping off back upstairs. I hate having arguments and felt kinda bad, but I tried brushing it off. 
-Later that day I received a text telling me that I was an asshole and "what would happen if I was allergic!" 
-I really dont want to get rid of my cats, they dont cause any trouble and they stay downstairs no matter what. Not to mention I got permission from my mother who owns the property and she never told me I had to ask permission from my sister before I do. But I thought I needed some more opinions so AITA?</t>
+          <t>AITA for bringing non gluten free cookies that all the kids really enjoyed to a holiday party when my nephew couldn’t eat them? 
+We had an early Christmas party this year with my family because everyone was going to be busy later on in the month. 
+Every year I always make these special types of cookies for my family gathering. Everyone loves them and they always get eaten up right away.
+Early in the year my nephew got diagnosed with celiac disease, so he can’t have gluten anymore. I was told to bring gluten free cookies.
+So, I made a batch of a different type of cookie gluten free along with the regular cookies I make.
+The reason I didn’t make the regular cookies I make gluten free is because in the past when I have tried making them gluten free they become really crumbly. 
+Like so crumbly that a light jostle makes them fall completely apart. That makes putting the outer layer on the cookie basically impossible.
+My nephew ended up being very upset that he couldn’t eat any of those cookies while all his cousins could. They were his favorite too. 
+My brother thinks I should not have brought them at all because my nephew was already having trouble dealing with the diet change at school with his friends and it wasn’t cool he had to deal with it with family as well.</t>
         </is>
       </c>
     </row>
@@ -969,24 +946,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.03272727</t>
+          <t>0.0323741</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>c9i8f6</t>
+          <t>d7ng7z</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WIBTA: I feel like my mom doesn’t respect my boundaries. I’m getting a bit older now, and turning 13 in a few months. More recently, as all of us do eventually, I start to want a lot more independence/space from my family. I’ve learned more about my boundaries and what I do and do not like, and I have noticed that I dislike people touching me. I don’t know what is, it just makes me uncomfortable and a bit annoyed. Anyway, I’m getting off topic. 
-This has happened a quite a few times, and I have repeatedly told her that when a person touches me, I don’t like it. She proceeds to either let go grudgingly, or refuses to stop. I try to wiggle out of her grasp, and when I break free, she gets all offended and annoyed. She also may ask “don’t you love me?” (She does this in other situations as well.) Of COURSE I love her, she’s my mom, and I care about her very much. I have accidentally hurt her before when trying to get away from her, which I feel bad about, but she acts like it’s totally my fault, when I feel like it isn’t.
-I think it’s tough for her to let go, I am her only child, and I don’t think she wants me to grow up just yet. I suppose I understand that, but she needs to realize that I don’t need her for everything these days.
-Please be honest, I really need to know.
-(I am in no way trying to villanize my mom.)</t>
+          <t>AITA for not telling my GF that my ex works with me? My GF of 5 1/2 years is super protective of me because I am pregnant and because she is worried I will leave her for someone half her age.
+Currently, I work in admin  for a private school which I love. I'm now helping our year six students and their families transition from our primary school to our high school.   It's excellent work, and my girlfriend understands entirely if I come home from work and don't feel particularly sexy on date nights.
+My girlfriend ( Sara) and I have a great relationship; I get along very well with her ex-husband for the sake of their kids and she gets along with my BFF who is gay and the father of my twins. Sara has met a few of my ex-girlfriends by accident when we have been out and about. She's not stupid, and she knows that I have dated other women before her (none can compare to her).  We love and trust each other enough to know that we are happy and know that we are loved.
+The issue started when one of my team members got another job overseas where her husband is working at the moment. Without thinking anything of it, I wished her well and put out an advertisement on multiple job sites looking for someone to replace her.  I  didn't end up interviewing anyone because Sara  had a nasty motorbike accident where she broke her leg.
+Coming back from leave, I was about four months pregnant at the time, and I was showing. Walking into my office, I was greeted at my door by the Deputy Principal and someone whom I would rather forget. The new person was my ex-girlfriend (Zoey). Zoey is the girl who I was with before Sara, whom I refuse to talk about. I don't speak about Zoey is that she made me choose between my twins and her. I wasn't going to leave my kids, who at the time had chickenpox so she could go to Thailand (yes they had their dads, but that's not the point). So I sent her packing and never spoke to her again.
+I haven't bothered mentioning it to Sara   because  my relationship with Zoey is in the past and I have nothing expect work to tie me to her.  Sara she has just turned 40 and because I've just turned 29, she is feeling a bit self-conscious about herself. because she is older than me and she is  is starting to get wrinkles. I have told her a million times that  I adore her,  whenever she walks into the room I always stop and stare, even if she is in her work out gear and sweating like a pig.
+Right now I am doing everything humanly possible to avoid talking about the new girl at work, I am cooking her favourite meals, taking her out shopping, taking her to spas.  For NY I booked a hotel room for two weeks so I could show her how much she meant to me without the young kids (my twins) or the teenagers (her boys and girl) Basically doing whatever I did to win her over in the first place.</t>
         </is>
       </c>
     </row>
@@ -1003,20 +982,30 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.034632035</t>
+          <t>0.034858387</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ikxqk1</t>
+          <t>ikt50t</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AITA for hating my mothers friends for treating my pet terribly? Just for clarifications sake; my mother (who is also in her late 30s mind you) decided to bring over 6 - 8 people for one of her girlfriends 'birthdays' at 3am in the morning after her night shift has finished. They decided to get both drunk and high. My cat is a male short haired tabby who has been an indoor cat since I raised it from its birth. So during that evening they all go out to smoke on the porch and that they left the door open. I thought nothing of it at the time and went to sleep. When I wake up my cat is missing from its usual sleeping spot, I look around and ask my mother if she's seen the cat anywhere. All she responds with is a "I have Bill's to pay, so I don't care really " after about 2 hours of scouting around outside, I find it underneath our old stainless steal barbecue on the porch crying. Turns out the cats paw had been hurt. So I ask yet again if i am the asshole for blaming her notoriously short tempered and egotistical friends for leaving the poor cat out in the cold / not making sure the door was closed.</t>
+          <t>AITA for bringing up my "friend's" dead grandpa after he talked about wanting to kill my dad. (First time posting some sort of story on reddit I normally post art and memes n stuff so sorry for formatting)
+So heres some backstory (I wasnt there at the time so I didnt know this happened until my dad told me) my dad was having a walk with our two dogs (1 Male who's been with us before our first dog had to be put down "Chester" yeah brilliant name I know and a female who's been with us since last Christmas "Skye" she was named this so that my youngest brother who is blind would connect with her more as he loved Paw Patrol he still has toys of them) and 2 of my sisters with my "friend". They were minding their own business when a stray dog walked up to one of our dogs (the male) and straight up bit him on the neck. In order to get the dog to stop my dad had to kick it as it could've been a danger to my siblings and "friend" and he shouted at it so it ran away from us, the day after the incident Chester had to have a cone around him so he wouldnt scratch the bite area and me and my "friend" were playing the game when he brought up the incident and told me that my dad should be arrested (I cried at this with my mic muted since I love my dad) and how he wouldve picked up his pet and just ran instead of trying to defend himself from it. So I kept quiet and waited for the topic to change.
+Into the proper story that happened a couple hours ago:
+Me: The one and only
+F: "Friend"
+So we were just playing a game and chilling when he brings the dog topic up again
+F: "If murder was legal I would kill your dad."
+After that comment I thought I was gonna straight up cry 
+Me: "what about your grandpa what would he have done"
+Please note he got offended by this and started crying off mic, I thought it was fair since he was talking about wanting to kill my loved one, he wasn't even joking aswell, that I spoke about someone in his family who he never got to meet. And then he left, I knew that I shouldn't be friends with him for ages since all he does is abuse me in games and also insults me but for some reason I kept giving chances. 
+People of reddit please tell me, AITA?</t>
         </is>
       </c>
     </row>
@@ -1033,27 +1022,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.0373444</t>
+          <t>0.038674034</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9713114754098361</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>efa2c0</t>
+          <t>ap6uj3</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AITA for making a “crude joke” to my masseuse? This actually happened like two months ago and I posted about it at the time but it didn’t get much attention. It just came to mind because my husband brought it up during Xmas eve dinner and my in laws didn’t find it funny.
-Basically I was at a spa and I booked a massage and facial. Now I tend to have a very crude, in your face sense of humor. I laugh at potty jokes, etc. it’s kinda my thing.
-Anyway so I’m at a spa and this woman is doing my facial. She is also trained in massages.
-As her fingers get near my nose, I smell a really disgusting smell. It can only be described as the smell of ass. 
-I felt grossed out and obviously had to say something, but I didn’t want to embarrass her by saying she stinks. So I said “What, did you finger your last client’s asshole and not wash your hands?” Something like that.
-It was clearly meant as a joke and to diffuse the awkwardness of saying she smelled, but she got all huffy and offended and I was asked to leave.
-I found it hilarious, my husband was kinda on the fence but after retelling the story, my in-laws seemed horrified and now I’m wondering if I took it too far.
-AITA?</t>
+          <t xml:space="preserve">AITA for telling my sister than my nieces ear infection is not an emergency room visit? My sister has 2 children a 1 year old and a 4 year old. Almost every other weekend she is at the pediatric emergency room for things that she could’ve easily contacted her pediatrician for. 
+My niece has some puss coming out of both ears and a low grade fever. I told her that she doesn’t need to go to the emergency for that, that all she needs to do is contact her pediatrician and she became offended. She says that her pediatrician is not available after hours and doesn’t have available appointments for a while. I honestly find this very hard to believe and told her she needs to find another pediatrician.  
+Sometimes I feel that the only reason she goes to the emergency is to take a break form her home life because she is so overwhelmed. My nephew is Autistic and her husband isn’t really supportive. 
+</t>
         </is>
       </c>
     </row>
@@ -1070,25 +1055,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.04450262</t>
+          <t>0.04137931</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>jpilct</t>
+          <t>f1j81g</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AITA for getting mad at my brother and his wife for bringing home a puppy behind me and my mom's backs? First of all, I'm new to posting on reddit, so please excuse any mistakes!
-So, my brother and his wife and toddler moved in with my mom and I almost two years ago for financial reasons. They moved in with their dog, who somehow managed to get along with my cat but I think that's because he kept his distance from her. Well, their dog passed away in January of this year. They wanted to immediately get another dog, and so we did but returned him after a few days because I felt the weight of the responsibility and the tension with my cat, and I managed to convince them. My mom also firmly stated she doesn't want anymore animals in her house no matter what.  
-Well, today they bring home a small puppy without discussing the matter with my mom and I. We were both livid as we found it incredibly disrespectful to my mom. My brother simply responded with "Mom never said I couldn't adopt one." The thing is they barely help my mom financially - she takes care of all the bills. She's the breadwinner. What they pay for themselves are their cars, phones, and some groceries, but besides that they don't offer anymore money. So, the fact that they had the sheer inconsiderate audacity to bring a new dog into a house they don't pay for is bonkers to me.
- I'm also mad because I have an adult cat that won't accept a new animal in her territory. It's literally my reasoning every time they say they want a dog. That a new dog will cause issues with my cat and that you never know if she'll react violently. 
-I had to retreat to my room for the rest of the day as I'm too emotional to be around them, but I've heard them talk to each other and I'm sure they think they're in the right and that my mom and I are being overdramatic. I'm incredibly stressed and livid over this.
-So, Reddit, AITA?</t>
+          <t>AITA for saying this about my co worker? I work in a small office with couple of co workers. 
+I haven’t been getting along with one lately as she acts like I’m not smart or that I’m not good at my job. She also thinks I was given everything on a silver platter and has said that multiple times. 
+I work hard and the other day she made a comment about how I should just do my “little” work and laughed. 
+I was fuming. My co worker asked why I was upset and I said “nothing. Who cares what she thinks. One day I’ll be something big while she is still working here” 
+I’m going into a masters program next year that’s when I leave the job. 
+My co worker has been telling everyone what I said.</t>
         </is>
       </c>
     </row>
@@ -1105,25 +1090,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.048899755</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>blubn0</t>
+          <t>kcmzib</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AITA For Feeling Upset at My Folks for Keeping my PC After he Agreed to sell it? I left for college back in January. My father agreed to sell my gaming rig on Craigslist and give me the money for it when I came home to visit next time. The reason I left it with my dad was because I couldn’t fit it in my car when I left for Florida. Now, this computer had a lot of sentimental value to me (it’s dumb I know), and I expressed this to my dad. So we clean it up, reformat it, and list it. 
-A few weeks go by, and my mom gives me a call saying someone was interested in it. So I said alright, go ahead and tell dad as he’s the one selling it on my behalf. She doesn’t tell my dad, and the computer goes unsold apparently. 
-It’s summer break now, and I got home. I asked my dad about the money for the computer. He told me he didn’t sell it and instead gave it to my mom. I wasn’t consulted about this. Nobody told me it was just being kept. That’s $700+ I’m missing now. 
-So I want my money. I can use it to pay my bills and help me through the summer which was the whole purpose of selling it to begin with. But there’s a problem. 
-The family dog just got sick the day before I drove home and now he needs medicine regularly. So now I feel like an ass hole for being upset with my parents for basically scamming me out of $700 because the dog is sick and needs medicine. Don’t get me wrong, I’d much rather them be able to afford medicine for our dog than give me what they owe me. But at the same time, they just spent $600 on a puppy (this was before my dog got sick btw. Puppy WAS NOT a replacement dog) a few weeks ago and a trip to Hawaii prior to that. 
-I’ve been seething about it for days and basically grinding my teeth to nubs trying to figure out what to say or what to do about it. I haven’t brought it up since I asked my dad about it, but I don’t know if I even should at this point.</t>
+          <t>AITA for using a friends drawing as my profile pic without asking. One of my friends made a digital recreation of a drawing I made of myself as an anime character. It’s a cute drawing so I decided to use it as my profile pic, when one of my other friends saw it she claimed I “stole” the artwork since I didn’t ask to use it. I don’t really see the issue as it’s a drawing of me and I never claimed to be the creator of it.
+I’m not known for making digital art(I haven’t made a single digital drawing) but make plenty of hand drawn peices. My friend has been going around telling people that I steal art.
+AITA for making the drawing my profile picture</t>
         </is>
       </c>
     </row>
@@ -1140,20 +1122,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.07692308</t>
+          <t>0.0591133</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>m4en9k</t>
+          <t>bkx2rp</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AITA For not Wanting to Give Up my Room. My mom says that my grandpa (85) might be moving in with us soon. I’ve had a chronic illness for 2.5 years and need space. But my mom told me that if my grandpa moves in, I will have to leave my room and let him have it because we live in a small 8 room house. I told her that I didn’t want to give it up because I’m an introvert and don’t like to be bugged, and as it is I constantly have people knocking on my door. If my move rooms it will probably get worse. I also just got a new PC and I’m not looking forward to moving into a much smaller room and having to leave my PC in my old room. AITA for not wanting my grandpa to have my room?</t>
+          <t>AITA for missing my child's birth to play a poker tournament? I am a professional poker player and that's how I provide for my family and I had to make a decision whether to attend the birth of my child or play a poker tournament with significant potential for earnings. 
+&amp;amp;#x200B;
+My wife and I talked at length about this and came to the conclusion that my skill edge over the field of other players in the tournament means I'm likely to win a lot of money. 
+&amp;amp;#x200B;
+So the decision was basically to either miss my child's birth and make a lot of money to provide for them later or miss out on this tournament in which case I'd have to travel away while my child is growing up to play less profitable tournaments. 
+&amp;amp;#x200B;
+So my wife and I concluded that it's prudent to miss the birth and be with my child while he's actually growing up. I can't stress enough that I had my wife's FULL SUPPORT in this decision. However I'm still being shunned by the community for apparently being an asshole for missing my child's birth. AITA?</t>
         </is>
       </c>
     </row>

--- a/feature_analysis/Jupiter Notebooks/feature_samples.xlsx
+++ b/feature_analysis/Jupiter Notebooks/feature_samples.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>percentile</t>
+          <t>range</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>conditional feature</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>feature value</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>conditional feature value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>post_id</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>post_text</t>
         </is>
@@ -468,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,33 +488,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.002754821</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bkrq84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>AITA for not wanting to support LGBT+ despite being somewhat bi? Throwaway for obvious reasons. 
-I have a lesbian friend, she's very much into politics and takes part in pretty much every gay pride/lgbt movement there is. I am somewhat bi (well, pretty much from the neck on down when it comes to men or otherwise a lot more "picky" with men than with women so to speak), but I only have romantic feelings towards women. Also, nobody except said friend knows (well, fuck getting drunk, i should have known better), and she has only learned about it recently.
-Now that she knows, she is constantly pestering me about lgbt events and joining her party and their internal lgbt group. Honestly, I like her party, but I really don't feel like participating in politics, and especially not in any lgbt group or focused on lgbt topics (basically making it public and I'm more interested in economic policies and in the justice system). 
-At first she was very... patronizing? (not sure what I should call it), like "you have to stand up for yourself", "you're hiding this for a reason, fight that", "freedom" (you get it). Now she is becoming more agressive, accusing me of being biphobic, opportunistic, part of the problem, etc. 
-Thing is, I have never acted on it (and as said only one person knows) and I don't know if I ever will. I have absolutely no intention of telling anyone (except maybe a future gf, just so she knows). She says I could just come as a hetero person, but come on, I have gone through facebook and 99.99% of the people attending are lgbt+, there is no way this will not get me outed. 
-She even said that she should probably just do the outing for me. (Made me fucking furious, so maybe I'm going overboard here, but I made sure she knows better than to do that. she isn't exactly without secrets either, and unlike her, I have visible proof of them).
-AITA for not wanting to change my life? I'm pretty happy as it is now.</t>
+          <t>0.041025642</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>efpfac</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AITA for trying the change my friends NYE party plans? Last time my friends and I were out my long term partner suggested we have a small NYE party. I went along with this and we had the basis for a gathering. Tonight my partners boss, and close personal friend of both of us, told me that he can’t come as his husband is planning to throw a party at theirs. He really wants us to go to his party and so invited my friends along too. It’s not far from my house, and my original guests would have been travelling regardless so it doesn’t negatively affect them that way, but I’ve been made to feel like an asshole for suggesting we attend a bigger, and far more well catered party than anything I could/would have provided. I hadn’t made any specific promises other than hosting the party so I’m really not sure where the difference lies here, and I’ve explained that this works better for me as it allows me to satisfy a few social obligations at once. So not sure what to do.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,30 +528,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0070921984</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>f9kz48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>AITA for being overly cynical to the point where I consider a lot of people as assholes. So... here's the thing. A lot of people in this world are assholes, that's as much we know. 
-But more than that, there's always a line to be drawn. So when I see people who are assholes in social media and beyond, it makes me weary. 
-So when I consider that people, if not, lots of them are assholes, It makes me feel very cynical. It makes me consider that all of them are assholes with no exceptions and see things in black and white. Maybe its not the most healthy mindset, but its one that keeps me on my toes. 
-So reddit. AITA for this mindset?</t>
+          <t>0.0259366</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>90wxrz</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AITA regarding my living situation with my sister? Alright, so ill do my best to shorten this up as much as possible even though i could go on and on about it.
+About 7 months ago, my wife and I moved into my sisters place with her boyfriend and baby, She wasn't my first choice but they needed help with bills and we needed to catch up as well, so we figured it made sense. The first day we moved in, we were told about a rule they had about flushing the toilet past 9 PM, since it would wake up the baby. Now to share both sides, her baby can be a light sleeper so i can understand some noise restrictions. These type of restrictions got worse and by 2 weeks in, we were getting daily text messages about how loud we're being and how inconsiderate we are.  We weren't allowed to make food past 8 Pm or whenever the baby was asleep, same goes for doing the dishes or leaving the house since the door made too much noise. 
+Along with all of this, they're very messy people and take serious offense if you bring it up. I was usually left with most the cleaning, however to tell both sides fairly, i was unemployed at the time so i didn't mind helping around the house. That being said, my issue was that they never cleaned or kept any upkeep, if all the dishes were dirty and the sink was full, they'd just get fast food to avoid it until i got to it.
+they have an indoor dog who pisses and shits everywhere around the house, usually i'm left to clean this mess up as well. Whenever i confront them about our living situation, they give me a very typical "if you dont like it then leave" and then an argument usually starts. 
+So i have to ask, am i crazy here? Am i really just the clean freak loud ass roommate who's causing all the problems?</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -547,32 +572,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.00998004</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>d91aqo</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>AITA for going to church even though I'm not religious? So me and my old secondary school class have always been very close. We all went to boarding school together and spent almost every day of those five years together. Sadly, in our last year of school two of our classmates died within a couple of months. 
-Now here's the problem. I'm not religious. Even though I live in a quite conservative country (central Europe) and was raised in a very Christian family, I never started to believe in God. I stopped going to church at around age 14, but I know all the customs, the prayers and how to behave myself in church in and out. I'm always behaving respectful concerning religion towards others because I'm under the opinion that everyone can believe what they want to, as long as they don't drag others into it.
-So a year after the first death our class organized a church service in memory of our classmate who died. About half of our class was able to attend, including me. Everything went fine. I sat on the edge of a row of seats in church, I raised myself and kneeled down when everybody else did, but I didn't speak, sing, take my communion or make the sign of the cross. I got a few weird glances from people there who didn't know me, but other than that everybody was fine with it.
-That was half a year ago. A couple of days ago we also organized a church service for our second classmate who died and again about half the class was able to attend, this time including a very religious classmate. I acted the same way in church as I did the first time, only this time Eve afterwards came up to me and said I was being disrespectful by not participating in church. I was told that if I didn't believe in God I had no right to visit the church service, because it's only for Christian people. I tried to explain to her that I didn't come to church for God, but in memory of our deceased classmate, but that made her even more angry. I told her that I was gonna come the next time aswell and that it was not her place to decide whether I could or not. 
-A couple of my classmates agreed with her saying that if I'm not religious I shouldn't participate in religious activities and that it was disrespectful to just put off my religious classmate like that. AITA for planning on going to church again and telling my classmate who doesn't want me to?
-TLDR: I went to the church service we organized for a deceased classmate and another classmate told me it was disrespectful to attend but not participate in the prayers. I told her it didn't matter to me and that I was gonna come again the next time. AITA?</t>
+          <t>0.035519127</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>czf0qe</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>AITA My mom’s a pastor and I’m a closeted athiest. Look, to be honest, I’ve never confessed to anyone. I’m supposed to be the goodie two-shoes smart athletic funny kid who is a good christian, loves his parents and siblings and only masturbates once a month.
+But lately, things have been different. Mom recently got a new job as a pastor, she completely dropped teaching over the summer and we all had to make sacrifices for her so she could do it. That was fine, I still got to hang out with my friends and have fun playing Super Smash Bros Ultimate and Magic: The Gathering. But only recently did I stop believing in god. Why I did is a story for another time, but here’s the real reason this is ok R/AmItheAsshole.
+I hate Mom. She’s self righteous, always “knows whats best” and is always yelling at me. Every single thing I do wrong I’m reprimanded for, from not letting out the dogs often enough to not turning in my absent slip for school. All my friends have their own lives, things they can do individually while I’m stuck playing pretty boy for mom. And this makes me want to leave. Of course, I’ll graduate high-school first, but right after that I’m packing my bags and moving to some big city with a scholarship for college. I want to do my best to cut them out of my life. Just thinking of spending the rest of my life settling down here in country-bumpkin-U.S.A makes me want to hurl.
+But really my dad doesn’t deserve that. And what if my mom’s “I love you more than you can understand” excuses aren’t excuses? I’m hurt, I’m confused and I’m keeping it all pent up. I’m literally shaking right now. 
+If you have questions or want me to go more in depth, I’ll do my best to answer them. Really this might just a confession, but I need other input. I know, my problems aren’t as bad as others, and I shouldn’t be speaking out at all, but it’s just... I just... I can’t. I just can’t. Help.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -582,28 +616,46 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.010335918</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>jho93r</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>AITA for telling an owner not to bring their dog to the dog park and threatening to call the park rangers if I see them again? I have 2 dogs, Jax and Bishop. Bishop is a 125 lb Shepherd/Akita/malamute mix and Jax is an 85lb American bulldog.  Both of them love going to the dog park whenever we get the opportunity and we go quite frequently. Lately, however, we have been having some problems with one owner in particular. They bring their dog into the park, a midsize border collie, and then simply stay on their phones the whole time. I ha e nothing against needing to use the phone from time to time in the park, but their dog is a holy terror and causes problems every time he is there . He aggressively herds other dogs and will nip their heels or faces if they don’t obey him. He mounts other dogs frequently including Jax and even on rare occasions Bishop. Bishop HATES being mounted and will react accordingly. But the biggest issue is that he guards the water bowl and gets very aggressive if someone tries to use it, like will pin the other dog and go for the throat aggressive.Fortunately my 2 dogs are much larger than he is (he’s only about 40lbs) and intimidate him, but some of the smaller dogs aren’t so lucky. After having to pull him off my friends dog for the FOURTH time we finally decided to confront the owner  and their excuse was “oh that’s just Duke for you” I said no he’s aggressive and you need to remove him, fortunately he has only been going after the smaller dogs, but eventually he will run into one who is not so forgiving. The owners begrudgingly removed their dog after I threatened to get the park rangers involved, but not without cursing at me under their breath while doing so.
-I’m getting mixed signals, some of my friends and other owners said I may have been too harsh, but my friend who owned the other dog and a majority of the park owners said I was in the right. So reddit AITA?</t>
+          <t>0.010434783</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>axy05t</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AITA for consentually "copying" homework and getting graded for it? When I was still in school, I was getting really good grades without doing much for it. I barely studied for it and forgot my homework all the time. One day during break, a girl in my friend group, Laura, started talking about our native language class homework and I realised that I had forgotten to do it again. I asked if she was okay with me copying it. We did this all the time, letting friends copy homework and tests. Laura said sure I could copy it, as long as I changed some things up. 
+&amp;amp;#x200B;
+&amp;amp;#x200B;
+During the next unrelated subject, I started reading what she had written. I hated it. It was supposed to be an analysis of a text we had talked about, but it read more like an overview, so I actually didn't really use it. I got out the source text and actually did an analysis that went more in-depth, complete with quotes (Laura didn't have any), writing three times as much as Laura had. Next lesson was the native language subject. Now our teacher wanted to talk about the homework by having one student read our their work out loud, and dissecting it sentence by sentence, having the whole class have a discussion about it. He picked me to read what I had written, and I did. In the end, he said that my analysis was spot on so I joked that he should give me a good grade for it then (teachers here can sometimes grade a student on quality contributions to a lesson). He said "why not, actually".
+&amp;amp;#x200B;
+&amp;amp;#x200B;
+I was feeling good until my friend next to me whispered "Laura isn't happy about this". Laura looked shocked and angry. So after the lesson I walked over to Laura and said "Hey, I hope everything's okay between us." and she said "no, you stole my grade." I explained to her that I had planned on only copying her homework, but through reading what she had written I remembered what it was about and wrote my own analysis. I said when I read it out loud she must have noticed that it was pretty different than what she had written. Of course though, there were some similarities because we wrote about the same source text, but we shared these similarities with probably every other student. She was so angry still and apparently started bitching about me the entire day and the next. 
+&amp;amp;#x200B;
+&amp;amp;#x200B;
+In order to reinstall the peace between us, the next day I asked her what I should do and she said I should talk to the teacher and make him give her this grade. She apparently had done pretty awful in the last tests so she hoped she could improve her final grade. I actually went to the teacher to talk to him about it. I can't believe I did it in hindsight, because it's like I acknowledged I did something wrong. He was pretty confused about what I wanted from him, and he told me that Laura never contributed to the lessons, and I did almost every time, so she didn't deserve it, and that was the end to it. I told Laura what he had said, but she went on to hate me and bitch about me until we graduaded. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -613,31 +665,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0127551025</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8091976516634051</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>brt38e</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>AITA for NOT calling my wife out for her binge eating? I've been lurking and voting here for a very long time but a post from this morning made me realize that maybe I should actually ask this question. The young lady from this morning was largely voted NTA for telling her parents about her sister's binge eating. I am literally doing the opposite with my wife. 
-My wife is very obese and is starting to suffer the common health ailments that go along with obesity. I am still very attracted to her and I admit, I think she looks great as she always has. But her last physical her doctor showed her a chart of how her obesity is affecting her health and her life span and though I don't know the exact numbers, I think he told her that women with her BMI rarely live past 65 and have a very low quality of life starting at 50 (again I don't remember the exact numbers or prognosis but it was along those lines). She met with a nutritionist (or the good kind, the certified kind...a dietician?) and they set her up on a whole new lifestyle to get her on the right track. 
-However I found a huge stock of candy in her sewing closet. I also know that she's eating it because the candy has been seasonal (as in valentines, then Easter, girl scout cookies). It's a 25 gallon Rubbermaid bin so it means she's going through that much candy between refilling it, at least at the next "season."  It is also taking her much longer to get home from work and I'm seeing ATM withdrawals when I am pretty sure she doesn't need cash so I'm almost positive she is getting fast food on the way home. 
-I have some proof that she's binge eating with the bin, I have some strong anecdotal evidence she's binge eating with the money and time to get home. My reasoning is I don't want to make her feel bad but at least she's trying to follow her new meal plan in front of us. And maybe it will eventually catch on. 
-But based on that other post from this morning, maybe I'm doing it wrong? Am I the asshole here?</t>
+          <t>0.009009009</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ay5hwu</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AITA for snapping at a friend for posting a naked dead man on Snapchat? I woke up this morning to a snapchat from my best friend saying ‘Don’t look at my snap story there’s a dead guy on it and I know you don’t like seeing dead things’ so of course I immediately looked at her story and she has quite a few pictures and videos of a naked dead guy laying in the park surrounded by police. Basically the story was the man washed up in a river dead and police were surrounding the body looking for clues I guess? In one of her snaps she focuses on the mans genitals and says ‘why are his balls so big though’ and then her last snap says ‘the police yelled at me to leave’ 
+I immediately sent her a message saying ‘Why the fuck would you put that on Snapchat that’s so disrespectful what is wrong with you?’ Which she opened and never replied to and we haven’t spoken since. I was so disgusted at what she had done immediately but the more that I think about it I don’t know? Am I the asshole for snapping at her? Is she the asshole for posting it on Snapchat? </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -647,28 +706,43 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.014336918</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9924242424242424</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>hq882g</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>AITA for basically telling my friend that there was a funny and cute part in a book? This is my first post and I'm on mobile, so please forgive me for any formatting issues.
-So my friend and I have been highly anticipating a new book by one of our favorite authors, and it finally came out last week. I started reading it last night, and I came across a cute little easter egg type thing. I messaged him just pretty much "I'm not gonna spoil it for you, but I just came across a little Easter egg that made me smile." And he pretty much said "shh, don't tell me anymore," which I obviously agreed to. And then I just told him it was on page 15 so he could let me know when he got to it. Then he basically just fucking blew up at me and called me an asshole for "ruining the book for him." His argument was that I set up an expectation for him that will be distracting, and I also "robbed him of the satisfaction of finding it himself." He also reminded me that we've had this discussion before, and I'm pretty sure he was referring to the time I saw a new movie and basically told him that it was funny and good. I did apologize and promise to basically never say anything about any new material ever again, but I honestly don't think I was in the wrong here and I definitely don't think I ruined the entire book for him. So, AITA?</t>
+          <t>0.039215688</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>czolr4</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>AITA for refusing to lend my car to a relative I don't know? I, (18M), have been gifted a few months ago as a gift for passing my drivers license a car by my parents. I'm really grateful for it and I use it all the time to see my friends, do groceries etc...
+Two days ago we had lunch at our house with relatives and I met my mom's cousin (I'll call her Carol). She is around 50 years old and is a single  mother of 4, ranging from 10 to 20. I had never met her in my life even though she lives 20km from our house.
+ She was supposed to come to the house today to enjoy the pool with her kids but her car broke down. 
+My mom wants me to lend her my car for a week or so because "She has 3 kids she needs to take to school and she would need to take the bus and the subway to go to work"
+I said I didnt want to because I didn't know her and wasn't comfortable sharing it with someone I've only met once.
+I don't really need the car, school hasn't started yet but it'll be a pain if I have to give it away because I had plans for this weekend and the buses stop early so I won't be able to see my friends I haven't seen all summer
+So AITA?</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -678,31 +752,45 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.016286645</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>azr2xk</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>AITA for abruptly ignoring someone ive known for years? So im a senior in highschool and I've known this guy since I was in like 7th grade and for the past few months I've been noticing more and more how much of a bully he is. 
-He calls this freshman (he doesn't know) names, shoves him around, and makes fun of him for dancing or mumbling in class. It's annoying. I've told him to stop a hundred times, I've told him if he doesn't stop I won't talk to him. 
-And just about four weeks ago, I finally I had enough and snapped at him. He said "I don't see why you like him, he's annoying and a racist" which he isn't. The freshman has said his MOM is racist, not him. I told my "friend" that even if I didn't like him, that doesn't give him the right to be a dick about it. 
-He didn't listen and two weeks ago I just stopped talking to him bc it got so annoying. I hang out with the kid and his other freshman friends, so if my old pal starts to bother him I can stop it, but otherwise, am I the asshole for just suddenly cutting contact?
-He's tried to talk it out, but I just don't want to deal with it. He's sent mutual friends my way and once again, don't want to deal. He's even started telling them that IM lying and that he isn't bullying this kid. He's even managed to manipulate my best friend into believing him. The only way she will talk to me is if I make up with him, but i think that's stupid. All my friends are against me and I just don't understand why. Am I the asshole?</t>
+          <t>0.010362694</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03546099290780142</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>bsvfvn</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AITA for lashing out at a girl who has been trying to flirt with my boyfriend? Hi all. 
+My boyfriend Tom and I are on holiday in Cyprus and were having a lovely time. A few nights ago we befriended a group of girls who were staying in the same place. They were around our age and from the UK like ourselves. They are uni students and while I won't name drop, there aren't any better places in the UK than the uni they go to. One of them, Amanda, is absolutely gorgeous. She is an economics student and at first seemed really nice. However, the second night we spent drinking with them she offered to get us drugs. We laughed it off and dismissed it but I was tired and called it a night. 
+Tom came in 10 minutes later saying that as soon as he left Amanda asked if he would like to sleep with him now that I'd gone. He pointed out that he had a GF but she responded ''So?''. He told her what she could do with her offer and left. 
+Yesterday afternoon we were in the pool when Amanda's and her lot turned up. Her friends all jumped in the pool but she was wearing a summer dress and wedges so chose to just hang around on a deckchair and chat to them. From how she was acting she was clearly under the influence of something. 
+She kept blowing kisses at Tom which we both tried to ignore. In the end it got too much for him and he jumped out to tell her to give it a rest. I followed him. She tried to kiss him on the cheek but he pulled away, and then she went for his lips but once again he pulled back. At this point I went mad at her, and started swearing at her. She got into my face and started giggling and asking whether having a prettier girl interested in my man made me ''insecure'' and saying that surely if I trusted Tom then I wouldn't feel like this. Everyone was staring and staff were coming over to diffuse the situation.
+I was so angry and lost it and shoved her. She stumbled on her heels and fell into the pool. 
+She got herself out but she was screaming and crying, saying that her dress was ruined and that I now owed her £2000. Her friends walked her away and we had to explain ourselves to the staff. 
+Early this morning one of her friends banged on our door, and when I opened it said Amanda's parents want my number so they can discuss refunding the dress with them. She said that the designer dress was completely spoiled by being in the water and that her parents are fuming. I slammed the door in her face but am panicking. I don't have that kind of money especially after the cost of the holiday. I don't know how I'm supposed to pay it. Tom offered to help me but I don't think that's fair on him. 
+I do feel bad about pushing her into the water. Obviously she could swim well enough to get herself out, but I didn't know that. I didn't mean for it to happen. I shoved her on impulse and wasn't thinking of the pool behind her.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -712,32 +800,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.017676767</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.026737968</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>lp6y25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>AITA for telling my mom I'm worried she will be racist to my mixed race partner. My parents both do not consider themselves racist, but frequently say offensive things, angrily rant about "foreigners and immigrants" and also make racist jokes regularly. They are not outwardly racist and say they would not discriminate, but frequently mock and stereotype behind closed doors. 
-I am currently dating(but not really - thanks lockdown) a mixed race man who's mother is Indian. He does not look mixed race, but this has led to frequent jokes about it from my mother. She has told me she has no problem with me dating him, and has (at points) encouraged me, but the racist comments have made me nervous that she will say something offensive to him without even realising it, because she doesn't see them as racist. 
-She has said multiple racist things already to me, such as "can't you bring a white boy home?" And asking me if he smells like curry. I said these were racist, and her defense was that she "has Indian friends" and knows not to say those things in person. I said this was not a defense, and that those were still offensive, and she did admit she sometimes has to be careful about what she says in front of them, which I argued meant she knew she was being racist if she knew not to say those things. 
-It led to a long argument between us, with me explaining that things she wouldn't consider offensive, now are considered very offensive. Such as using "chinky" when referring to Chinese food or using "coloured people". She told me this was me being "ridiculous" and "political correctness gone mad" and just me being overly sensitive. I said my partner would be more sensitive to racial comments because of his race, and she just said "well i don't want to meet him then if he's that sensitive and I'm so embarrassing". 
-She is upset that I 'don't know her well enough' to know she wouldn't say those things to him and told me I have been offensive to her, because I 'attacked her'. She says her comments have all been jokes and I'm clearly just too sensitive. 
-Have I actually done something wrong here?</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>at3atj</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>AITA for telling my dad that I don't want my mom to live with us again? Throwaway because I don't want to risk getting identified by people i know who use reddit. Last year my dad discovered that mom had been cheating on him with one of his close friends. The only reason he found out is because his friend's wife snooped through her husband's phone and found old convos between him and my mom. my dad was hurt and devastated like i'd never seen before and that affected me deeply. she had been cheating for almost a year apparently and in the months leading up to them being found out my dad's friend was trying to break the affair off. This explained a lot of things that were going on at home. My mom had been acting very aggressive and was extremely unpleasant to be around during this time. she said some very hurtful things to me due to my appearance (i am overweight), me going to community college because i couldn't get into a decent uni and my lack of friends/social life. 
+My dad kicked her out of the house not long after the initial shitstorm. Mom went to live with my aunt and she's been there ever since, but yesterday she called dad and told him that she needed a place to stay because her sister was going to move and wants mom to get her own place. She said that she can't afford an apartment right now and that she wanted to come live with us again. My dad told me right off the bat that he had no desire to live with mom again but that he wouldn't keep us separated if i wanted her with us again. 
+I haven't spoken to my mom since the day she moved out. She sends me texts every now and then but they're always ridiculously long and I rarely read them and I've only replied a few times. To be honest I am still very hurt due to how she treated dad and how much she hurt him by betraying his trust. I am still very angry at how she took it out on me and dad when her affair was going sour. I am still very angry at how depressed and anxious i felt because i thought that there was something wrong with me, that i was making her unhappy and that's why she was constantly attacking me and putting me down. i don't think i can ever forgive her for the way she treated us because the man she was fucking  wanted to end things and she didn't.
+i told dad right away that i didn't want her anywhere near the house again. that i wasn't ready to be around her again. 
+but last night i had a lot of trouble sleeping. i feel guilty and petty for saying no, and it makes me fucking angry that i even feel this way because i truly do not want to see her again. i hate feeling responsible for what happens to her. I am dreading having to work today while feeling like this. 
+do you think i am taking things too far by telling dad not to let her live here again?</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -747,29 +845,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.01986755</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>e8z5cs</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>AITA for telling my anorexic sister not to come to Christmas dinner? The title sounds bad but give me a moment to explain.
-I’m always the one who hosts Christmas dinner. The family all comes over and bring some wine or a dessert, but for the most part I’m the one cooking everything. We’ve done this every year on Christmas Eve, not Christmas Day. Recently my sister was diagnosed with anorexia and I don’t see the point in her coming to Christmas dinner just to pick at her food and make everyone feel bad for her. It wouldn’t be fair for everyone else to have to worry about her rather that having fun and spending time with family. I wouldn’t be uninviting her from Christmas as a whole, she just wouldn’t come to the dinner on Christmas Eve.
-Aita?</t>
+          <t>0.029962547</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>g15yrc</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>AITA for refusing to dress differently for my Mum or compromising by asking that she take an arbitrary piece of jewelry off? During high school, I (F) was experimenting with my style and found that I was more comfortable in men's clothing. I started wearing suites a lot and love colorful ties and bow ties. My Mum is super conservative and obsessed with gender roles and went a while where she couldn't look at me without crying. When I decided to shave my head she wouldn't even look at me. 
+Eventually I started seeing her again but she is always twitchy and nervous, solely due to the fact that I was wearing men's clothing. She refused to even talk to me until I took my tie off, which is really upsetting to me, and I was tired of bending to her whims, so I told her that I would not take my tie off unless she took her bracelet off, which she was visibly hurt by. She said that I was being unreasonable and silly, and that she just needed time, yet she has had over two years by now. She still won't even call me by the correct name.
+I feel guilty whenever I kind of prod her into accepting me, because she seems so fundamentally hurt by who I am. AITA for not wearing women's clothing around her and making her take off something if she wants me to take my tie off?</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -779,31 +887,43 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.021666666</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.6</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>e1n1v3</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>AITA For Causing an Argument With My Mom About Christmas? I don't love Christmas, for many reasons. My mom ADORES Christmas. Several years ago, our house was chosen to be in a town Tour of Homes (like an open house type deal) and my mother went ALL OUT for it. The house looked great. But every year since then, she feels the need to put up EVERYTHING. My stepdad works off a lot, and I'm finishing up at college, so there's no one really ever home to help her, and it really stresses her out.
-This year, I came home early for Thanksgiving. My mom asked me to help her put up decorations and I said sure. We're working with the artificial tree in my room, and she keeps complaining that it's leaning. Every ten seconds. I'm trying to help her, but after about fifteen minutes of her complaining, I told her that it might be best to just get a new tree. Well that pissed her off.
-She ignores me the first time, but after another few minutes of wrangling, I say to her again that if the tree is bothering her this much, the best idea would be to just get a new one. It's obvious she's unhappy with this one. She gets really huffy and says that we don't have to money to get a new fake tree. This is where I point out that my stepdad tells her every single year to buy a fake tree for the living room because of the stress and work needed to get rid of it. He says every year that he "doesn't care how much it costs, just do it". If my mom really wanted anything, my stepdad would give her the money, no questions. My stepdad and I have talked about this. She has the money to get a new tree.
-She got mad and told me to go find something else to do, that she didn't need my help. So I sat down on the bed and watched her do the same thing over and over with no change, waiting for her to realize she needed the help. After about five minutes of that, she threw the stand down and stormed out, muttering that if I wasn't going to help her, it wasn't worth it. So, I got up and decided to figure out what I could do with the tree. I looked at it for less than 30 seconds before I realized that one of the hooks was broken: it will always lean.
-I took the stand and found her crying, and told her that it was broken. She didn't want to talk. She kept shooing me out of the room. I tried to get her to talk to me, but she just kept saying that nothing is worth it, that I complain about Christmas so there, she just won't decorate. I told her that this was not the way to act, that she could look me in the eyes and have an adult conversation, but she just walked past me and refused to listen. I followed her and she just kept crying about how my stepdad doesn't like it either so she just won't do anything at all. I tried to tell her that both of us get upset that she stresses herself out trying to make the house "magazine-perfect" and to stop having a pity party for herself. The tree is broken, here's the options. She then kicked me out of her room. AITA?</t>
+          <t>0.04310345</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>bn5fcv</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>AITA for telling my daughter not to send a video apology to her friend's mom? First post! Let me have it!
+A few weeks ago my daughter's (14) friend (15) came out to his mother as pansexual. His mother's response was to take him to church to be shamed by the pastor. He told his friends about it via a group chat during which my daughter called the mother a c***.
+Long story short, the kid's mom read the chat and was angry with my daughter. She demanded my daughter apologize or she won't let them be friends anymore, but she'll accept nothing less than a VIDEO apology. My daughter doesn't want to apologize at all and came to me for advice on how to proceed.
+I told my daughter: "You should probably apologize for hurting [the mom's] feelings, but I'm not comfortable with you sending a video apology because that's just weird."
+The mom got wind of my feelings on the matter and implied I'm being a shitty parent by undermining her demands for an apology. 
+I agree that my daughter should probably apologize if she wants to continue the friendship without the mom acting like a total hag towards her. However, I really think the video thing is over the top. 
+Am I the asshole?</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -813,31 +933,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.023952097</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>dhvvv5</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>AITA for leaving the banana bread out for two days? So, on Friday my parents and our housemates left to go camping for the weekend. I (17yrs) stayed home alone.
-My mom had left some banana bread in an opaque container on the table, and she meant for it to be for me to eat for breakfast. We always have random containers lying on the table, so I just assumed it was empty or belonged to our housemates, and didn't open it. 
-When they came back home yesterday evening, my mom got upset at me because I had left the banana bread out all weekend.
-I personally don't think this was my fault. I don't just check random containers lying on the table to see if they have food; I think she should have told me upfront that she left banana bread for me in a container. 
-I know this is a pretty petty situation, but AITA?</t>
+          <t>0.026785715</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>l3qjz7</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>AITA for getting upset because my heterosexual girlfriend likes females breasts? Me and my GF have been together for about 8 months and not to long ago she mentioned she likes boobs, i asked her why and she doesnt have an explanation, she just likes them, shes fully straight has no attraction towards girls but likes them? I dont understand. This makes me upset because it is something i literally dont have and for the fact she told me she was straight. Every time i bring it up she always gets really pissed off and i dont know what to say</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -847,27 +973,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.024390243</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.375</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ec5vht</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>AITA for asking my girlfriend to not use her vibrator for one night? Every time we have sex my GF takes out her vibrator and goes to town. I really want the opportunity to satisfy her without her having to use a toy—I offer to go down on her, things like that, she’s always like “no it’s okay I’m good.” I always feel cheated because I think I could satisfy her without her needing to use a toy. I asked her to put it away for one night so I could try to get her off without her having to use it, she freaked out and called me insecure. AITA?</t>
+          <t>0.013888889</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>gxansa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>AITA if I leave my gf if she gets pregnant. Before you come at me I’ve made it perfectly clear to her that I’m(21m) not ready for a child. It’s her choice not to use protection. She says the pill makes her feel weird and she doesn’t like the feel of condoms. So I told her that she would be the only one out of the two of us responsible if she gets pregnant because although I pull out it’s not a guarantee. 
+She continues saying that if she does get pregnant she’ll either cut contact with me and raise the child herself or I have to dump her which I find is kinda fucked up and makes me think about dumping her. 
+What do you guys think? I’m really at a loss here</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -877,28 +1015,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.028436018</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.2748091603053435</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.4</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>bncwlu</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>AITA for “leaving“ my husband on his birthday. For context: our (I’m 23m he’s 26m) relationship is..interesting. We’ve been together for 7 years. After I graduated high school, he took me to vegas, we got shitfaced and got married. Ans d we’ve been married for 6 years. Our families don’t like each other. We fight all the time,but not like big fights. 
-He always had problem with my childhood best friend(26 m). He never wants me to hang out with him and spend time with him. So yesterday I was with my best friend and my husband called me. He asked me where I was and I said the truth because I had nothing to hide. He just hung up. When I got home he didn’t talk to me. I tried to say sorry. Then he went off. He said that he’s bad for me, he’s horrible person etc etc. I was shocked. He went upstairs and I stayed down. I got few of my clothes and It was late, so I left next morning. On his birthday. I didn’t actually leave him. I just need to calm down. He called and texted me, trying to apologize, but I didn’t listen to him.</t>
+          <t>0.036697246</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>hvhzhg</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>AITA for not giving my sister back her clothes? 
+A little more than half a year ago my sister said she was trans and started dressing more like a guy. My sister was really into fashion back then so she had a lot of clothes she was going to get rid of. She let me pick through her wardrobe and keep some of the clothes I liked and then she donated the rest of them.
+Now she’s saying she’s not trans and wants the clothes I kept back because she wants to dress in something that will make her more comfortable with her body and she can’t afford to replace them. 
+I didn’t end up keeping a lot of her clothes because they weren’t my style, but the clothes of hers that I kept were some of her more expensive things. I actually ended up getting rid of a lot of my clothes because hers were better than mine. I now wear these clothes all the time.
+My sister now says I’m deliberately hurting her and messing with her dysphoria by not giving her back her things so she can dress more feminine again, but I don’t feel like they’re her things anymore and I really like my clothes.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -908,35 +1059,50 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.031007752</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.008077544</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ec4rug</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>AITA for bringing non gluten free cookies that all the kids really enjoyed to a holiday party when my nephew couldn’t eat them? 
-We had an early Christmas party this year with my family because everyone was going to be busy later on in the month. 
-Every year I always make these special types of cookies for my family gathering. Everyone loves them and they always get eaten up right away.
-Early in the year my nephew got diagnosed with celiac disease, so he can’t have gluten anymore. I was told to bring gluten free cookies.
-So, I made a batch of a different type of cookie gluten free along with the regular cookies I make.
-The reason I didn’t make the regular cookies I make gluten free is because in the past when I have tried making them gluten free they become really crumbly. 
-Like so crumbly that a light jostle makes them fall completely apart. That makes putting the outer layer on the cookie basically impossible.
-My nephew ended up being very upset that he couldn’t eat any of those cookies while all his cousins could. They were his favorite too. 
-My brother thinks I should not have brought them at all because my nephew was already having trouble dealing with the diet change at school with his friends and it wasn’t cool he had to deal with it with family as well.</t>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>hqak2n</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>AITA For Not Helping GF During Her Period. My girlfriend is very sweet usually and we have a good relationship. We don't live together (we're only 18) so I don't always see her when she is having a bad period. Sometimes her periods get very painful. When I am around her when this happens, she gets very grumpy. But this time was worse.
+Her mom was away from home for a couple days and she was having a very painful period. She asked me to come over to her house to take care of her and that she didn't want to be alone. I went over. She was pretty rude that evening/night. Some things she did were not that bad but they add up.
+-She never said please or thank you no matter what even when she had me go out to buy ice cream at midnight or after I made her a dinner or whenever I would bring her something.
+-She asked me to bring her something to her while she was in the bath. When I did I told her she looked really beautiful. She said "How the fuck does that help me".
+-She said the dinner I made " tasted shitty". Not saying she has to like it but still. She still decided to eat it.
+-She asked me to come keep her company while she was in the bath as she was lonely. I started talking to her and she said "shut up". She wanted quiet and no talking (which is fine). She just wanted me to hold her hand.
+-She asked me to cuddle her in bed so I did. When she let out a moan in pain I told her "I'm sorry that sounded painful, everything will be ok" and she said "Don't downplay my pain if you don't have a vagina".
+-She asked me to eat her out because she was horny and thought an orgasm would help with the pain. When I was done I asked her for a handjob and she said " Ew no. I'm the one being taken care of here.". Not saying she had to but she didn't have to say ew. She then said she should have just used her fingers so she wouldn't have to deal with my horniness and that it would have felt better anyway.
+-She said multiple times her mom does a way better job at taking care of her.
+-She asked me to play a song on my phone. I couldn't find the song because I heard her say the song name wrong. She let out a big sigh and said "Moron".
+-She rolled her eyes at me multiple times.
+-When I was pouring her dog some food she told her dog " You're lucky he didn't make the food himself"
+-Every night whether we are together or apart we have always told each other good night and I love you. When she said she is going to sleep I said " Good night I love you" and she said "I'm trying to sleep."
+In the morning I told her I didn't like how she was treating me and that it hurt my feelings. She said I have to deal with her and take care of her while she is on her period. She said I was making her pain about me. The period was still bad that day and she wanted me to take care of her again. I went home saying I won't take care of her again unless she apologizes and treats me better. She now says I left her all alone in pain and I'm being a bad boyfriend.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -946,33 +1112,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0323741</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.4197530864197531</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>d7ng7z</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>AITA for not telling my GF that my ex works with me? My GF of 5 1/2 years is super protective of me because I am pregnant and because she is worried I will leave her for someone half her age.
-Currently, I work in admin  for a private school which I love. I'm now helping our year six students and their families transition from our primary school to our high school.   It's excellent work, and my girlfriend understands entirely if I come home from work and don't feel particularly sexy on date nights.
-My girlfriend ( Sara) and I have a great relationship; I get along very well with her ex-husband for the sake of their kids and she gets along with my BFF who is gay and the father of my twins. Sara has met a few of my ex-girlfriends by accident when we have been out and about. She's not stupid, and she knows that I have dated other women before her (none can compare to her).  We love and trust each other enough to know that we are happy and know that we are loved.
-The issue started when one of my team members got another job overseas where her husband is working at the moment. Without thinking anything of it, I wished her well and put out an advertisement on multiple job sites looking for someone to replace her.  I  didn't end up interviewing anyone because Sara  had a nasty motorbike accident where she broke her leg.
-Coming back from leave, I was about four months pregnant at the time, and I was showing. Walking into my office, I was greeted at my door by the Deputy Principal and someone whom I would rather forget. The new person was my ex-girlfriend (Zoey). Zoey is the girl who I was with before Sara, whom I refuse to talk about. I don't speak about Zoey is that she made me choose between my twins and her. I wasn't going to leave my kids, who at the time had chickenpox so she could go to Thailand (yes they had their dads, but that's not the point). So I sent her packing and never spoke to her again.
-I haven't bothered mentioning it to Sara   because  my relationship with Zoey is in the past and I have nothing expect work to tie me to her.  Sara she has just turned 40 and because I've just turned 29, she is feeling a bit self-conscious about herself. because she is older than me and she is  is starting to get wrinkles. I have told her a million times that  I adore her,  whenever she walks into the room I always stop and stare, even if she is in her work out gear and sweating like a pig.
-Right now I am doing everything humanly possible to avoid talking about the new girl at work, I am cooking her favourite meals, taking her out shopping, taking her to spas.  For NY I booked a hotel room for two weeks so I could show her how much she meant to me without the young kids (my twins) or the teenagers (her boys and girl) Basically doing whatever I did to win her over in the first place.</t>
+          <t>0.019607844</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>9w5pci</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>AITA for not encouraging my gf to get plastic surgery? I just don’t really like the idea of her getting a nose job, I think she is beautiful and I hate the idea of her permanetely changing the look of her face. She says she’s had confidence issues about her nose and that if she got the surgery, she’d be more confident about herself, but I just think we have all gone through that right? So idk, I just don’t support her decision and she’s worried that I might breakup with her.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -982,37 +1152,44 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.034858387</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ikt50t</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>AITA for bringing up my "friend's" dead grandpa after he talked about wanting to kill my dad. (First time posting some sort of story on reddit I normally post art and memes n stuff so sorry for formatting)
-So heres some backstory (I wasnt there at the time so I didnt know this happened until my dad told me) my dad was having a walk with our two dogs (1 Male who's been with us before our first dog had to be put down "Chester" yeah brilliant name I know and a female who's been with us since last Christmas "Skye" she was named this so that my youngest brother who is blind would connect with her more as he loved Paw Patrol he still has toys of them) and 2 of my sisters with my "friend". They were minding their own business when a stray dog walked up to one of our dogs (the male) and straight up bit him on the neck. In order to get the dog to stop my dad had to kick it as it could've been a danger to my siblings and "friend" and he shouted at it so it ran away from us, the day after the incident Chester had to have a cone around him so he wouldnt scratch the bite area and me and my "friend" were playing the game when he brought up the incident and told me that my dad should be arrested (I cried at this with my mic muted since I love my dad) and how he wouldve picked up his pet and just ran instead of trying to defend himself from it. So I kept quiet and waited for the topic to change.
-Into the proper story that happened a couple hours ago:
-Me: The one and only
-F: "Friend"
-So we were just playing a game and chilling when he brings the dog topic up again
-F: "If murder was legal I would kill your dad."
-After that comment I thought I was gonna straight up cry 
-Me: "what about your grandpa what would he have done"
-Please note he got offended by this and started crying off mic, I thought it was fair since he was talking about wanting to kill my loved one, he wasn't even joking aswell, that I spoke about someone in his family who he never got to meet. And then he left, I knew that I shouldn't be friends with him for ages since all he does is abuse me in games and also insults me but for some reason I kept giving chances. 
-People of reddit please tell me, AITA?</t>
+          <t>0.028880866</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>fmzv47</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>AITA for not approving of a weird contest between my GF and her mother? I believe my (31M) girlfriend (35F) has a weird relationship with her mother (65F). They seem to share quite a strong mother-daughter bond, but at times my girlfriend shows signs of suffering from some kind of psychological complex. She hardly grooms herself properly when she is with me. It does not matter too much because she is extremely good looking. However, whenever her mother dines with us, she dresses up quite exquisitely. Her mother keeps calling her "my beautiful princess" instead of Bianca. 
+My GF's mother rarely cooks at home; her father does all the cooking. My Gf often ridicules her mother's aversion for cooking. Last month, her mother declared that she has great culinary skills but never puts them to use because of her "laziness". Bianca, who is an excellent cook herself, challenged him to a cook-off. They made a weird bet. The winner could ask the loser "anything" of her choice. I began to feel greatly uncomfortable.
+Over the past month, they competed thrice. Each time MIL came visiting, the daughter would take her to the kitchen and they would make one dish each, and ask me to judge. They gave me no clue as to who made what. I was in a difficult position. I implored my GF to drop me a hint, but she looked straight at her mother. She gave me no clue even when we were alone.
+I had to judge the food based on the quality alone. Once, I declared my verdict, they would not even let me who "won". They would just look at each other and smile. My GF replied that I would get to know the eventual winner at the end of this month. I went through great emotional strife each time I was called upon to judge.
+Yesterday night, my GF wore a leopard skin when her parents came over to our place. She kept looking at her mother and giggling in a strange manner. She also sat next to her at dinner. Her mother smiled occasionally too. Mom asked her princess about her experience of "losing". My GF replied that she felt "ashamed but proud". I told my wife's mom straight away that she hadn't defeated her daughter but rather her daughter must have let her win.
+Later in the night, she confessed that I had judged her mother's dish to be better each time, and she had lost fairly and squarely. She personally felt that her mother's dishes were better too. She kept on insisting that she did not lose intentionally, but was beaten fair and square. I asked her to get over her creepy mother fixation but she wouldn't listen to me. She called me a "cry baby" and a "sore loser".
+She often loses to me at chess but I only get a congratulatory kiss. She never gloats over my success. Isn't she fixated to her mother?
+**Conflict**: My GF insists that I denied her mother the joy of winning by claiming that my GF lost intentionally. She also does not find anything weird in the bet she made with her mother. I find everything so creepy. Who is TA here?</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1022,30 +1199,44 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.038674034</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9713114754098361</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ap6uj3</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AITA for telling my sister than my nieces ear infection is not an emergency room visit? My sister has 2 children a 1 year old and a 4 year old. Almost every other weekend she is at the pediatric emergency room for things that she could’ve easily contacted her pediatrician for. 
-My niece has some puss coming out of both ears and a low grade fever. I told her that she doesn’t need to go to the emergency for that, that all she needs to do is contact her pediatrician and she became offended. She says that her pediatrician is not available after hours and doesn’t have available appointments for a while. I honestly find this very hard to believe and told her she needs to find another pediatrician.  
-Sometimes I feel that the only reason she goes to the emergency is to take a break form her home life because she is so overwhelmed. My nephew is Autistic and her husband isn’t really supportive. 
-</t>
+          <t>0.040169135</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01093256059009484</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>jncy5t</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>AITA For telling my wife she's the reason she's not invited to her daughter's wedding? 
+I M43 been with my wife for 4 years. I have a 19 year old stepdaughter. She suffered a lot during her parents divorce and she hasn't gotten therapy til I came into the picture that's when I noticed how depressed she was was. 
+She used to yell and argue all the time. She was harsh and hostile towards me. But that changed when I started fixing her problems one by one and it turned out she needed healing and being heard and understood. We now have one of the few best relationships I have in my life. I appreciate the efforts she's made to be who she is today.
+She told me and her mom that she was going to get married to her boyfriend who she knew from high school. Her mom got mad at her for wanting to get married at this age and while in college. Even though my wife got married for the first time at a young age and had rough times trying to make a living and raising a kid.
+She lashed out at her daughter telling her to drop it but my stepdaughter called her selfish and controlling and that she shouldn't try to enforce her opinions on her and decide when she should get married. Her mom gave her an ultimatum and said she'd disown her if she went through with her desicion. My stepdaughter stopped talking to her ever since and my wife said that from now on she doesn't have a daughter.
+I thought that was too much for my stepdaughter. I stayed in contact with her and after a few weeks my stepdaughter sent me a wedding invitation I gotta say I felt a little hesitant thinking about my wife's reaction but my stepdaughter told me she felt hurt and alone as her wedding approaches when she is supposed to be happy and excited. She even cried when she spoke with me on the phone last week.
+My wife found out and lashed out at me because the invitation had my name only and berated me for wanting to go support my stepdaughter and was upset that her daughter ignored her and didn't even call her to invite her to the wedding.
+I flatout told my wife she should've handled the situation better instead of driving her daughter away like that but my wife accused me of supporting my stepdaughter's callousness and selfishness and told me not to go long as she isn't going. I called her unreasonable and clearly she's mad at me for not calling my stepdaughter and berating her for not inviting her mother after she disowned her.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1055,32 +1246,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.04137931</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0.8333333333333334</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>f1j81g</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>AITA for saying this about my co worker? I work in a small office with couple of co workers. 
-I haven’t been getting along with one lately as she acts like I’m not smart or that I’m not good at my job. She also thinks I was given everything on a silver platter and has said that multiple times. 
-I work hard and the other day she made a comment about how I should just do my “little” work and laughed. 
-I was fuming. My co worker asked why I was upset and I said “nothing. Who cares what she thinks. One day I’ll be something big while she is still working here” 
-I’m going into a masters program next year that’s when I leave the job. 
-My co worker has been telling everyone what I said.</t>
+          <t>0.035928145</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>hql2q4</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>AITA for being mad that my gf adopted her sister without telling me beforehand. I(20m) live with my gf(21f) who has a sister(14f)
+Yesterday I came home from work to find my gf and her sister sitting on the couch. I ask why she’s here and apparently her mom has been neglecting her and she needed somewhere to stay and my gf took her in. My gf knows that I think her sister is annoying but still invited her to stay.
+I ask why she didn’t tell me first and she said that it wasn’t planned and she had to make sure her sister was safe. When I tell her that she needs to ask before doing something like this she said that she tried to call me even though I told her awhile ago that I can’t get a phone signal at work. I am very mad that she did this aita</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1090,29 +1288,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>kcmzib</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>AITA for using a friends drawing as my profile pic without asking. One of my friends made a digital recreation of a drawing I made of myself as an anime character. It’s a cute drawing so I decided to use it as my profile pic, when one of my other friends saw it she claimed I “stole” the artwork since I didn’t ask to use it. I don’t really see the issue as it’s a drawing of me and I never claimed to be the creator of it.
-I’m not known for making digital art(I haven’t made a single digital drawing) but make plenty of hand drawn peices. My friend has been going around telling people that I steal art.
-AITA for making the drawing my profile picture</t>
+          <t>0.045045044</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9863842662632375</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>cjudzm</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>AITA for convincing my little sister she was adopted until she was 12? I’m the oldest of 3. My grandmother kept a wall of pictures of all her grandchildren and great grandchildren. The older she got the more she forgot to update the wall. My little sister asked one day when she likes like 6... why she wasn’t on the wall... I told her she wasn’t on the wall because she was adopted... And if she told my parents she knew they would give her back.... she finally let it slip that she knew when she was 12...</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>writing_sty_focus_i_poss_norm</t>
+          <t>liwc_female</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1122,26 +1328,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.0591133</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0.07303370786516854</v>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>bkx2rp</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>AITA for missing my child's birth to play a poker tournament? I am a professional poker player and that's how I provide for my family and I had to make a decision whether to attend the birth of my child or play a poker tournament with significant potential for earnings. 
-&amp;amp;#x200B;
-My wife and I talked at length about this and came to the conclusion that my skill edge over the field of other players in the tournament means I'm likely to win a lot of money. 
-&amp;amp;#x200B;
-So the decision was basically to either miss my child's birth and make a lot of money to provide for them later or miss out on this tournament in which case I'd have to travel away while my child is growing up to play less profitable tournaments. 
-&amp;amp;#x200B;
-So my wife and I concluded that it's prudent to miss the birth and be with my child while he's actually growing up. I can't stress enough that I had my wife's FULL SUPPORT in this decision. However I'm still being shunned by the community for apparently being an asshole for missing my child's birth. AITA?</t>
+          <t>0.06140351</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>n2wjkt</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>AITA for calling someone mom though they're not my mom? I told my dad's that I loved her this morning and made her breakfast. I also started calling her mom. She hugged me and told me she loved me like her own daughter.
+Later, my dad pulled me aside and told me to stop calling her mom because she's not my mom and because she doesn't know if she wants to be called mom, even though she's the only maternal figure I've had in my life (my mom left me as a toddler). 
+AITA? She seemed happy to be called mom earlier this morning.</t>
         </is>
       </c>
     </row>

--- a/feature_analysis/Jupiter Notebooks/feature_samples.xlsx
+++ b/feature_analysis/Jupiter Notebooks/feature_samples.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,20 +498,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.041025642</t>
+          <t>0.0070588235</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>0.0358480749219563</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>efpfac</t>
+          <t>bml5l1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AITA for trying the change my friends NYE party plans? Last time my friends and I were out my long term partner suggested we have a small NYE party. I went along with this and we had the basis for a gathering. Tonight my partners boss, and close personal friend of both of us, told me that he can’t come as his husband is planning to throw a party at theirs. He really wants us to go to his party and so invited my friends along too. It’s not far from my house, and my original guests would have been travelling regardless so it doesn’t negatively affect them that way, but I’ve been made to feel like an asshole for suggesting we attend a bigger, and far more well catered party than anything I could/would have provided. I hadn’t made any specific promises other than hosting the party so I’m really not sure where the difference lies here, and I’ve explained that this works better for me as it allows me to satisfy a few social obligations at once. So not sure what to do.</t>
+          <t>AITA for not hiring someone based on how they treated me in high school? A little bit of background. I am the sous chef of a small farm to table restaurant about 30 miles from where I grew up. The executive chef an I have a system for reviewing applicants; I conduct the first interview, and if I think they have potential, I set up a second interview with the executive. We have worked together for years and he trusts my judgement.
+Last week, I had an interview with a name I immediately recognized, lets call him Jake. Jake was in my high school graduating class, and for the good part of junior and senior year he made my life hell. Now I wasn't particularly popular in high school, but I was never bullied, except by this guy. His favorite thing to do would be to loudly insult me in front of his friends, then force me to leave because I wasn't cool enough to be around his cool friends. This happened at lunch, gym, assemblies, and sporting  events. I distinctively remember one football game where he kept telling everyone how much weight I had gained recently, calling me a fat fuck and making me sit in the bleachers on the other side of the field. I still think about that stuff today to be honest.
+Fast forward 10 years later, and he is sitting in front of me interviewing for a job. I decide to not bring this up, and he never mentions any of it. His interview actually went really well, and he had a pretty good resume. But before we even start talking, I know I am not going to hire this guy.  I finish the interview, tell him I will be in touch, and he leaves. I later call him and tell him we accepted someone else for the position. 
+As i was driving home I started to feel a little guilty. This guy was definitely qualified, and we don't see too many applicants being in a small town. High school was 10 years ago, I know I was a different person then, and maybe Jake has changed for the better. 
+Am I wrong to judge someone for their actions so long ago? I definitely feel like a bit of an asshole, but honestly if I had to work with him again it would bring up a lot of memories I try not to think about anymore.</t>
         </is>
       </c>
     </row>
@@ -533,29 +537,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.0259366</t>
+          <t>0.0024390244</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.1671759057180271</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>90wxrz</t>
+          <t>di00uq</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AITA regarding my living situation with my sister? Alright, so ill do my best to shorten this up as much as possible even though i could go on and on about it.
-About 7 months ago, my wife and I moved into my sisters place with her boyfriend and baby, She wasn't my first choice but they needed help with bills and we needed to catch up as well, so we figured it made sense. The first day we moved in, we were told about a rule they had about flushing the toilet past 9 PM, since it would wake up the baby. Now to share both sides, her baby can be a light sleeper so i can understand some noise restrictions. These type of restrictions got worse and by 2 weeks in, we were getting daily text messages about how loud we're being and how inconsiderate we are.  We weren't allowed to make food past 8 Pm or whenever the baby was asleep, same goes for doing the dishes or leaving the house since the door made too much noise. 
-Along with all of this, they're very messy people and take serious offense if you bring it up. I was usually left with most the cleaning, however to tell both sides fairly, i was unemployed at the time so i didn't mind helping around the house. That being said, my issue was that they never cleaned or kept any upkeep, if all the dishes were dirty and the sink was full, they'd just get fast food to avoid it until i got to it.
-they have an indoor dog who pisses and shits everywhere around the house, usually i'm left to clean this mess up as well. Whenever i confront them about our living situation, they give me a very typical "if you dont like it then leave" and then an argument usually starts. 
-So i have to ask, am i crazy here? Am i really just the clean freak loud ass roommate who's causing all the problems?</t>
+          <t>AITA for reporting two people with developmental disabilities for inappropriate sexual behavior in a parking lot? So I was leaving the parking lot at the gym this morning around 6:00. Sun was not up yet, and it was still very dark. As I was walking to my car, I noticed to people standing between two parked cars, right near where I had parked. They were kind of hiding, kind of not. 
+The two people were embraced and half-pecking at each other, half-kissy talking. The female obviously had Down Syndrome, and the male had obvious developmental disability(ies), which were noticeable by his facial structure and the way he spoke. I honestly have no idea how old they were. Maybe they were in their late teens/early-20s? Honestly, I’m not sure as it can be difficult sometimes to gauge age for folks with disabilities. As I got closer, I realized the girl had her hands down the guy’s pants and was stroking him off. Or, maybe she wasn’t stroking him, but she definitely was touching his area. 
+I kinda freaked out and wasn’t sure what to do. I went back into the gym, notified the security guard, pointed out their location, and left. I don’t believe they got into any real trouble, as I just notified a security guard and not the actual police.
+The whole situation made me feel very uncomfortable, but I’m not sure if I should have/could have handled it better. It’s kind of been bothering me all day. Honestly, I don’t know that I would have notified security if they didn’t have disabilities...but I also am unsure that two people engaging in the same activity would have been doing that out in the semi-open in a parking lot...I feel like they would just be in a car or something. 
+I was also moderately concerned that maybe there was a significant age gap or gap in cognitive abilities, and didn’t want either of them to be taken advantage of. And then, there’s the other side of me that used to be a teacher...sometimes, people with disabilities “get away” with things because people are uncomfortable correcting their behaviors. But, because their negative behaviors are never addressed, they aren’t taught that those behaviors are wrong. So I felt like maybe their behaviors needed to be addressed and corrected? I dunno. 
+I feel like an asshole...but AITA?</t>
         </is>
       </c>
     </row>
@@ -577,29 +582,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.035519127</t>
+          <t>0.010362694</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.1739130434782609</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>czf0qe</t>
+          <t>ck8gpx</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AITA My mom’s a pastor and I’m a closeted athiest. Look, to be honest, I’ve never confessed to anyone. I’m supposed to be the goodie two-shoes smart athletic funny kid who is a good christian, loves his parents and siblings and only masturbates once a month.
-But lately, things have been different. Mom recently got a new job as a pastor, she completely dropped teaching over the summer and we all had to make sacrifices for her so she could do it. That was fine, I still got to hang out with my friends and have fun playing Super Smash Bros Ultimate and Magic: The Gathering. But only recently did I stop believing in god. Why I did is a story for another time, but here’s the real reason this is ok R/AmItheAsshole.
-I hate Mom. She’s self righteous, always “knows whats best” and is always yelling at me. Every single thing I do wrong I’m reprimanded for, from not letting out the dogs often enough to not turning in my absent slip for school. All my friends have their own lives, things they can do individually while I’m stuck playing pretty boy for mom. And this makes me want to leave. Of course, I’ll graduate high-school first, but right after that I’m packing my bags and moving to some big city with a scholarship for college. I want to do my best to cut them out of my life. Just thinking of spending the rest of my life settling down here in country-bumpkin-U.S.A makes me want to hurl.
-But really my dad doesn’t deserve that. And what if my mom’s “I love you more than you can understand” excuses aren’t excuses? I’m hurt, I’m confused and I’m keeping it all pent up. I’m literally shaking right now. 
-If you have questions or want me to go more in depth, I’ll do my best to answer them. Really this might just a confession, but I need other input. I know, my problems aren’t as bad as others, and I shouldn’t be speaking out at all, but it’s just... I just... I can’t. I just can’t. Help.</t>
+          <t>AITA for getting mad at a cashier for short changing me? So basically, I ordered some food which costed me 15.50. Thus, I gave the cashier $17 in the form of a 5 dollar note, a 10 dollar note and a 2 dollar coin as I didn’t have a 1 dollar coin. The cashier then gave me back 50 cents in change. I was like: erm you gave me less change, I gave you 17 dollars. And she was like no you didn’t, I did not see the coin at all. 
+I was extremely positive I gave a $2 coin as I had already prepared it and taken it out of my wallet and it’s size is distinctly much smaller than a 1 dollar coin. I continued saying that I was pretty sure I gave you $17 but she refused to budge saying that she does not see the coin anywhere. There was a line behind me so I reluctantly left but I then complained to my mother who told me off for getting mad because it’s only one dollar. So aita?</t>
         </is>
       </c>
     </row>
@@ -621,34 +623,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.010434783</t>
+          <t>0.0078125</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.8220338983050848</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>axy05t</t>
+          <t>d1grl0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">AITA for consentually "copying" homework and getting graded for it? When I was still in school, I was getting really good grades without doing much for it. I barely studied for it and forgot my homework all the time. One day during break, a girl in my friend group, Laura, started talking about our native language class homework and I realised that I had forgotten to do it again. I asked if she was okay with me copying it. We did this all the time, letting friends copy homework and tests. Laura said sure I could copy it, as long as I changed some things up. 
-&amp;amp;#x200B;
-&amp;amp;#x200B;
-During the next unrelated subject, I started reading what she had written. I hated it. It was supposed to be an analysis of a text we had talked about, but it read more like an overview, so I actually didn't really use it. I got out the source text and actually did an analysis that went more in-depth, complete with quotes (Laura didn't have any), writing three times as much as Laura had. Next lesson was the native language subject. Now our teacher wanted to talk about the homework by having one student read our their work out loud, and dissecting it sentence by sentence, having the whole class have a discussion about it. He picked me to read what I had written, and I did. In the end, he said that my analysis was spot on so I joked that he should give me a good grade for it then (teachers here can sometimes grade a student on quality contributions to a lesson). He said "why not, actually".
-&amp;amp;#x200B;
-&amp;amp;#x200B;
-I was feeling good until my friend next to me whispered "Laura isn't happy about this". Laura looked shocked and angry. So after the lesson I walked over to Laura and said "Hey, I hope everything's okay between us." and she said "no, you stole my grade." I explained to her that I had planned on only copying her homework, but through reading what she had written I remembered what it was about and wrote my own analysis. I said when I read it out loud she must have noticed that it was pretty different than what she had written. Of course though, there were some similarities because we wrote about the same source text, but we shared these similarities with probably every other student. She was so angry still and apparently started bitching about me the entire day and the next. 
-&amp;amp;#x200B;
-&amp;amp;#x200B;
-In order to reinstall the peace between us, the next day I asked her what I should do and she said I should talk to the teacher and make him give her this grade. She apparently had done pretty awful in the last tests so she hoped she could improve her final grade. I actually went to the teacher to talk to him about it. I can't believe I did it in hindsight, because it's like I acknowledged I did something wrong. He was pretty confused about what I wanted from him, and he told me that Laura never contributed to the lessons, and I did almost every time, so she didn't deserve it, and that was the end to it. I told Laura what he had said, but she went on to hate me and bitch about me until we graduaded. </t>
+          <t>AITA for not moving for a stranger to take a picture? So I have been thinking this the whole day. Today I visited a super cool archeological site and in the museum they had a scale model of the site made totally with Lego stuff, and it had A LOT of Easter eggs (Athens Acropolis in case you are wondering, super cool). The "map" of the model was on a wall and with quite small letters so I was going back and forth between the map and the model to find everything, and also walking around the model. Suddenly this 60 yo lady tells me with a very entitled tone of voice "excuse me we are trying to take a picture here", she wanted apparently to take a picture of the model without any people. 
+I am usually a VERY polite person even with strangers, but the way she said it really got me. So I pretended I didn't hear and continued to do my thing. Lady got super upset, told her husband some stuff in other language and left. I felt kind of bad cause I have always had this "respect your elders" thing in my head, but at the same time I was thinking that she acted like an entitled Karen and she could have asked nicely. We paid the same money to be there and that gives us the right to see the stuff, not to demand privacy to take pictures. 
+AITA?</t>
         </is>
       </c>
     </row>
@@ -670,26 +665,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.009009009</t>
+          <t>0.0073891627</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ay5hwu</t>
+          <t>jmxpix</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">AITA for snapping at a friend for posting a naked dead man on Snapchat? I woke up this morning to a snapchat from my best friend saying ‘Don’t look at my snap story there’s a dead guy on it and I know you don’t like seeing dead things’ so of course I immediately looked at her story and she has quite a few pictures and videos of a naked dead guy laying in the park surrounded by police. Basically the story was the man washed up in a river dead and police were surrounding the body looking for clues I guess? In one of her snaps she focuses on the mans genitals and says ‘why are his balls so big though’ and then her last snap says ‘the police yelled at me to leave’ 
-I immediately sent her a message saying ‘Why the fuck would you put that on Snapchat that’s so disrespectful what is wrong with you?’ Which she opened and never replied to and we haven’t spoken since. I was so disgusted at what she had done immediately but the more that I think about it I don’t know? Am I the asshole for snapping at her? Is she the asshole for posting it on Snapchat? </t>
+          <t>AITA for not taking lunch on time despite the fact we were super busy? I (3?m) work at a grocery store as a checker and the front end manager today is our usual one, I. She always rearranges the schedule when it looks as if we were going to be shorthanded at a particular time. I actually like her when she does this, because if she doesn’t, we end up getting shorthanded a lot.
+Just now, I was supposed to take lunch at 1:45, but we had two other checkers, C and S, coming in at 2 o’clock. Just before I was supposed to take lunch at 1:30, another checker, A, left for her break and I naturally assumed she would get me out.
+However, when she got back, lines were pretty long, and A went back to her regularly scheduled checkstand. Looking at the roster, I then assumed that either C or S would get me out at 2 o’clock, 15 minutes late for my lunch, but still within reason. So I continue to check to get the lines down because I didn’t wanna leave A or D, another checker, shorthanded.
+A few minutes before two, I receive a phone call from I and I’m assuming that she was updating me that either C or S would get me out. Instead she yells at me over the phone that I was supposed to take lunch at 1:45 and that I knew better. Keep in mind also I’m on express, and I’m not allowed to leave until someone gets me out. She tells me to get out, but I tell her that I have a long line and I can’t get out. She then comes in from self check and tells me to go and take lunch.
+The way she made it sound, I really screwed up. However to me, I always put customers first before any breaks or lunches. If I’m late for lunch, I’m late for lunch. I’m of the mindset that the needs of the many outweigh the needs of the few. In that sense, the mini were the people wanting to get their items checked out and to leave, and a few with me saying that I can wait for my lunch.
+Does not taking my lunch on time and helping lines go down make me an asshole?</t>
         </is>
       </c>
     </row>
@@ -711,12 +710,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.039215688</t>
+          <t>0.0071174377</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -724,18 +723,16 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>czolr4</t>
+          <t>ckaysf</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AITA for refusing to lend my car to a relative I don't know? I, (18M), have been gifted a few months ago as a gift for passing my drivers license a car by my parents. I'm really grateful for it and I use it all the time to see my friends, do groceries etc...
-Two days ago we had lunch at our house with relatives and I met my mom's cousin (I'll call her Carol). She is around 50 years old and is a single  mother of 4, ranging from 10 to 20. I had never met her in my life even though she lives 20km from our house.
- She was supposed to come to the house today to enjoy the pool with her kids but her car broke down. 
-My mom wants me to lend her my car for a week or so because "She has 3 kids she needs to take to school and she would need to take the bus and the subway to go to work"
-I said I didnt want to because I didn't know her and wasn't comfortable sharing it with someone I've only met once.
-I don't really need the car, school hasn't started yet but it'll be a pain if I have to give it away because I had plans for this weekend and the buses stop early so I won't be able to see my friends I haven't seen all summer
-So AITA?</t>
+          <t>AITA FOR NOT PAYING FOR THE DATE LAST NIGHT? I'm (49M) recently divorced, and met up w/ my date (52F) in a live music venue and hit it off, we exchanged numbers, and I asked her out on a few different dates, and each time we went out I instinctively paid for all our ubers, drinks and meals, and did this each time we went out.
+So last night she had asked me out and suggested I pick the venue, so I came up with a great hole in the wall bar/restaurant near where she worked. Since she got off of work earlier than me, and I was still fighting traffic to get to the restaurant, she said she would get the last 2 seats at the bar and offered to order us drinks. Once I get there we talked and she said she was hungry and did I want to split a meal, I did.
+The whole evening we again had a great time. then when it was clear, the night was winding down I motioned to the bartender to bring us the tab and the bartender obliged at which point I thanked my date for the food and drinks.
+That's when things got a little 'weird,' she gave me a quizzical look, that sent the message, that I should be offering to pay the tab. Mind you she asked me to this date, and opened the tab, gave her CC information to the bartender and ordered us drinks. So I just assumed she was paying for our meal and drinks this time.
+How could I have handled the situation differently?</t>
         </is>
       </c>
     </row>
@@ -757,33 +754,33 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.010362694</t>
+          <t>0.008928572</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.03546099290780142</v>
+        <v>0.0007374631268436578</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>bsvfvn</t>
+          <t>c74yqv</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>AITA for lashing out at a girl who has been trying to flirt with my boyfriend? Hi all. 
-My boyfriend Tom and I are on holiday in Cyprus and were having a lovely time. A few nights ago we befriended a group of girls who were staying in the same place. They were around our age and from the UK like ourselves. They are uni students and while I won't name drop, there aren't any better places in the UK than the uni they go to. One of them, Amanda, is absolutely gorgeous. She is an economics student and at first seemed really nice. However, the second night we spent drinking with them she offered to get us drugs. We laughed it off and dismissed it but I was tired and called it a night. 
-Tom came in 10 minutes later saying that as soon as he left Amanda asked if he would like to sleep with him now that I'd gone. He pointed out that he had a GF but she responded ''So?''. He told her what she could do with her offer and left. 
-Yesterday afternoon we were in the pool when Amanda's and her lot turned up. Her friends all jumped in the pool but she was wearing a summer dress and wedges so chose to just hang around on a deckchair and chat to them. From how she was acting she was clearly under the influence of something. 
-She kept blowing kisses at Tom which we both tried to ignore. In the end it got too much for him and he jumped out to tell her to give it a rest. I followed him. She tried to kiss him on the cheek but he pulled away, and then she went for his lips but once again he pulled back. At this point I went mad at her, and started swearing at her. She got into my face and started giggling and asking whether having a prettier girl interested in my man made me ''insecure'' and saying that surely if I trusted Tom then I wouldn't feel like this. Everyone was staring and staff were coming over to diffuse the situation.
-I was so angry and lost it and shoved her. She stumbled on her heels and fell into the pool. 
-She got herself out but she was screaming and crying, saying that her dress was ruined and that I now owed her £2000. Her friends walked her away and we had to explain ourselves to the staff. 
-Early this morning one of her friends banged on our door, and when I opened it said Amanda's parents want my number so they can discuss refunding the dress with them. She said that the designer dress was completely spoiled by being in the water and that her parents are fuming. I slammed the door in her face but am panicking. I don't have that kind of money especially after the cost of the holiday. I don't know how I'm supposed to pay it. Tom offered to help me but I don't think that's fair on him. 
-I do feel bad about pushing her into the water. Obviously she could swim well enough to get herself out, but I didn't know that. I didn't mean for it to happen. I shoved her on impulse and wasn't thinking of the pool behind her.</t>
+          <t>AITA For going off on two old ladies for putting their hands on me? I’ll try to be descriptive but I have a co worker who browses this sub a lot so I don’t want to give myself away. 
+I was doing a really simple job where I just had to put some posters up around the workplace with this other girl when these two old women came up to me.
+One started telling me I was gonna get in trouble for doing that and I was confused so I just told her,
+“Doing what?”
+She then started saying stuff like she was gonna report me, tell my manager yadayada, then when I started walking away she asked me directions since the place I work at is confusing to walk around if you don’t know where you’re going, and when I tried telling her she kept cutting me off going on again about getting me in trouble. 
+She and the other lady then grabbed not just my shoulder but the shoulder of the girl who I was working with, for me the grab was not too hard but it was firm enough for me to tell she was putting some force into it. I wouldn’t care if it was just me, but the other girl was not only just a high school sophmore but new at the job so I got a little mad and grabbed the ladies arm off of me and sternly told them.
+“Get your damn hand off of us.” As angrily as I could. 
+The people who had been watching this whole time then started to intervene and afterwards I was just told by my boss next time try not to escalate a situation if something like that happens again.
+I got some concerning looks from other people, some of them even asked the old lady if she was ok which made me think, am I the asshole?</t>
         </is>
       </c>
     </row>
@@ -805,12 +802,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.026737968</t>
+          <t>0.004716981</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -818,17 +815,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>at3atj</t>
+          <t>ayzo2w</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>AITA for telling my dad that I don't want my mom to live with us again? Throwaway because I don't want to risk getting identified by people i know who use reddit. Last year my dad discovered that mom had been cheating on him with one of his close friends. The only reason he found out is because his friend's wife snooped through her husband's phone and found old convos between him and my mom. my dad was hurt and devastated like i'd never seen before and that affected me deeply. she had been cheating for almost a year apparently and in the months leading up to them being found out my dad's friend was trying to break the affair off. This explained a lot of things that were going on at home. My mom had been acting very aggressive and was extremely unpleasant to be around during this time. she said some very hurtful things to me due to my appearance (i am overweight), me going to community college because i couldn't get into a decent uni and my lack of friends/social life. 
-My dad kicked her out of the house not long after the initial shitstorm. Mom went to live with my aunt and she's been there ever since, but yesterday she called dad and told him that she needed a place to stay because her sister was going to move and wants mom to get her own place. She said that she can't afford an apartment right now and that she wanted to come live with us again. My dad told me right off the bat that he had no desire to live with mom again but that he wouldn't keep us separated if i wanted her with us again. 
-I haven't spoken to my mom since the day she moved out. She sends me texts every now and then but they're always ridiculously long and I rarely read them and I've only replied a few times. To be honest I am still very hurt due to how she treated dad and how much she hurt him by betraying his trust. I am still very angry at how she took it out on me and dad when her affair was going sour. I am still very angry at how depressed and anxious i felt because i thought that there was something wrong with me, that i was making her unhappy and that's why she was constantly attacking me and putting me down. i don't think i can ever forgive her for the way she treated us because the man she was fucking  wanted to end things and she didn't.
-i told dad right away that i didn't want her anywhere near the house again. that i wasn't ready to be around her again. 
-but last night i had a lot of trouble sleeping. i feel guilty and petty for saying no, and it makes me fucking angry that i even feel this way because i truly do not want to see her again. i hate feeling responsible for what happens to her. I am dreading having to work today while feeling like this. 
-do you think i am taking things too far by telling dad not to let her live here again?</t>
+          <t>AITA for cutting my friend off “cold turkey” for continuously saying they want to date me? Made a friend roughly 6 years ago and we hung out all the time. At one point, about 3 years ago, I brought up the idea of us dating. She turned me down politely because she just entered a new relationship. Things continued on as normal.
+Now, 3 years after, we’ve drifted a part a bit.
+We only really each other up maybe once a month and hang out even less than that. Both of us are in relationships with other people.
+A few of weeks ago, we finally ended up meeting up and at the end of our hang out, she “confessed” that she has a crush on me and wants to date me. This completely blindsided me as we had been drifting apart and there was no indication of romantic feelings.
+I basically let her down friend-zone style as nicely as I could, and reminded her that we’re both dating other people. Night ended on a weird note.
+Ever since then, she has texted me consistently asking what I’m up to or to hang out. I’m very busy so I have to keep declining. Then on Valentine’s Day I receive a not-so-cheap gift from her, and she texts me again that same night asking to hang out... on Valentine’s Day... while neither of us are single.
+Then a few nights later she tells me again that she has feelings for me and wants to date me. I basically repeat what I said before.
+Then *again*, the other night, she asks me how i feel and wants to know if I’ll date her. At this point I’m irritated and tell her that I don’t know what else to say- I’m in a happy relationship and I don’t want to date her. She responds with a very lengthy text explaining her feelings for me **again** and just wants to know if there’s a future for us.
+I didn’t respond, and haven’t responded to her texts since. I’ve been ignoring her on every form of social media as well. I feel awful about basically ghosting a long-time friend but I felt like I was speaking with a broken record.
+TL;DR: long-time friend continuously asks me to date her despite both us of being in relationships. I turn her down each time but she doesn’t stop asking, so I completely cut her off.
+AITA?</t>
         </is>
       </c>
     </row>
@@ -850,27 +852,33 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.029962547</t>
+          <t>0.009302326</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>g15yrc</t>
+          <t>cpzrk1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>AITA for refusing to dress differently for my Mum or compromising by asking that she take an arbitrary piece of jewelry off? During high school, I (F) was experimenting with my style and found that I was more comfortable in men's clothing. I started wearing suites a lot and love colorful ties and bow ties. My Mum is super conservative and obsessed with gender roles and went a while where she couldn't look at me without crying. When I decided to shave my head she wouldn't even look at me. 
-Eventually I started seeing her again but she is always twitchy and nervous, solely due to the fact that I was wearing men's clothing. She refused to even talk to me until I took my tie off, which is really upsetting to me, and I was tired of bending to her whims, so I told her that I would not take my tie off unless she took her bracelet off, which she was visibly hurt by. She said that I was being unreasonable and silly, and that she just needed time, yet she has had over two years by now. She still won't even call me by the correct name.
-I feel guilty whenever I kind of prod her into accepting me, because she seems so fundamentally hurt by who I am. AITA for not wearing women's clothing around her and making her take off something if she wants me to take my tie off?</t>
+          <t>WIBTA if I asked my wife to deposit most of her collection of interesting currency?  My wife works at a bank where she handles at lot of currency. I found out recently that when she sees an interesting bill or coin, she will set it aside in her till, then later withdraw the amount from her account and keeps the currency. She has always had an interest in coins and has a small collection (20 - 30 dollars’ worth of coins) from before our marriage. The coins and bills in her collection are not rare or valuable, just interesting to her. State quarters, gold dollars, etc.
+A month ago, I found out she has been increasing the size of her collection at a rate of \~100 dollars per month. When she told me, I was less than pleased, and asked her to deposit most of it back into the bank. We had a calm argument about it, and we agreed that she would do some extra side jobs to offset the cost of her collection. However, she has not done anything extra in the past month, so I was thinking of (firmly) asking her again to deposit most of her collection. WIBTA if I did this?
+&amp;amp;#x200B;
+Here are some helpful details:
+* We have an agreement that if a purchase is over $25, we need the other to agree before we buy it. If it is under $25, we don’t have to tell the other. She argues that all the bills were $20 or under, and as it is money, she did not “buy” anything in the first place. I argue that the agreement applies to the full value of the item, even if the individual parts were purchased in separate transactions. I am not allowed to spend her collection; therefore, she did “buy” it.
+* The amount I am asking her to return is roughly one months’ worth of living expenses, minus rent.
+* She argues that it would serve as an emergency fund in the house. I argue that it would be safer in the bank, as well as gather interest.
+* We are college students about to graduate and are both working for the summer. She will continue to work in the fall, while I will be a full-time student working on my master’s degree.
+* We are living frugally and will finish school with no debt. We plan on having children and buying a house in the (hopefully) near future.</t>
         </is>
       </c>
     </row>
@@ -892,12 +900,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.04310345</t>
+          <t>0.010067114</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -905,18 +913,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>bn5fcv</t>
+          <t>d6whup</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>AITA for telling my daughter not to send a video apology to her friend's mom? First post! Let me have it!
-A few weeks ago my daughter's (14) friend (15) came out to his mother as pansexual. His mother's response was to take him to church to be shamed by the pastor. He told his friends about it via a group chat during which my daughter called the mother a c***.
-Long story short, the kid's mom read the chat and was angry with my daughter. She demanded my daughter apologize or she won't let them be friends anymore, but she'll accept nothing less than a VIDEO apology. My daughter doesn't want to apologize at all and came to me for advice on how to proceed.
-I told my daughter: "You should probably apologize for hurting [the mom's] feelings, but I'm not comfortable with you sending a video apology because that's just weird."
-The mom got wind of my feelings on the matter and implied I'm being a shitty parent by undermining her demands for an apology. 
-I agree that my daughter should probably apologize if she wants to continue the friendship without the mom acting like a total hag towards her. However, I really think the video thing is over the top. 
-Am I the asshole?</t>
+          <t>AITA for ignoring an (ex?) friend who is actively trying to apologize. Friend, Sara, and I have been friends for the last 13 years. She hasn’t had the easiest life and because of this I’ve always felt our group has given her a pass on a lot of things. The past few years have been especially hard on her. Married/divorced, health issues, etc. Earlier last year she had a rough few days, and a few friends and I took off work to come help her
+Friend 2, Amy, has always been especially close to Sara. Amy was getting married last fall and had a conversation with Sara about her drinking at the bachelorette. There were a few instances at different weddings that concerned her but Sara assured her there is nothing to worry about.
+I’m sharing a room with Sara and mutual friend, Liz. Liz and I head back to the room, Sara stays at the bar. Hours go by and we can’t get ahold of her. Amy texts us that Sara is running up and down their hallway screaming and asks us to come get her. By the time we find her she’s with hotel security
+In the room and she’s bawling, so we spend the next 30ish minutes trying to calm her down. Liz passes out in one bed and I’m sharing with Sara. I turn away from her to go to sleep and Sara starts trying to kiss my neck/shoulders, rubbing my stomach/leg/side. I tell her multiple times to stop and push her away. She keeps trying and eventually gets more forceful and tries to put her hands down my pants. I sleep in a chair.
+Amy send Sara a long email, recounting the night and how upset she is with her. Sara remembers most of it. Sara apologizes to Amy and they discuss the best way to apologize to me.
+Fast forward 11 days, my dad dies. To say it was sudden is an understatement. I hear nothing from Sara and I know she was told about the next day. A month later she sent a card. I get it, she was probably embarrassed but she knew him.
+This was last August. We saw each other at Amy’s wedding and Rachels’s birthday but didn’t speak besides the  hi/hello.  In February she invited me to her birthday dinner and I told her we haven’t discussed what happened at the bachelorette and I was uncomfortable with it. She said she felt awful about it and should have reached out, and that she would call me in a few weeks to apologize. (Spoiler: she doesn’t).
+From what I understand from Amy, a few weeks ago Sara and her got in a fight over some of Sara’s recent actions. During the fight Amy brought up everything from last year (not just stuff with me) and how disappointed in her she was and that she needed some time away from her.
+Now, Sara is trying to reach out to me to apologize. She’s called me, texted, and even reached out to my husband. It all feels very disingenuous. From my point of view, she’s had over a year, but is only reaching out now that her best friend is mad at her. I deleted her months ago off of social media, haven’t responded to anything, and have no plans to. The more she reaches out, the worse I feel about it though. Im also aware I could have reached out as well, but never did.</t>
         </is>
       </c>
     </row>
@@ -938,25 +948,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.026785715</t>
+          <t>0.004237288</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.07558488302339532</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>l3qjz7</t>
+          <t>c7zgeb</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>AITA for getting upset because my heterosexual girlfriend likes females breasts? Me and my GF have been together for about 8 months and not to long ago she mentioned she likes boobs, i asked her why and she doesnt have an explanation, she just likes them, shes fully straight has no attraction towards girls but likes them? I dont understand. This makes me upset because it is something i literally dont have and for the fact she told me she was straight. Every time i bring it up she always gets really pissed off and i dont know what to say</t>
+          <t>AITA for telling a bridesmaid to user her free feminine product and stop complaining? Little background: I was a groomsmen in a wedding over the weekend. There was a bridesmaid we'll call C, and C and I don't really get along. She's IMO a drama queen and from the same small (&amp;lt;2,000 people) hometown as the bride and thinks that because her family is the "it family" in the hometown, whenever she visits us we should all treat her like royalty in a city of &amp;gt;500,000.
+&amp;amp;#x200B;
+Flash forward to the wedding: In between the ceremony and the reception, the bridal party was gathered to get introduced. The bride and groom ran off to get some sunset pictures taken when the clouds broke, and the rest of us were waiting around. C comes back form the bathroom and is in a panic because her period "Shouldn't have started until tomorrow", which at this point tomorrow is less than 5 hours away. My wife would not be caught dead leaving the house without her feminine products within 2-3 days of her start, but that's my wife. Anyway, the bridesmaid has no supplies with her, and neither do the other two bridesmaids. In comes the wedding planner, who was going to get us ready to go. Good news, she has a emergency supply kit that has among other things feminine products in it. So the wedding planner gives C what she needs, then goes to get the bride and groom. C then proceeds to bitch and complain for the next 7 mins (I happened to look at the clock when the wedding planner came in) about how the supplies the wedding planner had were store brand and not name brand, that the planner was cheap, these products were garbage, etc. I finally had enough and told her that it was her poor planning to not have anything on hand just in case, and she should be happy someone had something to give her. I told her to just go and do what she needs to do, I was tired of hearing her complain about it. She stormed off and gave my a nasty look saying that since I'm a guy I have no right to judge her brand preference or talk about "period stuff".
+&amp;amp;#x200B;
+AITA? The bridal party was split on this. Like I understand weddings are stressful and all, but at the same time this bridesmaid acted like it was literally the worst thing in the world to be given a store brand feminine product when her options were that or nothing. I understand her having a preference of brand, but when it comes down to something or nothing, I can imagine most people would gladly take something</t>
         </is>
       </c>
     </row>
@@ -978,27 +992,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.85</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.013888889</t>
+          <t>0.0022779044</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gxansa</t>
+          <t>i008zh</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AITA if I leave my gf if she gets pregnant. Before you come at me I’ve made it perfectly clear to her that I’m(21m) not ready for a child. It’s her choice not to use protection. She says the pill makes her feel weird and she doesn’t like the feel of condoms. So I told her that she would be the only one out of the two of us responsible if she gets pregnant because although I pull out it’s not a guarantee. 
-She continues saying that if she does get pregnant she’ll either cut contact with me and raise the child herself or I have to dump her which I find is kinda fucked up and makes me think about dumping her. 
-What do you guys think? I’m really at a loss here</t>
+          <t>AITA for deleting this girl's number and also unfollowing her on Instagram? I met this girl on OKCupid in April and we shortly moved to Instagram. We were talking constantly and everything was fun. We even went on a date and it was so great as well.
+Anyway in late June  I saw that things were going well and that I had a chance, I decided to ask her out and I was friendzoned. She said that she saw me as a best friend and wasn't looking for a relationship. It hurt but I accepted it. Like, I can't change her mind so what's the point of trying to. 
+We were still friends until the last days of June. She just turned called all of the sudden. Like the fun loving person I used to know was replaced by this cold person. She was keeping me on seen. Our conversations couldn't even exceed more than 10 messages. She was just ignoring. Sometimes I would spend like a day or two without messaging her and when I did she would ignore me again. While doing all this she was changing profile pictures and also uploading stories (Instagram) and statuses (WhatsApp).
+She also told me that she had cousins over and she was busy. I waited and waited for her to be free but the day never came. This continued for three weeks. She was still doing the same thing. In my head I gave her a week for her to come around but she never changed even after her cousins were gone. 
+Then one week ago I removed her number and also from Instagram.
+Today she messaged me asking why I removed her and I told her that she was ignoring me and left me no option and that she was treating me like a stranger or like someone she didn't want to talk to. She then said that she was going through personal problems and didn't want to talk to anyone except from hanging out with her cousins. I then said that it's okay to have personal problems. Everyone has them but you could have just told me that, I would've understood. It wouldn't have take more than 2 minutes.
+Does this make me an asshole?
+TLDR: A friend of mine spent three weeks ignoring by saying that she didn't want to talk to anyone because she was going through personal problems and she was spending time with her cousins and I told her that she should have just told me that and I would have understood.</t>
         </is>
       </c>
     </row>
@@ -1020,29 +1039,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.036697246</t>
+          <t>0.0060975607</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.941747572815534</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>hvhzhg</t>
+          <t>bv3ygy</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>AITA for not giving my sister back her clothes? 
-A little more than half a year ago my sister said she was trans and started dressing more like a guy. My sister was really into fashion back then so she had a lot of clothes she was going to get rid of. She let me pick through her wardrobe and keep some of the clothes I liked and then she donated the rest of them.
-Now she’s saying she’s not trans and wants the clothes I kept back because she wants to dress in something that will make her more comfortable with her body and she can’t afford to replace them. 
-I didn’t end up keeping a lot of her clothes because they weren’t my style, but the clothes of hers that I kept were some of her more expensive things. I actually ended up getting rid of a lot of my clothes because hers were better than mine. I now wear these clothes all the time.
-My sister now says I’m deliberately hurting her and messing with her dysphoria by not giving her back her things so she can dress more feminine again, but I don’t feel like they’re her things anymore and I really like my clothes.</t>
+          <t>AITA for refusing free food food. My ex said she wanted to hang out. I said we should go out and eat, but she canceled to get some fast food with her sister. She offered to buy me some In N Out. I asked her to buy me a 4x4 with a vanilla shake. She said she wouldn't buy me a 4x4 because she thinks it’s too much food for me. That she didn’t want to kill me. She offered to buy a double double for me instead. We went back and forth a bit before I said I didn't want anything. She got mad and called me ungrateful because she ended up ordering me a double double and the shake.
+I feel she is being controlling by offering me food and then telling me I can’t have what I wanted.  I never asked for the double double and told her from the beginning I didn’t want one.</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1080,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>10.26</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.008077544</t>
+          <t>0.0085324235</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1077,25 +1093,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>hqak2n</t>
+          <t>bkaluw</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>AITA For Not Helping GF During Her Period. My girlfriend is very sweet usually and we have a good relationship. We don't live together (we're only 18) so I don't always see her when she is having a bad period. Sometimes her periods get very painful. When I am around her when this happens, she gets very grumpy. But this time was worse.
-Her mom was away from home for a couple days and she was having a very painful period. She asked me to come over to her house to take care of her and that she didn't want to be alone. I went over. She was pretty rude that evening/night. Some things she did were not that bad but they add up.
--She never said please or thank you no matter what even when she had me go out to buy ice cream at midnight or after I made her a dinner or whenever I would bring her something.
--She asked me to bring her something to her while she was in the bath. When I did I told her she looked really beautiful. She said "How the fuck does that help me".
--She said the dinner I made " tasted shitty". Not saying she has to like it but still. She still decided to eat it.
--She asked me to come keep her company while she was in the bath as she was lonely. I started talking to her and she said "shut up". She wanted quiet and no talking (which is fine). She just wanted me to hold her hand.
--She asked me to cuddle her in bed so I did. When she let out a moan in pain I told her "I'm sorry that sounded painful, everything will be ok" and she said "Don't downplay my pain if you don't have a vagina".
--She asked me to eat her out because she was horny and thought an orgasm would help with the pain. When I was done I asked her for a handjob and she said " Ew no. I'm the one being taken care of here.". Not saying she had to but she didn't have to say ew. She then said she should have just used her fingers so she wouldn't have to deal with my horniness and that it would have felt better anyway.
--She said multiple times her mom does a way better job at taking care of her.
--She asked me to play a song on my phone. I couldn't find the song because I heard her say the song name wrong. She let out a big sigh and said "Moron".
--She rolled her eyes at me multiple times.
--When I was pouring her dog some food she told her dog " You're lucky he didn't make the food himself"
--Every night whether we are together or apart we have always told each other good night and I love you. When she said she is going to sleep I said " Good night I love you" and she said "I'm trying to sleep."
-In the morning I told her I didn't like how she was treating me and that it hurt my feelings. She said I have to deal with her and take care of her while she is on her period. She said I was making her pain about me. The period was still bad that day and she wanted me to take care of her again. I went home saying I won't take care of her again unless she apologizes and treats me better. She now says I left her all alone in pain and I'm being a bad boyfriend.</t>
+          <t>AITA for telling my ex he is too hard on our child? We have been separated since before our daughter was born and recently she has been getting into trouble at school (she’s 8, and in grade 3) for not doing her homework. The homework is usually one worksheet per night and sometimes an online portion to strengthen skills. On these nights when she seems to forget to do it, it’s almost always at her father’s.
+The other day when I picked her up, she had forgotten her homework at her dads house (before she left for school that morning) and she was crying so hard I thought she was going to get sick.  Most parents know what it’s like when they are THAT upset, and it disturbed me to see her like that over a piece of paper. 
+When I started asking questions he was throwing around accusations that I never punish her or when he grounds her I don’t reinforce it (he never tells me when he grounds her). He said that the only reason she wants to live with me is because I let her do whatever she wants. 
+Here is where I get hung up on things. According to him, he not only DOESNT remind her or help her figure out her homework, he doesn’t make sure it’s in her bag for school, it’s HER responsibility. When I pick her up from his house her bag is usually filled to the brim with garbage, toys, and papers that need signed but have been ignored. I’ve found old permission slips, and once I been found a parent teacher conference slip that was a week past due. To me, she’s still learning responsibility; We need to help keep her on track, not expect her to just do everything herself. He has a list of chores which she needs to do (including yard work) every day and he claims she has a smart mouth with him and that “needs to stop because she shouldn’t speak to adults the way she does”.
+The thing is, I don’t have these issues with her. I don’t allow her to disrespect me, but she is allowed to speak her mind openly. Not once has this been a negative, and when she tells me how she feels it is in response to something she doesn’t like and she isn’t rude or disruptive about it. As for the chores, she has responsibilities at my house with no complaints: She feeds/waters the animals, keeps her room clean, empties the dishwasher and the trash when I ask her, and she usually volunteers to help with laundry and vacuuming when I do them. 
+My rules are that as long as she does as I ask her to, she is allowed to spend her free time as she chooses. When she gets home from school, she immediately does her homework and chores, sometimes I have to remind her but most of the time I don’t.
+When I tried to talk to him about our contrast in parenting and maybe changing both of our rules to have more consistency, he just dumped all these problems on me and claims it’s my fault. I “baby her”, or I let her “get away with everything”. 
+I’ve never had a good example of great parenting, I just want to know what the right thing to do here is. Am I the asshole for not being as strict?</t>
         </is>
       </c>
     </row>
@@ -1117,25 +1127,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>10.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.019607844</t>
+          <t>0.009433962</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9w5pci</t>
+          <t>d8y353</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>AITA for not encouraging my gf to get plastic surgery? I just don’t really like the idea of her getting a nose job, I think she is beautiful and I hate the idea of her permanetely changing the look of her face. She says she’s had confidence issues about her nose and that if she got the surgery, she’d be more confident about herself, but I just think we have all gone through that right? So idk, I just don’t support her decision and she’s worried that I might breakup with her.</t>
+          <t>AITA for calling out my gf for cancelling on me last minute for three weeks straight and using the same excuse every time. So here it goes. I asked her if she wanted to go out drinking with me and she said yes, then the day of I get a text from her saying she is ill. I tell her it's okay and for her to get better.
+Then a week later I invite her to go see IT and asked her if I should pre book the tickets, she said yes. Then the day of the movie she texts me again telling me she's still too ill.
+She then went to go see it with her sisters a few days later, which really got under my skin. 
+So on the third week a few days after telling her she's been acting a bit dismissive lately (she mentions she was at the walk in and got antibiotics and apologises) we make plans for her to come over.
+Then once again she sends me a text the day of saying she's too ill to come over. I told her she could come over and lay on the sofa with me and I'll make some thing to eat but she said there is no point to her moving from one sofa to another.
+This pissed me off so I told her to suit herself and decided to ghost her for a few hours. After a while she asked me if I was pissed and I admitted I was. This began an argument about how I don't consider how she was feeling over these past few weeks and how I shouldnt feel as though I was being neglected.
+So reddit am I the Asshole here for getting annoyed?</t>
         </is>
       </c>
     </row>
@@ -1157,32 +1173,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16.27</t>
+          <t>12.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.028880866</t>
+          <t>0.0068610637</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9090909090909091</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>fmzv47</t>
+          <t>d0y89u</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>AITA for not approving of a weird contest between my GF and her mother? I believe my (31M) girlfriend (35F) has a weird relationship with her mother (65F). They seem to share quite a strong mother-daughter bond, but at times my girlfriend shows signs of suffering from some kind of psychological complex. She hardly grooms herself properly when she is with me. It does not matter too much because she is extremely good looking. However, whenever her mother dines with us, she dresses up quite exquisitely. Her mother keeps calling her "my beautiful princess" instead of Bianca. 
-My GF's mother rarely cooks at home; her father does all the cooking. My Gf often ridicules her mother's aversion for cooking. Last month, her mother declared that she has great culinary skills but never puts them to use because of her "laziness". Bianca, who is an excellent cook herself, challenged him to a cook-off. They made a weird bet. The winner could ask the loser "anything" of her choice. I began to feel greatly uncomfortable.
-Over the past month, they competed thrice. Each time MIL came visiting, the daughter would take her to the kitchen and they would make one dish each, and ask me to judge. They gave me no clue as to who made what. I was in a difficult position. I implored my GF to drop me a hint, but she looked straight at her mother. She gave me no clue even when we were alone.
-I had to judge the food based on the quality alone. Once, I declared my verdict, they would not even let me who "won". They would just look at each other and smile. My GF replied that I would get to know the eventual winner at the end of this month. I went through great emotional strife each time I was called upon to judge.
-Yesterday night, my GF wore a leopard skin when her parents came over to our place. She kept looking at her mother and giggling in a strange manner. She also sat next to her at dinner. Her mother smiled occasionally too. Mom asked her princess about her experience of "losing". My GF replied that she felt "ashamed but proud". I told my wife's mom straight away that she hadn't defeated her daughter but rather her daughter must have let her win.
-Later in the night, she confessed that I had judged her mother's dish to be better each time, and she had lost fairly and squarely. She personally felt that her mother's dishes were better too. She kept on insisting that she did not lose intentionally, but was beaten fair and square. I asked her to get over her creepy mother fixation but she wouldn't listen to me. She called me a "cry baby" and a "sore loser".
-She often loses to me at chess but I only get a congratulatory kiss. She never gloats over my success. Isn't she fixated to her mother?
-**Conflict**: My GF insists that I denied her mother the joy of winning by claiming that my GF lost intentionally. She also does not find anything weird in the bet she made with her mother. I find everything so creepy. Who is TA here?</t>
+          <t>AITA for walking away from a friendship because I can't handle her behavior? Basically since my friend has entered college and gotten a boyfriend she's changed dramatically. She struggles with ADHD and depression and during freshman year she lost track of assignments then refused to get help or go to class. I also struggled with mental illness my freshman year of college so I offered her help and advice. Our mutual friend also helped. We arranged study meets, reminded her about due dates, and checked up on her to make sure she was attending her class. Later, we figured out that she hadn't turned in any assignments because she hadn't finished any. The work she did when in study groups? that was all she ever did on the assignments in question, usually just a few sentences. The time she had claimed she spent working on them at home was actually spent hanging out with her boyfriend.  She asked for more study time and we agreed, but then figured out that she wanted us to do her work for her. We asked her how we could help teach how to do the assignment herself, but she ended up saying "I can't do it, I don't know how" and then crying. I suggested she change her major to something else if she was having big issues with it, because she would have to do a lot more of it for her major. She completely broke down and complained about me to my mom.
+She also spends every moment of every day with her boyfriend, to the point of being flakey with plans, including missing a friends birthday because she forgot and being late to mine. She also began to fake sick and go home from group plans only to be seen later with her boyfriend, or would fake sickness on trips and hide in first aid to call her boyfriend for a few hours. She constantly talks about her boyfriend and if anyone mentions anything about their SO she immediately has to chime in with information about her boyfriend that one ups whoever was previously talking. Eventually she started bringing her boyfriend to friends houses when only she was invited.
+After a ton of small events I got together with her to talk out my issues. I was worried that she genuinely felt like she couldn't pass classes. I also told her I was uncomfortable with the constant talk of her boyfriend and she told me that I "wasn't fair because she loves him." She then told me that the help and advice I want to give her just hurts both of us so I would need to cut it out and suggested that I just not be friends with her because she "didn't want to hurt me anymore so it'd be better for me to just leave her." I said I still wanted to be her friend but I'm concerned for her wellbeing and frustrated with how she treats her friends as beneath her boyfriend. She told me that nothing brings her happiness or feeling at all except for her boyfriend, and I walked out. 
+When she told our other friends she basically told them that I couldn't handle her because she's too depressed and mentally ill so I decided to walk out on her.
+Am I the asshole for walking away from a friendship because I can't handle her behavior?</t>
         </is>
       </c>
     </row>
@@ -1204,23 +1217,911 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.004830918</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>dttwjc</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>AITA - I was worried for a pregnant (7months) friend because she may lose her baby if she don't stop working (started a new business) but she say she cant. I heard that she won 35ke a months with her business. Asked me to help her for legal minimum wage (6am-2pm, 6 days a week), but I don't want to. A friend started a new business with her bf and she is pregnant (almost 7month). I was worried af for her since she should rest and eat more and his business is a very physical stuff (fruits and vegetables market). I told her that if she needed help she could. 
+Her doctor says she should stop working because her baby is still small and didn't gain weight (her either). 
+I tell her that I don't understand why she don't stop working and she says that she can't since it s the beginning of the business and she have to help her bf. 
+Also she asked me to help her for the business for a low salary but long hours, because she didn't find any people willing to work with them. She propose minimum wage 1430 euros for at least 8 hours of work per day 6 am to 2pm, 6 days a week. 
+That's what she proposed to me. She insisted that she really need my help and all that. Yesterday she stayed with me all day and I didn't understand why but I think it's because of that. 
+I was willing to help until I heard that with her business she make at least 35k euros a month (and can hide some money from the gouv). It's the beginning so she said that she have a lot of fees etc. 
+I then understand that she didn't need me to worry for her and that she choose the money over health and her baby I think. 
+But should I help her anyway? I told her I would help her but I changed my mind...
+TLDR: pregnant friend choose money over her baby and want to exploit me like a slave for her new business.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.006993007</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>jpp424</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>WIBTA for not going to someone's event because she made it clear I was a second or maybe even last choice? I was reading a book in bed and thinking of going to sleep early when my SD (12/F) came in, snuggled next to me, and asked if she could talk to me about something. I wasn’t feeling well, had a migraine, but said, “Sure, what’s up?” 
+She wanted me to go to a mother-daughter event with her for her gymnastics team and asked if I’d go with her. She said that she asked her bio mom to go with her but that her bio mom said that she was busy with work and couldn’t make it. For context, I met her when she was 6 and married her dad when she was 8, so I’ve been the primary mother figure in her life. She reconnected with her bio mom, who abandoned her when she was 2, about 9 months ago and I’ve clearly taken a backseat to her bio mom in the meantime. 
+She then added that she asked her grandma after that but her grandma only wanted to attend virtually over health concerns. After hearing I was the last choice, I was going to say “no” but just said “I’ll think about it.” Even if the event can be held in person safely, I’ll probably tell her no when the date comes because she obviously wanted other people there more. 
+I was going to roll over and go to sleep, but my SD then tried to hug me, kiss me, and tell me that she loves me. I hugged her back half heartedly and was going to tell her to let me sleep when she asked if she could sleep in the same bed as me tonight. She wanted “to cuddle.” 
+I told her no, because I was tired and needed sleep. She then said that she was also tired and would fall asleep immediately. I told her more firmly that I needed sleep and that I’d see her tomorrow. She seemed dejected but went to her own room to sleep afterwards. 
+She hasn’t spoken to me after she woke up this morning but has cried 3-4 times about I don't even know what. She won't tell my husband what happened either.
+So was I the asshole for not wanting to sleep in the same bed as her and WIBTA for not going to her event?</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.00625</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.08636363636363636</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>cwd2sm</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>AITA for telling our daughter why me and her father are divorcing. Me(32F) and him(38M) are divorcing now. We have 16 year old daughter. She didn’t know about it yet, she suspected something and just asked us what was going on. I told her we were divorcing and she didn’t take it well. Her dad told her that I was the one initiating the divorce, she got mad at me. So I told her exactly why we were getting divorced. Because her father was cheating on me with an 18 year old boy. She was shocked, she went completely hysterical. I calmed her down, now she doesn’t even want to talk to her dad. 
+He’s upset at me, so is my sister. She said that it was wrong just to blurt it out like that and I should’ve prepared her for it if I decided to tell her.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.008417509</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>d11pwp</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>AITA for returning a kid to her mom? I was doing my shopping when I heard a girl about maybe six ask her mom for something. Her mother refused and the girl started whining. At first I didn’t pay them any attention because these things happen all the time but then I hear their conversation. The girl wanted one of those tiny backpacks and was pointing to a rainbow striped one. Her mom said she could pick out any other bag but not the rainbow one. The girl insisted that she wanted the rainbow one and was begging her mom to get it for her. 
+They were causing quite a scene so I started walking away and as I did, I heard the mom say something along the lines of, you can’t get a rainbow bag, you know the kind of people that wear rainbow things. I kinda froze at that point because of how violently she said it. I remember the girl saying, but mom I’m not even gay! Her mother replied that she knew she wasn’t but she wasn’t going to buy her things that associated her with those people. 
+At this point, I’m willing to get involved with this since the girl is still trying to convince her mom that rainbows are not just for gay people and her mom looks like she’s going to hit her.
+I’m walking up to them but another lady beats me there, she is practically shaking with fury and she taps the mom on her shoulder, says that if her daughter wanted the bag she should get her the fucking bag. The mom reprimands her for swearing in front of her kid. What kind of example is she setting for her baby? I interject that it’s better than teaching her to hate People and she whips around and tells me to shut up.
+The lady is yelling now, and telling her that’s no way to treat people she shouldn’t be teaching her daughter hateful things. The mom says that it’s her kid and she’s responsible for her not becoming a faggot. 
+An awkward silence ensues then the lady, blinking back tears, tells mom about how her son overdosed after he was bullied by classmates when he came out. Another awkward silence, then the mom looks at her daughter and asks, do you want to end up like her son? Dead? 
+The lady loses it. At this point security is marching towards us. Lady grabs the mom’s kid and starts *dragging* her towards her side. Mom does the same and they’re practically playing tug-of-war with this kid who is also crying . 
+It’s at this point that I finally step in. I grab the lady’s hand and make her let go of the poor girl. She turns on *me* she asks why I would let her go back to that monster? 
+I reply that it’s not her place to take the kid and she calls me a homophobic asshole. While I’m explaining to her that It’s not the case, security escorts us out. The woman is still yelling at me and calling me all sorts of things as I head to my car. 
+So I call my mom and tell her about what happened. My mom agrees that I shouldn’t have involved myself at all. Even my friends think I’m an asshole for tolerating that woman’s behavior. I’m currently not speaking to any of them now, but I wanted to ask, am I the asshole for involin myself?</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.043343652</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>bkd310</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>WIBTA for choosing to put my autistic brother in an extended care facility? A few years ago, my dad got remarried. I love the woman he married like part of my own family, as well as her two children, whom I have happily adopted as my own siblings. The younger of these siblings (my new little brother) is a boy with very limiting autism. Like, can’t talk, isn’t potty trained, only eats two foods, etc. Not very long after the marriage, my dad asked out of the blue if I would be willing to take care of my brother when he and my stepmom died. I asked him why they didn’t want to put him in a facility where people have more knowledge and expertise when taking care of people with special needs. My dad said that family is supposed to do things like that, and that it’s really our job to take care of each other. I felt hesitant about it but eventually agreed. I don’t disagree with my dad that family should take care of each other, but my soon to be wife and I are on track to make a career in a country that isn’t very accommodating to people with special needs. This would mean either a very difficult life for all of us in a third world country, or us completely changing our plans and remaining in the states to care for my brother. In the years since, I’ve really regretted the answer I gave him. WIBTA for telling my dad I’m not really comfortable with the promise I gave him? Career issues aside, I just think there are people that could give him better care than I ever could. I think with careful choosing, we could find a safe facility for him that provides a much better life for him than I ever could.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.043243244</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01302931596091205</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>apa38v</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>AITA I freaked out on my roommate for recording the squeaking bed noise from my girlfriend and I having sex? So my girlfriend came up to visit for the weekend up at my college. My roommate(one of my girlfriends and I’s best friends) and another mutual friend said they were leaving to get Burger King. My girlfriend and I were trying to do the deed one last time before she left to head back to her school today. As soon as he left I texted him, “Hey text me when you’re headed back, and take your time eating we kinda need some alone time.”
+He didn’t reply but I knew he saw it, so my girlfriend and I got right to it. And in the chaos of it, my phone went off which I didn’t notice. He said he needs to come back to get his notebooks to study. Then he said they were at the door. I didn’t see it going off until my girlfriend and I finished. I texted him apologizing and saying you can head back to the room. 
+He then said, they bailed because the bed was squeaking and we were kinda loud. I was mortified but just said alright well come back whenever.
+He then sent in a Snapchat group that I was in with some other friends a video of him out the door where you can *CLEARY* hear my girlfriend and I going at it. It was meant to be a joke but we didn’t take it it well.
+My girlfriend is relatively new to sex(she lost her virginity to me not long ago at all) and gets really anxious about things like sex. So she freaked out and started crying. So I freaked out on my roommate and cussed him out pretty bad and said if he comes back in the room anytime soon I’m clocking him in the jaw. 
+We made up and everything is okay now between us, but now we’re disagreeing to if I overreacted or if he seriously just crossed a line.
+Am I the Asshole here guys?</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.041666668</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.002645502645502645</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>brmp99</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>AITA for not giving my seat up on the train. So im on the train now on my reserved seat. Its got rammed and people have to stand. A older lady is standing near my seat. Somebody says I should let her have it. I say sorry but I have reserved this seat and will be on this train for a few more hours. A few people have had a go at me or gave dirty looks but Im not moving. Am I being an asshole?</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.0738255</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>brgqit</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>AITA for telling my mom about my OCD and being diagnosed? My brother is going to jail for drugs soon however my OCD tics have gotten to an all time high and I had a bad wave Sunday. I told my mom and went to the doctor. Got a diagnosis. My mom bitched at me the car ride home because it could destroy us financially with counseling and shit, we wouldn’t be able to buy a house becuase all our money would go to my counseling and I was faking it for attention. She also said I timed it like this because I was jealous of my brother and getting attention and that my want for attention was going to kill us financially. AITA for timing it like this? I didn’t mean  to strsss her out like that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.075630255</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>kbz9sa</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Aita for not wanting a maid. So my 15m mom just hired a maid to help clean the house and I just told her not to clean my room when I get home guess what my room smells like a crappy cleaning spray but my main reason isn’t cause I’m a germaphobe it’s because during quarantine I’ve started a new hobby of collecting hyped/expensive clothing and shoes (upwards of 3k)and don’t want anyone near it unless I’ve said so aita 
+Also she messed with my bathroom stuff and my skateboard which is like 250+ usd
+Also this is all my money my dad helped me make it but it’s in my bank account</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.04770318</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>c19q31</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>WIBTA to tell my mother in law no when she invites herself to when my husband and I go visit my family? My husband and I have been together 7 years, married for 2 of them. In the beginning we lived with his parents. We currently live 1 mile away in the same neighborhood. It’s a very Everyone Loves Raymond situation over here. 
+If it was up to my in laws we would spend every weekend with them. I’ve put in some boundaries and we see them about once a month. This month we actually saw them a lot (we traveled two different weekends with them and spent yesterday brunch together and will spend all day today with them for Father’s Day) They also post all of this over social media so to my family they see all the good times we have with the in laws. 
+My family lives 2 hours drive away. My mom has expressed disappointment she doesn’t get to spend as much time with us as the in laws do. After our wedding we started doing monthly dinner clubs with my family where we pick a middle place and try out new restaurants. This is our standing time with my family. It’s been really great because my DH is getting to know his in laws and the burden of driving far is off him. These dinners are also short never more than 2 hours so perfect boundaries. 
+The problem- lately my MIL has been asking if she could come to our next monthly meet up with my family. She asked this yesterday in front of the whole in law family. I can tell it’s bothering her because everyone got quiet when she said it. I just changed the subject but I want to tell her I think it would offend my mother.  We literally saw them 3 of the four weekends this month and she wants to invite herself to our next monthly dinner with my family. 
+In private in the past I’ve suggested to my mil that she could reach out and set up a different activity to get to know my family but she hasn’t done so. Also my family has invited her and their whole family each year they do an Easter brunch (my in laws came two separate years) but I mentioned that to her as a “they’ve extended invites” and you guys haven’t at all to help her connect the dots that inviting herself is rude but I never spelled it out. 
+I feel like that’s more than enough on my family’s part and her inviting herself to our monthly dinners is not coming from a good place of getting to know my family but rather interjecting herself because she’s jealous of their time with us. 
+ATIA for feeling this way? WIBTA if I explain this to my MIL that I’m worried it would offend my mom? 
+I have a decent relationship with my mil and feel like if I explain this she might understand? She’s also told me early on that she had a bad relationship with her own mil and I should always feel comfortable telling her if something bothers me. I’ve talked to her about minor things and she took them well!</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.04195804</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01641791044776119</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>bro7cr</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>AITA because I called my sister out for binge eating, espcially after out house was turned upside down for her diet? So much backstory here...I have a half sister who is 11 years older than me. She is the absolute golden child of the house and me and my little brother have always felt like after thoughts. It sucks and we can't wait to get out of this disfunction.
+My sister was married last year and she has starved herself for rhe wedding and in the year after she gained almost 90lbs back and her husband is leaving her, not for weight gain  but for the lying and sneaking of food. My mom moved her back in and because my dad does whatever my mom says, he allowed if even though my sister is 27. We had this big family meeting that we had do be supportive of my sister and all snacks and treats were being thrown away and we would have to eat dinner as a family (I had to leave softball practice early) as a show of solidarity and support for her. It was miserable because we were eating low fat everything, a ton of tofu and it was just flavorless and I felt like I was starving all the time. I was taking my own money and buying breakfast at McDonald's just to make it through the day. 
+Well last week I saw my sister at the drive through of jack in rhe box next to my work. She had a huge milkshake she was sipping on. I was so pissed I went to her car when I got home and though its brand new (my parents bought her a new car so she could look for a job), the passenger seat is literally full of fast food trash. I went inside and grabbed her key, unlocked it, snapped a pic and sent it to my parents. 
+I don't feel bad about what I did but my parents are so mad at me because they feel I've set my sister back. I told them she was never on track because with that much trash, she's been sneaking food while the rest of us were starving. Even with all this my parents aren't letting me and my brother eat normal food and I'm positive Vicky is still sneaking food because she cries daily about not losing weight. 
+Was I the asshole for calling her out?</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.07438017</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>b067ue</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AITA for keeping my phone on when my mum was talking to me. For context, I suffer from diagnosed depression and anxiety and have medication to help me, I also have a loving gf who keeps me going, my parents, especially my mum, don’t believe in depression and say I’m using it as an excuse.
+Ok so, this night was particularly bad, I’m a gifted kid but I lack effort, my parents always tell me that I am not living up to my potential and I’m a failure. This night in particular, my mum and I had had a fight as I thought I was improving in school by talking in class more but mum, not seeing my teachers, did not believe I was doing well enough. My mum had walked out and my gf had called me, we were talking to try and calm me down.
+Around this time, my mum walked back in, but instead of hanging up, I just left it there for her to listen, my mum was unaware. After some time of having a go at me, my gf unmuted herself and basically told my mum to stop and that she didn’t understand (for context my mum is an ‘eat a lump of concrete’ person) my mum was very annoyed and said that I was a liar  and that I was dead to her.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.050890584</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>jpy2po</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>AITA For talking about my half sibling with my mom on her birthday. Formatting is weird because I’m on mobile. 
+This happened just a few hours ago, and I feel guilty about it but also angry. 
+For reference, my mother and father have been divorced for close to 10 years now. My father remarried and had two children who are my half siblings and I love them. My father is very absent from my life, and my mother hates him. 
+Today my mother and I went out to celebrate her birthday which is tomorrow. She picked this Italian restaurant which was amazing. We had amazing food, drinks, and fun. I wished her a happy birthday and decided to pay for the meal as a present since she’s not a gift person. 
+As I paid for the check, I was telling her that I missed my half sisters birthday about a week ago. My mother flat out told me she didn’t care. I thought it was rude for her to say that so I got a little annoyed. I didn’t say anything about it and was going to leave it until my mother asked me why I was upset. I told her she didn’t need to have an attitude about it and that I was going to leave it at that. I really didn’t want to ruin the rest of the day. But my mother kept repeatedly badgering me on why I was annoying even though I asked her to drop it. 
+Eventually after my mother asked me again for the tenth time why I was annoyed, I told her that I always listen to her family problems between her and her own sister who she doesn’t like at all. She said there was a difference because they’re older and they have more history, and that my sister was only a kid. 
+I didn’t say anything else, simply just kept quiet until she said, “I don’t give a fuck about your asshole little brother or sister.” I decided that I had enough and got up to leave without saying a word. My mother said that if I left we would no longer be on speaking terms. I still left. 
+AITA for bringing up my half sister during my mother’s birthday lunch?</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.04032258</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.003294892915980231</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>d3alil</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>AITA for wanting my cat back? So a little over 6 months ago I moved out of my old apartment. My lease had come to an end and while I wasn’t planning on moving out at first I abruptly decided too after a few bad altercations with my roommate towards the end. 
+When I decided to move out it was very last minute and didn’t give me time to save or find a new place. I had nowhere for me or my cat. So when my BFF and her roommate offered to take my cat I was beyond relieved. They said they would be happy to take her as long as I needed. 
+When I moved my cat in I had brought her litter box, litter, food, toys, scratching post, etc. And I told my best friend that of course when she ran out of food and litter or anything I’d pay for more. 
+So her roommate fell absolutely in love with my cat and actually offered to buy her. I told her that I wasn’t really looking to give her up but if I couldn’t find a place that wouldn't allow cats she could have her for free. 
+After about 2 months of me not finding a place the roommate made it clear she would be happy to start buying her litter and food and I could just pay her back whenever. I told her it was fine and that I had the money but she absolutely insisted. But anytime I tried to pay her back she would not accept it.
+After 4 months of me still not finding a place I found out the roommate had taken my cat to the vet without telling anyone. She saw my cat scooting on the carpet and assumed she had worms. If she had just asked me I would have told her she sometimes gets litter stuck to her butt and that’s her trying to get it off because I had already had her checked for the same reason. Even tho I saw no reason for the vet visit I still offered to pay her back because I appreciated her concern for my cat and she said it was alright. 
+So flash forward to today and I have just moved into my apartment yesterday and I want my cat back. So I texted my BFF I’m coming over to get my cat and so she tells her roommate. Her roommate then proceeds to tell her that she thought the cat was hers now and she won’t be giving it back. My BFF told her she wasn’t her cat but she then proceeds to lock my cat in her room so we can’t get her. 
+When I got there she still refused to give me my cat. She told me because it’s been so long and she’s been taking care of the cat and paying for everything she has claim to it. I told her I’d pay her back for everything and for it’s care and she told me no she wants the cat. I told her no and she actually started fucking crying. She told me she just loved my cat so much and didn’t want to give her back. I ended up just saying she can stay her for the night but I’ll be back tomorrow to get my cat.
+I now feel bad because she had bonded with my cat so much but I love my cat, too and I want her back. I guess it has been a really long time but I was kinda being picky with apartments because they were happy to have her. AITA for wanting her back now?</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.042016808</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>jhhl87</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>AITA for giving my sister the silent treatment? So me and my sister were walking a friend home earlier, and after we dropped her off I started to tell my sister about this cool show I found but she said “I don’t want to talk about it with you” so on the way home I didn’t talk to her even though she was crying and begging for me to stop ignoring her. When we got close to home I told her that she hurt me by shutting me up like that and she never apologized.
+I’m beginning to fell like I’m wrong so AITA for giving my sister the silent treatment?</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.086021505</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>d06qdy</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>AITA for not wanting my mother in law to take my daughter to Disney? My mother in law wants to take my 6yr old daughter to Disney for her first time. It has never been nor is it her intent that my husband and I go. She has explicitly said that it will be only her and maybe my father in law if she can convince him. Am I the asshole for wanting to be there her first time?</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.046153847</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>aybb85</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AITA for wanting to adopt my niece? My brother lost custody of his two children and his ex lost custody of the other two as well.  So my mom is raising four children, only two of which actually are biologically related to us. My mother lives in the projects, can barely pay her bills, and is mentally and physically abusive to these children on occasion.  I spoke with DCS and they said, “Hitting a child in the face doesn’t necessarily constitute abuse.” So there’s that.  However, my brother who has been six years sober is attempting to regain custody of his two.  He isn’t necessarily able to get the youngest two as they aren’t biologically his.  My youngest niece is seven. Again she’s not biologically mine but she’s been my niece since she was born.  She lived with me when she came home from the hospital along with her mother. Anyway, she told me recently multiple times that she wanted to live with me because her sister (11) beats her up all the time and tells her she’s unwanted.  My sweet seven year old niece told me that’s terrified that her biological dad (an abusive sex offender) will come steal her away because that’s what her sister tells her. And that her real mom and dad don’t love her and that’s why they don’t see her, all because my biological niece tells her this. 
+I asked my mother if I could adopt her. I live in a different state. I’m in the military and I have two children on my own. My reasons were to get her away from her abusive sister and my abusive mother, to offer her a home with a mother and a father in it, and to give her something that she doesn’t think was given out of obligation, something that nobody can ever take away.  
+My mother screamed and cussed me when we talked about this. “How dare you try to take her Way from me.” The evidence for how much better quality of life can b me for a child with a mother and a father is staggering, but my mother wouldn’t hear anything.   
+tl;dr - I want to adopt my niece because my mother is a crazy person.  She said I’m an asshole for suggesting it.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.054545455</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1132075471698113</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>eg8xfb</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>AITA for calling out my grandmother for picking favorites?  Christmas came and went. My aunt C does a family party and giving gifts. Since I'm one of the older grandchildren. There is 14 grandchildren all together. The older grandchildren gets clothes and things. 
+Mom:my mom. Mother of three and stepmother of 1
+Aunt C: she's the hostess and loves hosting thing and mother of three and stepmother of 3
+Aunt T: mother of two and she is funny and fun
+Here's the deal, my grandmother is my mom's step mom since my biological grandmother died when my mom was 9 years old. 
+ My grandmother ((the stepmother)) spoils Aunt C's children and step children more than the rest family's children. 
+ Like I said Christmas came and went. Like always Aunt C children got spoiled again. I decided to call her out after the party
+Me:Why do you spoil Aunt C children and not the rest? 
+Grandmother:No I don't
+Me:They got new tablets and the rest of the family got giftcards 
+Grandmother:Well I can't afford tablets for everyone
+Me:why buy them for Aunt C children even though they have laptops and phones? 
+Grandmother:Oh, I have to go? 
+ My grandmother called my mom and my mom yelled at me. So Am I the asshole?</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.05839416</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9995323825111059</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>emb909</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>AITA for telling my daughter I'm her dad, not her mothers boyfriend. When I was   17 my ex got pregnant.
+My fault, I didn't wear a condom.
+I freaked and failed, I went to go college and am currently dating a wonderful woman, she's due to give birth.
+I'm now 25, my ex is 23.
+I recently reached out to my ex and now I have my daughter once a month, 4 days, it's been happening for 3 months.
+I was dropping my daughter off at her mothers when she mentioned "mummy and daddy"
+I told her I'm her daddy and that mummy's boyfriend is her step dad.
+Her mother is now completely angry, I personally think our daughter is old enough to know.
+AITA?</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.048034936</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>dn6075</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>AITA for making my daughter invite someone to her birthday party? My daughter (8) has an on and off friend. My daughter claims that her friend is mean to her but she keeps playing with her, especially when she doesn’t have anyone else to play with. This friend is in the same group of friends and she has always invited my daughter to her birthday party. If my daughter doesnt invite her, she would find out and it will likely hurt her feelings. 
+I have told my daughter that if this friend is truly mean to her, she shouldn’t lead her on by sometimes being her friend when it is convenient to her. Last week my daughter went to a school dance and she played with this friend the whole night because no one else from her group of friends came to the party.
+I told my daughter that if she keeps playing with her she is giving her the impression that they are friends. if she is truly mean she should let her know and stop playing with her if whatever she is doing doesn’t stop.  if she excludes this friend from the party, we will just have a family party instead. my friend thinks i am the assole for forcing my daughter to invite someone. AITA?</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>17.69</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>0.040169135</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F38" t="n">
         <v>0.01093256059009484</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>jncy5t</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>AITA For telling my wife she's the reason she's not invited to her daughter's wedding? 
 I M43 been with my wife for 4 years. I have a 19 year old stepdaughter. She suffered a lot during her parents divorce and she hasn't gotten therapy til I came into the picture that's when I noticed how depressed she was was. 
@@ -1233,123 +2134,123 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>liwc_female</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>85%</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>19.23</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.035928145</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>hql2q4</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>AITA for being mad that my gf adopted her sister without telling me beforehand. I(20m) live with my gf(21f) who has a sister(14f)
-Yesterday I came home from work to find my gf and her sister sitting on the couch. I ask why she’s here and apparently her mom has been neglecting her and she needed somewhere to stay and my gf took her in. My gf knows that I think her sister is annoying but still invited her to stay.
-I ask why she didn’t tell me first and she said that it wasn’t planned and she had to make sure her sister was safe. When I tell her that she needs to ask before doing something like this she said that she tried to call me even though I told her awhile ago that I can’t get a phone signal at work. I am very mad that she did this aita</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>liwc_female</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>_POST NOT FOUND_</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>_POST NOT FOUND_</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>_POST NOT FOUND_</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>_POST NOT FOUND_</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>_POST NOT FOUND_</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>90%</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>19.39</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>0.045045044</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F40" t="n">
         <v>0.9863842662632375</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>cjudzm</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>AITA for convincing my little sister she was adopted until she was 12? I’m the oldest of 3. My grandmother kept a wall of pictures of all her grandchildren and great grandchildren. The older she got the more she forgot to update the wall. My little sister asked one day when she likes like 6... why she wasn’t on the wall... I told her she wasn’t on the wall because she was adopted... And if she told my parents she knew they would give her back.... she finally let it slip that she knew when she was 12...</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>liwc_female</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>liwc_female</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>95%</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>writing_sty_focus_i_poss_norm</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>writing_sty_focus_i_poss_norm</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>21.15</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>0.06140351</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F41" t="n">
         <v>0</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>n2wjkt</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>AITA for calling someone mom though they're not my mom? I told my dad's that I loved her this morning and made her breakfast. I also started calling her mom. She hugged me and told me she loved me like her own daughter.
 Later, my dad pulled me aside and told me to stop calling her mom because she's not my mom and because she doesn't know if she wants to be called mom, even though she's the only maternal figure I've had in my life (my mom left me as a toddler). 
